--- a/Election.xlsx
+++ b/Election.xlsx
@@ -1,53 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22704"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1953493A-08DD-4EDA-A533-9FEBCC77634D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>Relevancia</t>
-  </si>
-  <si>
-    <t>@jm_scindia now i am afraid, what did you speak against bjp during election, it was just a chunavi jumla and falls allegation? if yes then hard to trust u anymore (u can speaks anything against any1 for power). if not then u need only power, doesn’t matter where u get</t>
-  </si>
-  <si>
-    <t>@edroso savvy people are going to lose this election again</t>
-  </si>
-  <si>
-    <t>#सिंधिया_परिवार_गद्दार_हैं why to waste money in election modi ji , because there is no any respect to the election mandate from bjp , using of money of public in buying mps and mlas is the bussiness of bjp , and now i understood why yes bank is in loss ......</t>
-  </si>
-  <si>
-    <t>@irkutyanin1 @jazon07142610 @espressosoldo trump and his election have had disastrous consequences on social sanity</t>
+    <t>biden aims for big michigan win, while sanders looks to keep white house hopes alive https://t.co/mrsdttmwvb</t>
+  </si>
+  <si>
+    <t>wow...it's almost like @berniesanders has won the election!! https://t.co/gxflogd31f</t>
+  </si>
+  <si>
+    <t>rt @pupiczech2: i'm trying to gather stuff to stay in; cat food, books, rx, bleach. but i work the election tomorrow. i'm going to be very…</t>
+  </si>
+  <si>
+    <t>@annwilburn7 @dnc sorry, some of us think for ourselves. we don't let the establishment think for us. this election is bigger than just beating trump.</t>
+  </si>
+  <si>
+    <t>rt @googleexpertuk: @handy_oscar really do think it needs to be called out, &amp;amp; i am sure i haven't held back on calling #mikeperls out. he i…</t>
+  </si>
+  <si>
+    <t>rt @coachpmedina: no bottled waters and toilet paper at costco! 😭😂 people are really freaked out. smh. 
+the media can fool all of us so ea…</t>
+  </si>
+  <si>
+    <t>rt @burkmc: i’ll be forever bitter about hillary’s stolen election.</t>
+  </si>
+  <si>
+    <t>rt @malinablue: to all of you #bernieorbust / #demexit2020 fools out there - if gop take this next election, prepare for an authoritarian r…</t>
   </si>
   <si>
     <t>rt @daviddoel: a majority of democratic voters in every primary state so far has voted in favour of medicare-for-all in exit polling. 
 reg…</t>
+  </si>
+  <si>
+    <t>@waitworry i'll never vote for her in a future election now. she's just another self obsessed cis chick who thinks i owe her loyalty because i'm on estrogen as far as i'm concerned.</t>
   </si>
   <si>
     <t>rt @ldwbandmi: remember:
@@ -55,148 +57,142 @@
 -michigan is now a same day registration state so you can regi…</t>
   </si>
   <si>
-    <t>@prashantkishor @jm_scindia person who kicked out from jdu for blackmailing is giving gyan to others.  you are a media creation who can't fight and win even a ward councilor election.</t>
-  </si>
-  <si>
-    <t>@drjillstein @realdonaldtrump steinski is back for another election cycle, i see.</t>
+    <t>she must be doing the same thing now after ruining bernie sanders in this election. https://t.co/mkaehsqoys</t>
+  </si>
+  <si>
+    <t>if you stop time @brianpallister , not only will you win mext election, but you will also be, hostorially, the most important manitoba premier in our provinces history. 
+#abolishdaylightsavings</t>
+  </si>
+  <si>
+    <t>@weneedeu everything they are doing suggests they simply don't care about voters at the next election which does require one to address the question of whether they actually plan to allow one ...</t>
+  </si>
+  <si>
+    <t>rt @pnjaban: hey @twitter -- is posting a false tweet impersonating the president "targeted harassment" within the meaning of your tos? wha…</t>
   </si>
   <si>
     <t>rt @coneboobs: wouldn’t it be crazy if the stock market crashed under a controversial conservative president helping lead to the election o…</t>
   </si>
   <si>
-    <t>rt @healthuntodeath: the democratic party and the bbc are both fantastic examples of institutions that will die because their hierarchy has…</t>
-  </si>
-  <si>
-    <t>as covid-19 continues to spread across the u.s., election officials are closely monitoring the virus as federal government shifts from containment strategy into mitigation phase. https://t.co/chc1clizm4</t>
-  </si>
-  <si>
-    <t>@rachelsjohnson @christopherhope oh for god's sake this is a joke. there was an election. this was settled. but why bother with that when there's #content to produce.
-pint of wine time.</t>
-  </si>
-  <si>
-    <t>rt @nanna14075: @scottimmordino last federal election before november takes place april 28th.  give him a follow. support if you can @nate_…</t>
-  </si>
-  <si>
-    <t>rt @gooner_ak: at the infamous 1919 election, tottenham manged just 8 votes from their peers.
-was it due to their devious actions twenty y…</t>
-  </si>
-  <si>
-    <t>rt @mathewliz: sources say scindia will officially join bjp, then the cec will announce his name as party’s candidate for rs election from…</t>
-  </si>
-  <si>
-    <t>a friendly reminder that election interference by russia is ongoing and still aimed at exploiting the social, political and racial divisions of our polarized country. #election2020 
-https://t.co/n2hkwzwmul</t>
-  </si>
-  <si>
-    <t>rt @tonypierson2: i ran this poll just after the election and i’m revisiting it to see if the labour party have learnt anything a tall from…</t>
-  </si>
-  <si>
-    <t>rt @royalstatsoc: great to see florence nightingale's election to the royal statistical society (or statistical society of london as we wer…</t>
-  </si>
-  <si>
-    <t>don’t get emotionally invested in this election. michigan primary is tonight.</t>
-  </si>
-  <si>
-    <t>cant wait to lose the election because they're running a senile republican against a senile republican</t>
-  </si>
-  <si>
-    <t>rt @resistbot: biden “...there’s a lot of innocent bystanders that are being badly hurt. i wish he would just be quiet. i really mean it. j…</t>
-  </si>
-  <si>
-    <t>rt @brushfireorg: @netteknows @realjameswoods @realdonaldtrump yes, but the election will be contested and demonstrate how much lower @thed…</t>
-  </si>
-  <si>
-    <t>rt @redhistorian: the problem is that labour got caned at almost every election from 2015 to 2019 - whether local elections, european elect…</t>
+    <t>rt @aaronbastani: six months ago the labour left’s grip on power seemed here to stay. now it’s candidate in a leadership election, who’ll b…</t>
+  </si>
+  <si>
+    <t>@realkaylajames remember when she lost the election but went on to do great things for the people of the country and world? no, she just scammed losers like you out of millions for a fake recount, sucked up to and stayed quiet about her fellow russian asset, trump #jillsteinisarussianasset</t>
+  </si>
+  <si>
+    <t>rt @canadianidle: i’m watching a crazy movie where there’s a big election going on while a killer virus spreads around the globe, and one g…</t>
+  </si>
+  <si>
+    <t>rt @abdulmahmud01: for having clearly taken a partisan position in an election lucky was set to win, the oba was summoned to appear before…</t>
+  </si>
+  <si>
+    <t>rt @voteearlyny: they say all politics is local. 
+from sat. march 14th - sun. march 22nd all #queens voters can participate in the special…</t>
+  </si>
+  <si>
+    <t>election forecaster bitecofer explains ‘the reason joe biden is the nominee’ ⁦@capehartj⁩ with ⁦@rachelbitecofer⁩  https://t.co/l0lhybn4bb</t>
+  </si>
+  <si>
+    <t>rt @amyklobuchar: hey mr. president always nice to be mentioned in a late night catch-all mean tweet. but since you’re up, remember to set…</t>
+  </si>
+  <si>
+    <t>@pp8010 you’ll be surprised to learn that there’s another one heading this way right before election day.</t>
+  </si>
+  <si>
+    <t>@mpfied if what i see on twitter is any indication of what is to come, outlook not so good. so many bernie bro’s saying they won’t vote because of a rigged election may have the same result? i try to convince them but it’s a moot point. last night at biden’s rally it was a mess</t>
+  </si>
+  <si>
+    <t>@benjaminokeefe @yaronfishman @ewarren @berniesanders this is an extremely not normal thing to say about an elected official that represents people, especially a member of a party trying to win an election, and doubly especially because she is running for the highest office in the land. -but ok</t>
+  </si>
+  <si>
+    <t>though to put this in context it should be said that a global crisis is perfect for netanyahu politically, who’s dealing with a criminal court case and indecisive election results
+i’m not commentating, just adding for context</t>
+  </si>
+  <si>
+    <t>rt @emsprater1: @_myfriendryan @timalberta @symonedsanders yep, now let's discuss the reason why: the purists on the left got mad at obama…</t>
+  </si>
+  <si>
+    <t>rt @dudeconfirmed: i hope you guys realize that the best weapon you have to combat the online onslaught that is gonna ramp up once the gene…</t>
+  </si>
+  <si>
+    <t>@davrosz @southwin28 @independentaus he has an arrogance, a hubris - and very belittling towards anyone that questions his 'authority' on anything constitutional or election related</t>
+  </si>
+  <si>
+    <t>@sueg46 well the government did say at the election they had a social care plan for the elderly and disabled (with multi heath problems😈). i agree wholeheartedly sue, every death is given the same ‘description’</t>
+  </si>
+  <si>
+    <t>https://t.co/fvozl0dzgd
+texas dems announce largest-ever voter drive in 2020 flip effort
+https://t.co/xwcjesow1d</t>
   </si>
   <si>
     <t>rt @mcphie00: do you think the deep state is trying to crash the economy to help democrats win the presidential election?</t>
   </si>
   <si>
+    <t>so the labour party are still trying to frustrate the brexit process...
+good let them carrying on doing so it means they are not winning another general election for some time to come if ever again which is great news for britain,
+https://t.co/9gwgqdztms</t>
+  </si>
+  <si>
     <t>rt @daytobehappy: inviting you to be part of a prayer chain tonight between 6 and 7 est regarding the coronavirus that it will be contained…</t>
   </si>
   <si>
-    <t>polls are open! come #vote!  happy to play with my new election equipment.  get a sticker for #voting
- #michiganprimary #mar10day #mar10 #election2020 #electionday #tuesdaymotivation #votingmatters https://t.co/qnaw2ynkjc</t>
-  </si>
-  <si>
-    <t>a majority of democratic voters in every primary state so far has voted in favour of medicare-for-all in exit polling. 
-regardless of how you personally feel about the issue this is garbage politics and how you lose a general election by suppressing democratic turnout. https://t.co/80rqyc6dyr</t>
-  </si>
-  <si>
-    <t>rt @gamebonus______: @solomonyue so please help #hkers to eradicate this disease in the coming sept legco election.  the puppet government…</t>
-  </si>
-  <si>
-    <t>@washingtonpost certainly will not pass the next election test in november !!
-#trumpliesaboutcoronavirus #biden2020 #bidenforpresident2020 #bidenforpresident</t>
-  </si>
-  <si>
-    <t>rt @antheajayne4: @davidlammy see you're still indebted to preventing #brexit via any means possible @davidlammy. shame your personal agend…</t>
-  </si>
-  <si>
-    <t>@the_bald_druid @leftwardswing @kylekulinski you will never win another election again if the candidate isn't progressive. we're done getting shit on.</t>
-  </si>
-  <si>
-    <t>rt @aam_nationalist: ye bjp join karega wb election se pahle..... https://t.co/fs10g4upum</t>
-  </si>
-  <si>
-    <t>kansas city election board, if you send me a voter registration card saying where to vote, why when i hand the poll worker my id and she scans it, she tells me i’m at the wrong location?</t>
-  </si>
-  <si>
-    <t>rt @chialtasdanette: ⁦@senatemajldr⁩ 
-voters in kentucky break record for registration ahead of 2020 election https://t.co/avotaimubf</t>
-  </si>
-  <si>
-    <t>literally seeing people out here who do nothing but trash the dnc claiming the dnc loses on purpose (1 election btw) because they’re secretly republican. yup, that’s a real opinion out here.  i can’t fuck with that level of ignorance.</t>
-  </si>
-  <si>
-    <t>rt @hashimhasumi: any presidential candidate that will promise to proscribe asuu come 2023 will surely win that election. i bet you  #asuus…</t>
-  </si>
-  <si>
-    <t>rt @rogerasalways: @jujujudge that’s just putin trying to make it look like there’s no association.  it’s election year</t>
-  </si>
-  <si>
-    <t>@daicheal @jameswatson210 exactly. that's their gnostic dna. the hylikoi are reprobates destined for destruction. only the pneumatikoi will be saved.
-but instead of virtue, "oppression" is the outward sign of their election.</t>
-  </si>
-  <si>
-    <t>@joebiden but you just said we should vote for him in the re election like you i am confused</t>
-  </si>
-  <si>
-    <t>emmett brewer, the 11-year-old wasn’t the only child who got into the election systems at the conference. in total, about 50 kids ranging in age from 8 to 16 attended the conference, defcon said in a tweet, and around 30 of them were able to hack the imitation election websites.</t>
-  </si>
-  <si>
-    <t>“the bini(s) do say “aisagbonrioba”.. literally meaning, “the kingship it’s not by selection or election,it has been determined from the womb”. anything can happen in present day nigeria, but the greatest advantage the oba has is,no bini man would dare sit on the throne,trust me.</t>
-  </si>
-  <si>
-    <t>2009 : she was ranked 27th in akb48's 1st senbatsu election.
-promoted to new team a.
-#fact</t>
-  </si>
-  <si>
-    <t>rt @nathanjrobinson: this is the pettiest thing i’ve ever heard. because the squad criticized her? we all know bernie would have endorsed w…</t>
-  </si>
-  <si>
-    <t>@lauracattell1 @theintercept @mehdirhasan so biden can barely make a coherent sentence, which means he won’t be able to debate trump without getting destroyed
-and bernie’s record is much cleaner than biden
-biden has worse record than hillary on issues that cost hillary the election (trade, ss, war)</t>
+    <t>@emmavigeland i'd never vote for her. she showed her ass this election. while bernie is "not me, us", warren is "not us, me".</t>
+  </si>
+  <si>
+    <t>shut up. it’s not interesting and it’s not something to ponder. this isn’t a fucking election based conspiracy. shut the fuck up. https://t.co/7sa80zwokt</t>
+  </si>
+  <si>
+    <t>@jonnytherat2 @johnkingaustin i would vote for nixon over any democrat since woodrow wilson. i am from a red state now when i started voting i had to do write in for every election my whole family were democrats i have also done write in against republicans</t>
+  </si>
+  <si>
+    <t>rt @malcolmnance: election day tomorrow (tuesday) - turn out. polls don’t mean anything if the @joebiden community does not come out and wi…</t>
+  </si>
+  <si>
+    <t>abscbn call for shutdown is all about revenge and personal grudge of politician on campaign period.the fact the president won, it should be enough basis abscbn did not matter on the election. so why so angry?</t>
+  </si>
+  <si>
+    <t>@maddenifico i still don't know how hillary was most electable from the dems last election. i swear it had to be the russians behind the scenes pushing  the easiest candidate to beat .</t>
+  </si>
+  <si>
+    <t>@travisakers @brycetache i want a do-over on the primaries. hell. i want a do-over on the 2000 election...</t>
+  </si>
+  <si>
+    <t>@skjask @ayodeh it’s the dumbest thing in the world to ask for. the optimist in me hopes it’s a typical israeli high ball offer to start negotiations. if not, i’m voting @newyamin next election.</t>
+  </si>
+  <si>
+    <t>@benjaminokeefe why are you acting like the election is over?
+can we do selfies after we get a progressive in office...?</t>
+  </si>
+  <si>
+    <t>@zemkeswolfpack general election: 
+trump vs. biden 
+biden 53 
+trump 43 
+biden +10 https://t.co/jb7gzybdwj</t>
+  </si>
+  <si>
+    <t>either joe biden or bernie sanders will face donald trump in november. here's how their views of u.s. power could reshape the world. https://t.co/1f2yw0vsbo</t>
+  </si>
+  <si>
+    <t>im 20 &amp;amp; almost completely burnt out. what am i suppose to do for 50 more yrs? maintain the standards people think of me? bitch about how completely hard it is to sleep and wake up? expect for another election year with a development of a new kind of virus? charot pero for fcksake</t>
+  </si>
+  <si>
+    <t>@chrismurphyct @malcolmnance trump did not get fleeced he is looking for a short term soundbite for his re election he doesn't care if the whole country collapses in chaos as long as he wins. america is getting fleeced</t>
+  </si>
+  <si>
+    <t>@marklevinshow he will never make it to the election....he's washed up</t>
   </si>
   <si>
     <t>rt @rblumenstein: my michigan hometown of bay city was 1 of 12 counties that flipped from obama to trump in '16, helping turn the state fro…</t>
   </si>
   <si>
-    <t>@ruchirac 18 yrs in politics
-been mp for 17 yrs
-been union minister for 10 yrs
-no mp for last 1 year reasons lost the election
-now it is said that the party did not respected me
-made a union minister in 2 yrs of politics and what else he need?
-the rest, dna is telling</t>
+    <t>rt @goodyweaver: @jethawk5 no one should trust us election results. our elections are ranked lowest in the developed world, and the electro…</t>
   </si>
   <si>
     <t>rt @telbabe: lisa nandy calls for a delay in brexit talks and blames coronavirus. yeh' right. this from the party behind a 3-year delay on…</t>
   </si>
   <si>
-    <t>@jennydoubledd @yakityxax @davidmweissman have fun winning an election without the largest grassroots movement in the nation's history.</t>
+    <t>@therealdaddymo1 🤣🤣🤣🤣🤣🤣 let me laugh in igbomina ekiti....the same people that say the north is ravaged by poverty, hunger and almajiri, everyone here knows chima amadi is a pdp pundit who gained notoriety for pretending to be an @inecnigeria election observer...i am watching like a 🦇</t>
   </si>
   <si>
     <t>rt @iandunt: 'i no longer believe in miracles' - @sturdyalex on why he's supporting starmer in the labour leadership election https://t.co/…</t>
@@ -205,37 +201,74 @@
     <t>rt @colettefinncork: my colleague lourda scott raises a very important issue. we need a political system that supports the election of pare…</t>
   </si>
   <si>
-    <t>rt @abasitpak1: @sahilnaeem9 no. we had to go by results announced by afghan election commission.</t>
-  </si>
-  <si>
-    <t>rt @hjoycegender: i love reading men writing about the insanity of gender self-id. they’re allowed to express themselves so much more freel…</t>
-  </si>
-  <si>
-    <t>rt @ecthrwatch: @villanicedric mr. villani, as a scientist, you should know better than anyone else that the current #municipales2020 elect…</t>
-  </si>
-  <si>
-    <t>rt @modernconflict: 10 march 1994- #bophuthatswana crisis - rioting and looting after lucas mangope announced the soon to be defunct black…</t>
-  </si>
-  <si>
-    <t>they weaponized the govt to try to rig the election then accused trump of colluding w/russia.  #corruptacrats https://t.co/rxxo0c0eqd</t>
-  </si>
-  <si>
-    <t>rt @borismahogany: @grogsgamut oh my girlfriend thinks the next election is won already. she's on the labor frontbench but goes to a differ…</t>
+    <t>it's called the general election https://t.co/x3brzhos4b</t>
+  </si>
+  <si>
+    <t>rt @maxblumenthal: join our press conference with @codepink outside the @oas_official building tomorrow at 2 pm to demand the oas monitor a…</t>
+  </si>
+  <si>
+    <t>election board tries to stop clarke county switch from touchscreens to hand marked paper ballots | mark niesse/the https://t.co/d9nlxwnvww</t>
+  </si>
+  <si>
+    <t>damn nazi probably caused part of it.  https://t.co/8ygqqrlahf</t>
+  </si>
+  <si>
+    <t>@cnnpolitics i don't trust the administration or the election that  will be hacked by russia . the repubs have to cheat to win. #no trust</t>
+  </si>
+  <si>
+    <t>rt @bekaar: @thehill your prime constituency, the young voters, didn't show up on super tuesday. you can't create excitement in the primary…</t>
+  </si>
+  <si>
+    <t>rt @irkhsss: irkhsss presidential election
+the pressure is real. who is going to be the first democratically elected president in our very…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump don't you have a national emergency to deal with? covid-19. it's a long time to the election.</t>
+  </si>
+  <si>
+    <t>@producermcd @samseder that may be what she thinks, but after getting around 30% in two election cycles, mostly from people under 40, i think you’ll be hearing about berniecrats for a long time.</t>
+  </si>
+  <si>
+    <t>imagine if corbyn &amp;amp; mcdonnell had won the election 🗳!
+they’d be using the virus 🦠 as an excuse to nationalise everything and bring in martial law, wouldn’t they?... x 🤔 
+#nojoke</t>
+  </si>
+  <si>
+    <t>she’s going to f up this election isn’t she? she’s also a russian asset, btw. https://t.co/zj9gbkjp27</t>
+  </si>
+  <si>
+    <t>rt @richardcheese: @devinstractor @charles_gaba no, your spin is willfully ignorant.
+to get m4a requires a lot more democrats in the senat…</t>
+  </si>
+  <si>
+    <t>rt @godfamilyjesus: president donald trump is going to win the election by a landslide.🇺🇸🇺🇸
+what we really need to focus on is keeping the…</t>
   </si>
   <si>
     <t>rt @haaretzcom: “we knew how to track the phone of everyone who appeared in our data," a likud campaign official tells haaretz https://t.co…</t>
   </si>
   <si>
-    <t>russia trying to stoke u.s. racial tensions before election, officials say - the new york times https://t.co/aouyrockm9</t>
-  </si>
-  <si>
-    <t>rt @tomzohar: my brain to me as i worry about coronavirus, the stock market, the election, toilet paper shortage, and 5 other dumb things a…</t>
-  </si>
-  <si>
-    <t>@kayrosef @thedemocrats good for you! i walked away after the last presidential election but didn’t jump on the trump train until ~a year ago. i am now a registered independent and will vote republican for the 1st time this november. 236days!! #walkawayfromdemocrats</t>
-  </si>
-  <si>
-    <t>@devendrapai predicted before delhi election, despite we lost, my prediction came true https://t.co/lyfiiihgsv</t>
+    <t>rt @vijayshadean: once in power, @myanc 'flushed' its election promises down a clogged drain.
+sadly, those bearing brunt anc's failures ar…</t>
+  </si>
+  <si>
+    <t>house speaker #nancypelosi : ‘civilization as we know it is at stake’ in 2020 election". no, living like a king on a small government salary (+corruption/bribes/kickbacks) is what is at stake. that's the real fear. just more #hysteria from leftists. #maga  https://t.co/jspbj1p3u4</t>
+  </si>
+  <si>
+    <t>@sfeegrade @athenanike4 @harryjmccarthy @chiclanagirl not sure what your issue is. i always, when there is a potential national crisis, find myself wondering what a man who lost an election to a dolphin thinks</t>
+  </si>
+  <si>
+    <t>rt @muslimshirzad: abdullah is ready 😊
+#afghanistan #democracy #election
+#oathceremony https://t.co/uvypdb0b2z</t>
+  </si>
+  <si>
+    <t>rt @pink_about_it: thousands of people have already recovered world wide from coronavirus —- 
+but that would be inconvenient for the media…</t>
+  </si>
+  <si>
+    <t>rt @tz_urboyoliver_: see an intelligent man speaking intelligently 
+meanwhile ,some president of the most populous country in africa can't…</t>
   </si>
   <si>
     <t>rt @maxtemkin: if you’re curious to see how bernie would do in a general election, here he is talking to a live town hall audience on fox n…</t>
@@ -247,162 +280,166 @@
     <t>rt @ind_rajat92: a party which is in government in maharashtra after coming last in the election is saying that mandate is against bjp in m…</t>
   </si>
   <si>
-    <t>rt @joseph_marks_: “postponing an election is not an option,” chad houck, idaho's chief deputy secretary of state, told power up. “so it re…</t>
+    <t>@fridaghitis yeah, let's not help stop this thing. it's like he wants this to tank the economy and his re election.</t>
+  </si>
+  <si>
+    <t>@kaivanshroff @millennial_dems are u concerned about biden mentally for general election?
+trump will blow it up every day although he’s a bit messed up himself.</t>
+  </si>
+  <si>
+    <t>rt @toluogunlesi: cursed with the eternal pain of an election lost years ago. eeyah.</t>
   </si>
   <si>
     <t>rt @flying_rodent: you can pick an issue - war, austerity, minority rights, party politics, election campaigns - and in each case, you will…</t>
   </si>
   <si>
-    <t>john kerry lost the presidential election to george w bush. he was largely nominated for his "electability" against an incumbent. democratic leaders are old dogs who can't learn new tricks https://t.co/smdthpltrt</t>
-  </si>
-  <si>
-    <t>coronavirus update: listen to the ohio secretary of state, frank larose, discuss precautions the board of elections is taking for election day. he encourages &amp;amp; reminds all voters about early voting options such as mailing absentee ballots or voting early at the county's boe. https://t.co/z73blonydm</t>
-  </si>
-  <si>
-    <t>rt @lansingmichigan: it's election day and polling locations will be open until 8pm. 
-to find your polling location, visit: https://t.co/h…</t>
-  </si>
-  <si>
-    <t>@kevinpascoe no i meant a “leader” who didn’t have a chance because all polls were putting him and the party in a catastrophic position. then the genius called for an election!! in december. and everyone around him clapped like idiot seals!!</t>
-  </si>
-  <si>
-    <t>new polling from qmul/yougov saying sadiq khan on 49%, just one point away from winning on the first pass.
-the most first prefs ever in london mayoral election was 44.2% (khan in 2016) 
-https://t.co/elkam2znyq</t>
-  </si>
-  <si>
-    <t>rt @carmindabrendel: usa 2020 election special #qanon #wwg1wga https://t.co/apvvxhqcxt via @youtube</t>
-  </si>
-  <si>
-    <t>@honjumwa @theodmparty @mbadihon @williamsruto ati respect the dead,what became of the murder case of the mca's uncle in malindi by election ?</t>
-  </si>
-  <si>
-    <t>rt @jangcaloyy: louder for the senator who ranked # 1 last election.</t>
-  </si>
-  <si>
-    <t>rt @timeindawater1: @drjillstein let’s not forget this is a woman who met with michael flynn &amp;amp; a sanctioned government in 2015 prior to the…</t>
-  </si>
-  <si>
-    <t>after this election, bernie sanders will get to go back to the senate and see if he can get some laws passed. joe will get to go back home, while still being #jimcrowjoe. neither will be in the white house. #showupvotedown #reparations #noblackagenda #tryagain https://t.co/xwbxnjcl5w</t>
-  </si>
-  <si>
-    <t>rt @incmdsiddique: he joined politics in 2002
-from 2002 to 2019- member of parliament
-from 2004 to 2014- central minister
-since 6 years-n…</t>
-  </si>
-  <si>
-    <t>@ausindimedia yes.
-a promise to deport 100,000 non-assimilating foreigners prior to two months before the next election.</t>
+    <t>rt @davmicrot: @realdonaldtrump polls have both biden and sanders with comfortable leads in popular vote and enough to carry electoral coll…</t>
+  </si>
+  <si>
+    <t>yo people are getting heated. couple election officials are sniping at each other. a woman yelled she was “disgusted” by the process. i’d have been there for hours if i didn’t live in a super white precinct.</t>
+  </si>
+  <si>
+    <t>@twentyonecity potential x factor is that daines might not have been properly vetted since he’s never been in a really high profile election</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump no, actually the polls don't say that!
+https://t.co/zu7kfyy5i1</t>
+  </si>
+  <si>
+    <t>rt @fivethirtyeight: sanders looks strongest in washington, idaho and north dakota — but the races are tight. https://t.co/9ezw2qifu2</t>
+  </si>
+  <si>
+    <t>@keveeyes @jm_scindia @narendramodi @amitshah @bjp4india in next election bjp will form the government in mp and @jm_scindia  will lead the government.</t>
+  </si>
+  <si>
+    <t>rt @chicago1ray: @rockonohio @lvnancy @realdonaldtrump @pinkk9lover @skyrider4538 @realbasedmaga @redheaded_jenn @ousa_jedio @patriotbluest…</t>
+  </si>
+  <si>
+    <t>@advobarryroux i don't feel a thing for them, they've voted for this mess. if there'll be election tomorrow, they still vote for the very same asshole councilors.</t>
+  </si>
+  <si>
+    <t>@renato_mariotti pretty sad when they have to wait for the #1 buffoon to tell them what to.  i'm patiently waiting for all these clowns to be removed in the next election.  it's been a bad show.</t>
+  </si>
+  <si>
+    <t>as we head into another primary election day, i beg you all to vote for the only candidate who has a real plan for #immigrationreform - @berniesanders. his plan is the only one that even comes close to fixing the broken system and helping the kids i work with every day. #notmeus</t>
+  </si>
+  <si>
+    <t>@ricci_sergienko @mjanovic you have nothing to worry about if your concern is built around biden winning a general election.
+i mean i'm not nostradamus but if you don't understand that much you're living in a media-induced denial of the obvious.</t>
+  </si>
+  <si>
+    <t>https://t.co/nfyqxxvjwd -   2020 election: how joe biden is cutting down on gaffes on the campaign trail  https://t.co/9jku2nkosz</t>
+  </si>
+  <si>
+    <t>rt @kennymack1971: he didn’t say this. meagan day is lying. i told y’all....sandernistas like this person are going to do everything they c…</t>
+  </si>
+  <si>
+    <t>rt @suzanneolson44: @officialmcafee #china and congress really, really wanted #hrc to win the 2016 election!! #americafirst @realdonaldtrum…</t>
+  </si>
+  <si>
+    <t>china backs ghani, congratulates him on re-election as afghanistan president
+https://t.co/wxqwtum39h</t>
   </si>
   <si>
     <t>rt @mcfaul: dr. stein, didn't you do enough damage last election, helping (aided by russian media outlets) to deny a historic opportunity f…</t>
   </si>
   <si>
-    <t>rt @kylegriffin1: u.s. prosecutors say they have a witness who will directly implicate a russian businessman known as 'putin's chef' in sch…</t>
-  </si>
-  <si>
-    <t>@brooklynnygirl @joebiden no way. this election is about making sure trump doesn't get elected again. if you don't love your country enough to get that you're on your own. #votebluetosaveamerica</t>
-  </si>
-  <si>
-    <t>hillary being complacent lost the 16 election, biden or bernie will defeat 45 as long as putin don’t cheat for him. https://t.co/dgly6p59wo</t>
-  </si>
-  <si>
-    <t>@sendavidperdue @richardgrenell dear senator,
-with all do respect, but wasn't that vucic who just bought a dozen of pantzir aa systems from putin?
-relations of kosovan people with the american nation transcend over the partisan election interests.
-that bond is much deeper and stronger.</t>
-  </si>
-  <si>
-    <t>primary election showed the voting problems texas must solve before nov. 3-corpus christi caller times:https://t.co/dfhehlhela</t>
-  </si>
-  <si>
-    <t>@charliekirk11 @usacsmret no matter who did what and when. i don't remember people clearing out the grocery store during the swine flu? so is media ,the internet or the forces aligned against the re election of president trump?</t>
-  </si>
-  <si>
-    <t>@mandarsawant184 why to waste money in election modi ji , because there is no any respect to the election mandate from bjp , using of money of public in buying mps and mlas is the bussiness of bjp , and now i understood why yes bank is in loss  #fakescindia</t>
-  </si>
-  <si>
-    <t>literally everyone was slagging off trump for his entire term and now it’s election season and campaign season ~ all those (feminists) have dissaeapeared. did they think they were hiding or something?
-i haven’t seen one bit of legitamate shaming of trumps past since.</t>
+    <t>@neeratanden encouraging leftists to vote for trump on accelerationist grounds is maybe not a good general election strategy https://t.co/9e3ix5s4e8</t>
+  </si>
+  <si>
+    <t>rt @johnlebrocq: @nafeezahmed @brexit_sham @borisjohnson he's looking ahead to an election and sees an opportunity to brag about reducing h…</t>
+  </si>
+  <si>
+    <t>rt @sadietnresist: election security still has not been brought to the senate floor. it’s important we get paper ballots in the hands of al…</t>
+  </si>
+  <si>
+    <t>rt @jthverhovek: election officials prepare for challenge of coronavirus ahead of tuesday's primaries - abc news via @abc - https://t.co/nl…</t>
+  </si>
+  <si>
+    <t>@tgoudsouzian @us4afghanpeace @ashrafghani it's about who wins the election. there were other candidates too that after losing accepted defeat and went back home. but the other one is psycho. he can't accept losing. because of him election results were postponed 3 months.</t>
+  </si>
+  <si>
+    <t>rt @jeepsuzih2: wow !! biden is seriously 
+confused !! 
+listen to what he says👇👇
+we can not winthis election  😂😂 we can only re-elect donal…</t>
+  </si>
+  <si>
+    <t>@henrymakow @greenhamneggs how many virus were prevalent during non election years?</t>
   </si>
   <si>
     <t>rt @wallaceme: if i'd known 2020 was going to be defined by a panic-buying shortage of toilet roll, i'd have kept the c.700 lib dem leaflet…</t>
   </si>
   <si>
-    <t>rt @galcobs: public should just boycott the election and show whose the real boss 😅😎</t>
-  </si>
-  <si>
-    <t>rt @thegoodgirlspod: 📢 fellow michiganders: friendly reminder for you to exercise your right to #vote in tomorrow’s presidential primary #e…</t>
-  </si>
-  <si>
-    <t>american constitution people, could the november election be postponed/delayed/canceled if the #coronavirus situation is considered unsafe? if so, what happens next? and who would get to decide if it’s “unsafe?”</t>
-  </si>
-  <si>
-    <t>@marklevinshow we’d be in the middle of world war 3 right now if killary would of won the 2016 election. not to mention another huge recession!   we dodged a bullet.</t>
-  </si>
-  <si>
-    <t>rt @commondreams: 'even a fox news audience agrees': sanders makes case for broad appeal of progressive ideas on eve of michigan primary ht…</t>
-  </si>
-  <si>
-    <t>rt @imesoimeso: #eu4democracyng #lessonslearned #retreat #nbc #bon #eu ims nbc-bon post election lessons learned retreat day 2 https://t.co…</t>
-  </si>
-  <si>
-    <t>time to report jill stein for attempts to influence an election.</t>
-  </si>
-  <si>
-    <t>rt @geetv79: scindia lost his own seat in the last ls election.
-remember?</t>
-  </si>
-  <si>
-    <t>@breitbartnews joe biden probably thinking that by him winning the super tuesday and beating bernie sanders and the rest of the corrupt democrats he's actually won the election and he's now the president elect. he has lost his mind cookoo cookoo</t>
-  </si>
-  <si>
-    <t>oh no another election day. how is it we don’t have a functioning democracy but have so many election days</t>
-  </si>
-  <si>
-    <t>@michaelsanewman @kegan545 @static_waste @pawleybaby1999 @murkindream @punkinp29_25 @mrsgoodoz @brialalexi @tom46236928 @jbsparky_2010 @afezio1952 @anti_liberal73 @screamngeagle @brotherwatt65 @haappy_hunter @easytime4 @patriot202011 @jimbo_always @msozzie1972 @lou_bruette @dogsbcool @will_of_ockham @sueramirez3466 @ecgolc @txjack69 @aorgat @rodriguezbertie @blitzer850 @schmitty2115 @rockraccoon @zeeinthemoment @jimboalways2 @samusa65 @tenn_guy @megrod2778 @ladygoodoz @alwaysjimbo1 @patriot_paula @martuk56 @sherrierogge1 @cindynine4 @american2jr @ccinthemiddle @rams15 @wesleytbrown2 @brockk5309 @montedcantu @carsandboats1 @jimgagnon6 the "purge" of '17 is really an ongoing purge ghost, and now jack has added the new "manipulated media" flag enforced only for vids of sleepy joe's demented gaffes. jack &amp;amp; his silicon valley neighbors yet again trying to sway &amp;amp; election? 
-good morning all! https://t.co/mxsy5fk8qc</t>
-  </si>
-  <si>
-    <t>rt @dianelyssa: i’m confused. is elizabeth warren a washed up republican snake who couldn’t even win her own state or is she a progressive…</t>
-  </si>
-  <si>
-    <t>@pattheberner @ashwin_baindur you forgot to mention this https://t.co/lxcjs1iabn</t>
-  </si>
-  <si>
-    <t>@carolpalinkas @blanketboat she won the popular vote. but lost the election, child. it's why she hasn't live in the white house since her husband was president,  professor.</t>
-  </si>
-  <si>
-    <t>when bjp loses election, but amit shah still forms the government anyway.
-meanwhile ec
-#madhyapradeshcrisis 
-#scindia https://t.co/nidn5hbltm</t>
-  </si>
-  <si>
-    <t>@richardburgon parody. you're right about one thing in your tweet. you did get smashed in last years election and you will for every election forthcoming.</t>
+    <t>rt @northstar1956: @weshagerman @vansulli and one panelist made an excellent point: she recalled getting the polio vaccine (so did i) and r…</t>
+  </si>
+  <si>
+    <t>.@senangusking if you do not have @jennycohn1 on talking about election security, you are not really being serious!!! https://t.co/ptrwg6vbcs</t>
+  </si>
+  <si>
+    <t>concerning the upcoming election....since all of the candidates (chump included) are full of shit on every topic, how about we skip the elections for a few years and go without a president. all the president (past and present) seems to be worried about are the problems...</t>
+  </si>
+  <si>
+    <t>got to love voting in platte city. general election, line all the way into the parking lot . today. only 2 other people there when i show up to vote</t>
+  </si>
+  <si>
+    <t>the morning briefing: my wuhan joe biden election conspiracy theory https://t.co/wadniqrzgs #columns via @pjmedia_com oh, i did see this coming! and if i do, most of america does, as well.</t>
+  </si>
+  <si>
+    <t>rt @dmichanie19: men giving me                
+their unsolicited
+opinions about                 coronavirus this election days
+after my can…</t>
+  </si>
+  <si>
+    <t>rt @cnnpolitics: why the midwest may be bernie sanders' last stand | analysis https://t.co/fqzyxupa9w https://t.co/ifcrypxbuk</t>
+  </si>
+  <si>
+    <t>@mayormiketaylor @joebiden love this profile and your endorsement of @joebiden!
+https://t.co/qqqeovcgyr</t>
+  </si>
+  <si>
+    <t>rt @lzsmitty: polls are open in the michigan primary election! here's a link to faq like: can i take a ballot selfie? https://t.co/jcyhtbjy…</t>
+  </si>
+  <si>
+    <t>rt @adamshermanesq: “trump seemed totally oblivious to the danger of hardening his public image as the national-level equivalent of the may…</t>
+  </si>
+  <si>
+    <t>@gvkreddi was evident after the election tweets...he has been used to topple the mp govt....wait and watch his fate....will be sidelined after the work is over...</t>
   </si>
   <si>
     <t>rt @cnn: the one-on-one showdown between former vice president joe biden and sen. bernie sanders begins with a test of the candidates' abil…</t>
   </si>
   <si>
-    <t>“wow, this was the most intelligent discussion of the us presidential election i have seen. turn off the tv and watch it” credit @isabelladestes 
-https://t.co/giye3esqze</t>
-  </si>
-  <si>
-    <t>rt @paulmurphy_td: last night fine gael, fianna fail, the greens and labour voted to sell-off public land for private development on south…</t>
+    <t>rt @newzimbabwecom: an appeal by mdc vice president, tendai biti, who was convicted for unlawfully announcing election results in 2018 will…</t>
+  </si>
+  <si>
+    <t>while bernie and his gang of mean kids are focused on spreading false information, i see real democrats focused on the election as a whole, realizing that we actually need to win the senate back if we want to get anything done.
+#vote</t>
   </si>
   <si>
     <t>rt @kylekulinski: biden puts his middle finger up to the 45k who die every year from lacking healthcare the night before an election. (and…</t>
   </si>
   <si>
-    <t>@wadeshipard i can also predict the future. i predicted that #scottyfrommarketing would be a shit pm before our last election ... and guess what ... i was right</t>
-  </si>
-  <si>
-    <t>rt @tosh_ag: @richardburgon totally agree but we still have those in our party who claim it was jc that lost us election when any truthful…</t>
-  </si>
-  <si>
-    <t>thought #twittersupport was stopping fake news this election cycle. https://t.co/003in4clq4</t>
+    <t>@mplspat @melaniekmelvin @berniesanders this is how the right wing fascists rigged the election in the uk and we all have to go along pretending we have a legitimate government. democracy has been hijacked by the oligarchs.
+https://t.co/s6zqgjmaby</t>
+  </si>
+  <si>
+    <t>@kevindorvil i think the main issue with t labour party’s last election campaign is that they didn’t commission us to write a more artistically satisfying song featuring jeremy corbyn’s name</t>
+  </si>
+  <si>
+    <t>rt @womenalsoknow: new article by @prof_mirya and @jcelestelay in @urbanaffairsrev
+examines how voters choose between candidates in a local…</t>
+  </si>
+  <si>
+    <t>rt @smith_jeffreyt: #togo: 
+"faure, who holds an mba from [@gwtweets], puts a more technocratic and business-savvy face on the family regi…</t>
+  </si>
+  <si>
+    <t>@charliekirk11 @realdonaldtrump because 2009 was not an election year</t>
+  </si>
+  <si>
+    <t>@davesmithptbo 4 of six likes are from mpp’s one is from a bot and another from a community organization.  makes me wonder how many voted for dave and if they did where they may be now. you seem to have a distinct lack of community support dave.  makes me wonder if we had a legitimate election?</t>
   </si>
   <si>
     <t>rt @stewartmcdonald: i’ve got no personal animosity towards luke, but appointing someone to advise you on the union just weeks after they l…</t>
@@ -411,11 +448,14 @@
     <t>rt @nadjdaniela: an analyst on #newsnight just saying that trump is likely to lose the election if the coronavirus continues to spread. i'v…</t>
   </si>
   <si>
-    <t>@dianecr19985962 @joebiden @linkedmediadiva yep, pretty amazing, the timing is perfect, just after the dems threw everything thing they could muster at trump to get rid of him, now this, a few months before the election. props to dems, you may have finally won.</t>
-  </si>
-  <si>
-    <t>in 2016, clinton was polling an astounding 21 points higher than bernie going into the #michiganprimary and the voters turned out for bernie. and in the general, trump flipped the state red. let's not repeat those general election results. #votebernie #msu
-https://t.co/gplzuoymuk</t>
+    <t>rt @sadiqkhan: the mayoral election is a two-horse race between me and boris johnson's tory candidate. 
+good to speak to @onlondon whilst…</t>
+  </si>
+  <si>
+    <t>rt @dawisu: clearly, some ppl are ignoramt of how dethronement works. when an emir is dethroned, he is sent to exile in a remote location &amp;amp;…</t>
+  </si>
+  <si>
+    <t>the general election starts on wednesday and every $1 bernie spends on negative ads on biden is a $1 spent helping trump’s re-election</t>
   </si>
   <si>
     <t>rt @petluvers4trump: the globalist left is getting bolder.
@@ -423,422 +463,436 @@
 following election, russia russia russi…</t>
   </si>
   <si>
+    <t>@typboslib @zerosolstice one week ago, bernie carried every state except 2. these polls flip. all it takes is one moment. a sickness. a loss. a win. a gaffe. the election could completely turn around.</t>
+  </si>
+  <si>
+    <t>rt @thatswatsyisaid: john kerry lost the presidential election to george w bush. he was largely nominated for his "electability" against an…</t>
+  </si>
+  <si>
     <t>rt @couragemill: after the mess in the iowa caucuses, can anyone really rest on democrat assurances that there is no need to change our ele…</t>
   </si>
   <si>
-    <t>@greasydunlop @registeredhere @richardburgon and decent plp mp's would have not undermined the leadership nor the members who put him there, the issue was not corbyn but some in the plp.  you can shift blame all you like it was a brexit election!</t>
-  </si>
-  <si>
-    <t>@briantcairns @jaylouis @alivened88 @palmerreport @urocklive1 i’m not a guy who believes in conspiracies, but it’s known already that before the 2016 election russia flooded twitter with pro maga trolls. bernie bro’s act in similar ways to trumpers.</t>
-  </si>
-  <si>
-    <t>@breitbartnews what else can the old bum say?  "i know i will lose here in michigan so you may as well go home now and stay there on election day."?</t>
-  </si>
-  <si>
-    <t>rt @tribunal_watch: if you think “coronavirus” is their masterpiece and end game, you are a fool..
-the silent war continues!
-this is no o…</t>
-  </si>
-  <si>
-    <t>so it is clear that bjp can't win election on its own.
-it needs support of horse trading, evm n godi media.</t>
-  </si>
-  <si>
-    <t>rt @francisgerald14: #payrolltaxcut - what's next? a "stimulus check"? this time the donnster plans on using our money to buy the election.</t>
-  </si>
-  <si>
-    <t>rt @markniesse: georgia voters must be quickly notified when election officials reject their absentee ballots, allowing them time to correc…</t>
-  </si>
-  <si>
-    <t>rt @kendraforphilly: it's official -- i'm endorsing @berniesanders for president! this november, we are in the fight of our lives, an elect…</t>
-  </si>
-  <si>
-    <t>rt @imesoimeso: happening live! nbc-bon retreat post election lessons learned retreat in lagos day 2! recap of day 1 @media4dem @eceseu @ip…</t>
+    <t>rt @illinoissbe: any illinois voter can order a vote-by-mail ballot through thursday. contact your local election authority and vote from t…</t>
+  </si>
+  <si>
+    <t>rt @csojourner: @mmpadellan @louisianistan vote your fave in the primary, that's what primaries are for.  don't be afraid to do that, becau…</t>
+  </si>
+  <si>
+    <t>rt @vinncent: clearing the way for a coup, if he needs one some day. maybe some day soon.
+bolsonaro now claims he has proof he actually wo…</t>
+  </si>
+  <si>
+    <t>air tickets.
+instead you should decrease in their salaries and stuff
+if they don't agree then tell them not to sit in the assembly or even contest an election
+#ridiculous</t>
+  </si>
+  <si>
+    <t>rt @tbonzalez1: that stat about 88% of conservative online election ads being misleading never got any further traction. amazing. not even…</t>
+  </si>
+  <si>
+    <t>@linaposting work a strategy in cities that will go "blue no matter who" to get statewide support. leverage this into media coverage and [plausible] state funds. 
+conduct through mass organization through leaflets and propaganda few weeks before election to catch establishment off-guard.</t>
+  </si>
+  <si>
+    <t>rt @mayormiketaylor: "i think joe biden is the candidate who can unify all of the democrats, and he’s the candidate who can appeal to moder…</t>
+  </si>
+  <si>
+    <t>@cyclesnotcars i am afraid that it's an election year and they do not want to "damage" the economy "unncessarily" as it would affect their re-election chances.</t>
+  </si>
+  <si>
+    <t>rt @lazebnic: he has a gift for understatement. don’t forget his departing words as the bbc’s head of news: “i am proud to have worked for…</t>
+  </si>
+  <si>
+    <t>rt @marie4congress: canvassing in the rain in archer heights because we need a real democrat in #il03. we're going to be canvassing every d…</t>
+  </si>
+  <si>
+    <t>russia trying to stoke u.s. racial tensions before election, officials say - the new york times https://t.co/csem017zt2</t>
+  </si>
+  <si>
+    <t>@bitcoin_minion i'm baffled. she asked me to untag her &amp;amp; i politely agreed to, and i did. my post to you explained i'd had bad experiences on twitter, which i was taken aback to receive your nice tweets. i was not referring to her, but meant previous tweeters on brexit, general election, 1/2</t>
+  </si>
+  <si>
+    <t>today is election day! get out there and vote! let's see your i voted stickers! #moprimary https://t.co/h9l4rkl34b</t>
+  </si>
+  <si>
+    <t>rt @stacydavisgates: ⁦⁦@revjjackson⁩ : “dr. martin luther king would be proud that african american voters are called the “black firewall”…</t>
   </si>
   <si>
     <t>rt @chetan_bhagat: 10 months since the general election, and the congress changed little, if at all. 
 and today they lost a good young lea…</t>
   </si>
   <si>
-    <t>rt @stacydavisgates: ⁦⁦@revjjackson⁩ : “dr. martin luther king would be proud that african american voters are called the “black firewall”…</t>
-  </si>
-  <si>
-    <t>happy election day, michigan! https://t.co/dwohca4of0 via @toledonews</t>
-  </si>
-  <si>
-    <t>rt @nationbreaking: bbi: speaker muturi wants election of president and governors by universal suffrage abolished; wants kenyans to vote po…</t>
-  </si>
-  <si>
-    <t>rt @neunion: 📢34 colleges to strike - the campaign continues....
-funding for 16-19 education has been cut by more and for longer than in s…</t>
-  </si>
-  <si>
-    <t>rt @jcmounduix: @realjameswoods oh i’m so ready for all the videos coming this election year.  😍 november is gonna be lit. blue haired chic…</t>
-  </si>
-  <si>
-    <t>until i called the election board. the guy was apologetic and told him to go back and told him to vote another way and if they had a problem with it to call the election board. my husband won’t go back. he is humiliated and i’m in tears. this is what the heck they do folks! 😫😫</t>
+    <t>rt @rkyte365: important analysis from @jasonbordoff - and remember - it’s an election year. the oil price collapse has sent shockwaves thro…</t>
+  </si>
+  <si>
+    <t>months since the election and #brexit and the uk government still won't #releasetherussiareport.
+wonder what they're hiding...🤔</t>
+  </si>
+  <si>
+    <t>election*</t>
+  </si>
+  <si>
+    <t>the democrats in america were bitching, moaning and whining after trump won the last election, they now produced the following candidates for the next election: biden, sanders, warren, buttigieg. really ? are you kiding. trump is going to kick your arse.where is the leaders in us</t>
+  </si>
+  <si>
+    <t>@cynthiamckinney not a stretch really. they have a research facility there, military/bio lab so if you researched a plausible location for an outbreak, and russia was old, you'd probably choose wuhan.  there will be more.. next election cycle.</t>
+  </si>
+  <si>
+    <t>rt @clementine_ford: basically, the greens should refuse to endorse @sarahinthesen8 at the next election if they want to pretend they care…</t>
+  </si>
+  <si>
+    <t>@macaverage @berniesanders @tulsigabbard i mean, that's not *impossible*... just highly improbable 😅 
+like, whatever dimension of chess one touts, that sort of scenario would nevertheless require encouraging the dnc's election fraud, which won't give much voters an actual say either way</t>
+  </si>
+  <si>
+    <t>@maragay @11thhour can’t stop watching.  #msnbc #nyt #johnoliver  we know who shouldn’t be reporting on election night coverage of the electoral college.  https://t.co/kbinbrjwnr</t>
   </si>
   <si>
     <t>rt @abc: as covid-19 continues to spread across the u.s., election officials are closely monitoring the virus as federal government shifts…</t>
   </si>
   <si>
-    <t>@jm_scindia why to waste money in election modi ji , because there is no any respect to the election mandate from bjp , using of money of public in buying mps and mlas is the bussiness of bjp , and now i understood why yes bank is in loss  #fakescindia</t>
-  </si>
-  <si>
-    <t>tulsi went on fox news to say the dnc rigged the election to keep her out of the debates this morning, but let's all keep ignoring the voter data and lay another hit piece on biden. 
-go off, white left.</t>
-  </si>
-  <si>
-    <t>@dailycaller i believe civilization was at stake in 2016, that’s why donald trump won the election.</t>
-  </si>
-  <si>
-    <t>@jm_scindia scindia came to politics in 2002 and was a lok sabha member for 17 years from 2002 to 2019.  he was union minister from 2004 to 2014.
- he was the lok sabha mp for the remaining 6 years.
- he lost the election because he was not an mp for the past one year.</t>
-  </si>
-  <si>
-    <t>welcome to not-quite-so-super-as-supertuesday-tuesday. also known as 3m election day (mi, mo, ms) plus  id, nd, wa. #primaries</t>
-  </si>
-  <si>
-    <t>rt @joshohmygosh2: two fearless warriors. only one fair fight.
-this rigged election is proving to be far from a fair fight, but our champio…</t>
-  </si>
-  <si>
-    <t>@yomarsiell yeah, then they realize the same exact thing happened last election. 🤷‍♂️</t>
+    <t>um, memo to 338canada: the conservatives don't have a new leader yet which makes current polling irrelevant in terms of the next federal election: 338canada: the conservatives can't crack liberal support - https://t.co/3aza9m8oaz https://t.co/5kebxbdrk3 #cdnpoli</t>
+  </si>
+  <si>
+    <t>yall: president trump endorses palazzo, guest for re-election in msgop primary https://t.co/u8rnbwy2hg</t>
+  </si>
+  <si>
+    <t>rt @wendymeer11: can you please help the young veteran reality winner? do you know her story? her voice has been silenced for alerting abou…</t>
   </si>
   <si>
     <t>rt @amplifycapital: nancy pelosi: ‘civilization as we know it is at stake’ in 2020 election https://t.co/1vzgdf8znh via @breitbartnews 
 sh…</t>
   </si>
   <si>
-    <t>@mortalcoylemi we already knew, but when will you realize that your vote doesnt count??? why dobyou vote for a president???? you could argue that everyone participating in the presidential election is as dumb as trump</t>
-  </si>
-  <si>
-    <t>rt @zacheclark: i'll be on the @michnewsnetwork anchor desk from 6a-1p on this election day in michigan -- 125 delegates are at stake in th…</t>
-  </si>
-  <si>
-    <t>rt @scottdesno: @bluridge4bernie @seanjmcgough @fideliscare @berniesanders @rokhanna @gunnelswarren @twitter @timesunion @nyhpa mr. linzer…</t>
-  </si>
-  <si>
-    <t>rt @roseserao: i completely agree; and i'm praying joe ties up the nomination today so he can concentrate on putting away trump in the gene…</t>
+    <t>rt @frederickfredr3: imagine if corbyn &amp;amp; mcdonnell had won the election 🗳!
+they’d be using the virus 🦠 as an excuse to nationalise everythi…</t>
+  </si>
+  <si>
+    <t>rt @asadowaisi: sad to hear of the demise of dr. hr bharadwaj. he was a down to earth man &amp;amp; a great law minister
+he had represented the la…</t>
+  </si>
+  <si>
+    <t>president suspends big election rallies over coronavirus threat https://t.co/0ej48w1ayt</t>
+  </si>
+  <si>
+    <t>@heytaz maybe buying twitter, because it's an election year. most stocks are on sale now which is a good time to buy, but it's unknown how much the virus will affect supply chains in the short term(1-6months).</t>
+  </si>
+  <si>
+    <t>sky are a disgrace all because they batted for the wrong side at the election , they never let us forget , no impartiality  what so ever , they are true reds https://t.co/erm3vatcgh</t>
+  </si>
+  <si>
+    <t>@permazorch @hodgman @ewarren @berniesanders the people who tweet snakes didn’t vote in the last election or almost any election, and can’t be counted as a voting block.</t>
+  </si>
+  <si>
+    <t>rt @dubsndoo: with trudeau in office, look for the mexican peso to be worth as much as the canadian dollar by the end of his term. get read…</t>
+  </si>
+  <si>
+    <t>anybody kow if the trolls of ogino operated in the general election? if not , why not? dec. 22nd 2017?</t>
+  </si>
+  <si>
+    <t>rt @areltah: aids in warren’s camp say that her refusal to endorse bernie is b/c he campaigned &amp;amp; beat her in ma.
+“unity candidate” has red…</t>
+  </si>
+  <si>
+    <t>@rickcrainium @bm90718911 i asked to have mine done. they were gracious enough to provide choices, so i have one for election night too. 😍</t>
+  </si>
+  <si>
+    <t>poll workers needed! election day is 4/28 &amp;amp; we need poll help! to join us:
+click https://t.co/sk3sw53tdv, text“pollworker” to 484848 or email pgcjudges2020@gmail.com 
+please rt
+#marylandelection2020  #mdprimaryelection  #judge #judges #marylandjudges  #pgcsittingjudges #vote https://t.co/v784rd5luy</t>
+  </si>
+  <si>
+    <t>rt @2_firebaugh: election dissection: mayor andrew yang? his press secretary spills the beans and reacts to biden’s primary resurrection ht…</t>
+  </si>
+  <si>
+    <t>illegal immigrants are voting in california and 'it's going to happen in your state soon': tomi lahren https://t.co/4x9fhlisul #foxnews</t>
+  </si>
+  <si>
+    <t>rt @frankcorder: join me throughout the morning on @wxxv25 as we talk mississippi’s primary election and what you can expect today. https:/…</t>
   </si>
   <si>
     <t>rt @bohemiantoo: dear @senwarren it's been said that you "don't owe anyone anything." let me be perfectly clear. i'm from ma and if you are…</t>
   </si>
   <si>
-    <t>@thedsggroup grenfell was after the election.
-point is that the 2019 result is being used as a reason to return to centrism. but the fact that the 2017 vote share with a 'radical' platform outperformed more moderate labour platforms suggests that it is not that simple.</t>
-  </si>
-  <si>
-    <t>rt @davidmakali1: "i propose that a political party that fails to win any seat in the national assembly at a general election should be str…</t>
-  </si>
-  <si>
-    <t>rt @shaunking: wow. just wow.
-this is the single best, most insightful, most inspirational campaign ad of the 2020 presidential election.…</t>
-  </si>
-  <si>
-    <t>i swear to the fucking goddess i hate election years because all of you who have opinions over "centrist vs. progressive democratic candidates" forget that a pre-requisite to any legislative agenda is democratic control over both houses of congress...</t>
-  </si>
-  <si>
-    <t>we are being asked today to be humble because in matthew 23 vs 11 - 12, christ told us that the greatest one must be the servant, which is what we see from our politicians during campaigns but after election they are something else.</t>
+    <t>i understand you contested an election once but #jyotiradityascindia is a lot more than son of a neta ... https://t.co/qyvrpxxsrs</t>
+  </si>
+  <si>
+    <t>@mysticalro @bern_identity @berniesanders they are salivating over the idea that trump will face bernie in the general election.  of course they are trying to make bernie look good!!  he’s their dream opponent!!</t>
+  </si>
+  <si>
+    <t>rt @wpreview: it will take more than an election to oust faure gnassingbe in togo https://t.co/wqyvpkceec https://t.co/fsdxi6lem0</t>
+  </si>
+  <si>
+    <t>rt @prashantchiguru: former congressmen guna mp @drkpsinghyadav who defeated @jm_scindia may come back to congress and resign from parliame…</t>
   </si>
   <si>
     <t>rt @berniesanders: even a fox news audience agrees that our progressive ideas are not radical. these are the ideas we need to bring to the…</t>
   </si>
   <si>
-    <t>rt @random_neuro123: people far better than me have lived and described this struggle. those in the trenches know that every fight is one e…</t>
-  </si>
-  <si>
-    <t>rt @prashantchiguru: former congressmen guna mp @drkpsinghyadav who defeated @jm_scindia may come back to congress and resign from parliame…</t>
-  </si>
-  <si>
-    <t>@drjillstein @realdonaldtrump jill stein, why are you just now elbowing your way back into the media spotlight? looking to throw another election?
-hmm?</t>
+    <t>tories received £1.5m from polluting interests in the 3 months since the general election | @richardcollettw and @zakderler for @desmoguk https://t.co/racj0lsbsn</t>
   </si>
   <si>
     <t>rt @brennanlm: hey gang! tomorrow is a primary election in id, mi, ms, mo, nd and wa! of those states, idaho, michigan, and washington have…</t>
+  </si>
+  <si>
+    <t>rt @nathanielbayard: the ease with which many self-described 'socialists' have forgiven the bbc for the 2019 election coverage is enough to…</t>
+  </si>
+  <si>
+    <t>biden so far has won twice the obama-trump counties as sanders - chicago tribune #democraticprimary #joebiden  https://t.co/w6859jdjfb</t>
+  </si>
+  <si>
+    <t>@forevertawl so what shes saying is she's a loser who can't compete and wants everyone to move aside and just hand her an election without her earning it? and anyone who disagrees is a sexist. she used progressives to make herself famous now she's running off and cashing checks. 1 word: karma</t>
+  </si>
+  <si>
+    <t>https://t.co/n3nsoyghgf      
+what is crucial here is that we ask public to trust scientists on climate... we are now asking scientists to trust those of us for whom public policy is our bag to trust us. biden = disaster on climate. please openly endorse sanders, @climatetwitter</t>
+  </si>
+  <si>
+    <t>@lipsbycarla morning, can you please ask steve to repeat that message throughout the show about the election! thank you @steveharveyfm @iamsteveharvey</t>
   </si>
   <si>
     <t>rt @dllynnnnn: when are we going to form a functioning 3rd party in the united states? when? because i’m tired of this shit. 
 this electio…</t>
   </si>
   <si>
+    <t>@podcastsandpols @lightxfn @sandhillshrink @cnbc @penecell much cheaper production besides all the crap politicians say come election year</t>
+  </si>
+  <si>
     <t>rt @maxblumenthal: .@thegrayzonenews &amp;amp; @codepink demand emergency oas election observers in the 2020 democratic primary.
 "it is incumbent…</t>
   </si>
   <si>
+    <t>rt @nomadc50: covid-19 is not the common flu. there will be many, many more confirmed cases as testing finally ramps up and more deaths. yo…</t>
+  </si>
+  <si>
     <t>rt @rl9631: i agree with james and this election will be the last nail to democrats coffin! we will prevail! 
 kag 2020🇺🇸 @realdonaldtrump</t>
   </si>
   <si>
-    <t>@rachael_swindon brexit is what they voted for in the key marginals. they are all that matters in a general election. we blew it.</t>
-  </si>
-  <si>
     <t>rt @jrih75: boris johnson gets heckled everywhere he goes, i haven't seen him welcomed with open arms anywhere. this therefore begs the que…</t>
   </si>
   <si>
-    <t>rt @saidabdullahide: met with james swan, @unsomalia envoy, in garowe. key discussion points included election 2021, relation between #punt…</t>
-  </si>
-  <si>
-    <t>rt @newsday_tt: a councillor at the princes town regional corporation and a senator have been chosen to contest seats on a unc ticket in th…</t>
-  </si>
-  <si>
-    <t>rt @nelstamp: today we endorsed @berniesanders and we #buildtogether with our partner organizations to ensure a future for all of us. 
-htt…</t>
-  </si>
-  <si>
-    <t>rt @larryboorstein: @juliadavisnews jeff mason, reuters:did you want trump to win the election and did you direct any of your officials to…</t>
-  </si>
-  <si>
-    <t>@cnn yeah, because it's worth shutting down the election to put %0.000000001 of the us population in preventative quarantine. what is this, buzzfeed?</t>
-  </si>
-  <si>
-    <t>rt @jemmaforte: last wk i criticised pm on @jeremyvineon5 caller told me he’s best pm we’ve had. since dec he’s been on hols, agreed huawei…</t>
-  </si>
-  <si>
-    <t>rt @pauljunker: @realjameswoods i think this coronavirus is a coordinated attack on our economy to help create enough chaos that the global…</t>
-  </si>
-  <si>
-    <t>@bendashper this happens in every election. get over it. also, kamala went out of her way to say she did not think biden was racists. stop. just vote for trump and move on.</t>
-  </si>
-  <si>
-    <t>is trump so affraid of losing the election nov 2020 or is it losing the election and going to jail? https://t.co/he5pwmdxaj</t>
-  </si>
-  <si>
-    <t>@thelabourleftie @johnsimpsonnews john, did you call out the blatantly biased bbc during the recent election? please retweet those posts if you did. else you just look biased yourself.</t>
-  </si>
-  <si>
-    <t>bernie margin over biden in california has decreased to 7.0% -- was 7.3% yesterday, with still over 2 million votes yet to be counted. a week after the election. (wonder if any foreign governments will call for the overthrow of gov. gavin newsom)</t>
+    <t>once in power, @myanc 'flushed' its election promises down a clogged drain.
+sadly, those bearing brunt anc's failures are their loyal voters.
+most municipalities are past functioning normally, as most are rendered dysfunctional.
+many are serving their own political interests. https://t.co/tggee7zg68</t>
+  </si>
+  <si>
+    <t>@pwcdanica @vividconfusion @c_herring i know i should have said something earlier, but election day is grueling. we set up the room for 90 minutes on monday night. then we’re up on tuesday at 4 so we can get there at 5 to set up equipment and test. polls close at 7 and we run reports and pack ballots and equipment.</t>
+  </si>
+  <si>
+    <t>@infoaddict4 @luma923 you’ve been reported. stop trying to create distrust in the election system, russia troll!</t>
+  </si>
+  <si>
+    <t>rt @nytopinion: the interesting story isn't who the kremlin supports in the u.s. presidential election. it's the eerie convergence between…</t>
+  </si>
+  <si>
+    <t>rt @alirazatweets: just for info: ghulam huder wayne was a pmln leader. he was opposition leader in na 1988 and then cm punjab from 1990 to…</t>
+  </si>
+  <si>
+    <t>warren isn’t gonna endorse bernie before today’s election fuck</t>
+  </si>
+  <si>
+    <t>@zimmlaw175 he's everything what jews are against yet most jews will run like ganifs(thieves) to vote for him.
+jews should not vote for self hating jews ..vote trump in the general election
+https://t.co/nvk0mw41qs https://t.co/n2y81hf5b6</t>
+  </si>
+  <si>
+    <t>@mitchellvii hopefully it's not even an afterthought. the economy and stock market rolling full steam ahead into election day. trump 2020.</t>
+  </si>
+  <si>
+    <t>we, are in the middle of a prehistoric election matey</t>
+  </si>
+  <si>
+    <t>@_manmountain_ @lbc why does she still have a crowdfunding link in her bio to an election she has already won?</t>
+  </si>
+  <si>
+    <t>@suehow007 @plasticghost2 @clayful2233 @pauletteparis1 @drjillstein lol i’m supposed to believe russia hacked the election, but dnc did nothing to secure this election???? is it incompetence, apathy, intentional, bs? 
+step back and think about what i’m saying. please.</t>
   </si>
   <si>
     <t>rt @charlesppierce: the biggest miscalculation i made this election season was underestimating the raw political power of the desire to jus…</t>
   </si>
   <si>
-    <t>he joined politics in 2002
-from 2002 to 2019- member of parliament
-from 2004 to 2014- central minister
-since 6 years-not minister
-since 1 year- not mp, bcz lost election.
-and supporter say @incindia haven't given anything to @jm_scindia. 
-strange !!!
-#madhyapradeshcrisis</t>
-  </si>
-  <si>
-    <t>rt @ap_europe: a former turkish deputy prime minister formed a new political party to challenge president recep tayyip erdogan's rule. it's…</t>
-  </si>
-  <si>
-    <t>rt @nicholsuprising: the progressive change campaign committee, the ⁦@boldprogressive⁩ group that backed @ewarren, on monday urged michigan…</t>
+    <t>join me throughout the morning on @wxxv25 as we talk mississippi’s primary election and what you can expect today. https://t.co/mtujmgdss6</t>
+  </si>
+  <si>
+    <t>@dasdyutiman @danielparker030 @natesilver538 midterm electorates and general election electorates couldn't be a more different group of people. if they were comparable obama would have lost in a landside in '12. primary elections are something else, only a tiny fraction of those who vote in general elections do in primaries</t>
+  </si>
+  <si>
+    <t>this is what people dislike about the media, me included, they rant and rave about how people need to avoid group contact…but then go on about the election as if nothing else were going on.
+can’t have it both ways…
+#morningjoe</t>
+  </si>
+  <si>
+    <t>rt @migop: the migop election day hotline is live! if you see election fraud please call 866-677-5413.</t>
+  </si>
+  <si>
+    <t>rt @russellsieg: @mayormiketaylor @joebiden love this profile and your endorsement of @joebiden!
+https://t.co/qqqeovcgyr</t>
   </si>
   <si>
     <t>rt @ericbolling: for all my friends.. @lrihendry is a great conservative twitter follow. 
 i highly recommend you following her now. it’s an…</t>
   </si>
   <si>
-    <t>@bengbenro @bulamabukarti @adebanqie can you prove to us that he took side during the election</t>
-  </si>
-  <si>
-    <t>rt @cgreensit: the evidence is in: joe biden has a habit of making things up. and it’s not just wrong — it could hurt him in a general elec…</t>
-  </si>
-  <si>
-    <t>russia trying to stoke u.s. racial tensions before election, officials say https://t.co/ynti4icafw   russian intelligence services are trying to incite violence by white supremacist groups to sow chaos in the united states, american intelligence officials said.</t>
-  </si>
-  <si>
-    <t>hong kong activist joshua wong in high court bid over district council election ban https://t.co/iocg35nu00</t>
-  </si>
-  <si>
-    <t>bnk48 2nd general election
-2nd preliminary results:
-1. cherprang
-2. mobile
-3. jane
-4. music
-5. pun
-https://t.co/lopcjdr0lq</t>
-  </si>
-  <si>
-    <t>today is the presidential primary! polls are open until 8 p.m. to cast your vote. don't forget to stop by our new election selfie spot! there is one at every voting location.  just look for the poster on the wall. snap a pic and tag your photos with #lovelivonia and #votelivonia https://t.co/nkatbsocoo</t>
-  </si>
-  <si>
-    <t>@mahyartousi it's always going to be from now on. they vote as though it's a general election. it's tribalism. they don't vote on policies.</t>
-  </si>
-  <si>
-    <t>rt @fox2news: it's primary election day in michigan! here's a guide for everything you need to know today before you vote. polls are open u…</t>
-  </si>
-  <si>
-    <t>rt @rzrwiresunrise: @chrismurphyct trump wants the spectacle of troops returning from afghanistan for the election. he doesn't care about t…</t>
-  </si>
-  <si>
-    <t>#payrolltaxcut  trump will do anything to secure his election
-but after he is elected he will devastate everything
-that helps the middle class,,,that includes taking your
-ss and medicare from you</t>
-  </si>
-  <si>
-    <t>rt @thedsggroup: i don't understand why labour politicians keep referring to an election that they lost as a model of success. such loser m…</t>
-  </si>
-  <si>
-    <t>@iamjoetaylor @chatterless1 @jeremycorbyn and, remind me, what was the outcome of the election? how many elections did corbyn lose?</t>
-  </si>
-  <si>
-    <t>rt @buffalotraceme: a biden/clinton ticket and they could scream election meddling with the hillary investigations.
-don't put it past these…</t>
+    <t>rt @simonahac: only 2 qld seats flipped in the government’s favour at the last election — one of them was the extraordinarily lucky seat of…</t>
+  </si>
+  <si>
+    <t>@vitamincee44 every election season there is a new plague last time it was zika virus it's all planned mayhem that they orchestrated for population control &amp;amp; programmed social order</t>
+  </si>
+  <si>
+    <t>rt @tflinn1: putin dumps saudis to start a war on america's shale oil industry https://t.co/wkb4xukcjk  do not forget these same russians a…</t>
+  </si>
+  <si>
+    <t>@toadmeister @jonnothemackem the bnp went on to get 500,000 votes in the 2010 general election. the idea that qt was bad for the bnp is totally wrong. ukip just came along and ate their lunch.</t>
+  </si>
+  <si>
+    <t>rt @nanashiike1892: if anyone needs illustrations for the election please dm me
+#weebnk48 #fondbnk48</t>
   </si>
   <si>
     <t>rt @robertalai: i am told that ministry of interior has withdrawn the v8, bodyguards and funding allocated to thirdway alliance and its lea…</t>
   </si>
   <si>
-    <t>@richardburgon we didn't come close to winning - we were just not stuffed as much as we thought we were going to be. it took a second election for that one to happen &amp;amp; the biggest issue on the doorstep was jeremy, not brexit.</t>
-  </si>
-  <si>
-    <t>@specialpuppy1 @trumwill @xenocryptsite @_mike_schilling the depth of support, the trust, of a candidate or ideology is shown in election results.
-the public was not that into jeremy corbyn.
-the public is skeptical of bernie.
-may earren woulod have won - it's not all ideology.
-but lets respect results.</t>
-  </si>
-  <si>
-    <t>rt @africalawtech: away from election rigging, one thing @kudathove notes as a challenge in #africa and across the globe is targeted advert…</t>
+    <t>@sally_tanner cheer up, girl, you can still major in 'multicultural gender studies' and hope for debt forgiveness next election cycle.</t>
+  </si>
+  <si>
+    <t>rt @adducomelec: comelec memorandum 2020-08 from the office of the comelec chairperson dated march 10, 2020
+re: campus clubs organization…</t>
   </si>
   <si>
     <t>rt @therickwilson: referendum on trump. that's all this election is. full stop.</t>
   </si>
   <si>
-    <t>@realjameswoods also, do not let the national news media steal this election.  do your due diligence!!!!
-#fakenewsmedia 
-#trump2020 #walkaway</t>
-  </si>
-  <si>
-    <t>why to waste money in election modi ji , because there is no any respect to the election mandate from bjp , using of money of public in buying mps and mlas is the bussiness of bjp , and now i understood why yes bank is in loss .......#madhyapradeshcrisis  #स्वागत_महाराज</t>
-  </si>
-  <si>
-    <t>rt @kathbarbadoro: i’m not saying this to “hold the vote hostage” or w/e but i really believe  this election is the very last chance democr…</t>
+    <t>hi po, pls vote for galing partylist for the upcoming election!!   👊💛
+#tatakdilaw https://t.co/vltdfdvwdy</t>
   </si>
   <si>
     <t>rt @chicagotribune: democrats' path back to white house goes through counties like this one in michigan, where a trump-voting mayor is endo…</t>
   </si>
   <si>
-    <t>@hayeslikeissac @segunmaximus these ones have unions that "deliver" on election day.
-they're a threat, so they're handled lightly by the govt.
-it's like with schools too! the smaller, poorer quality private schools have a very strong association, so successive govts go easy on them.</t>
-  </si>
-  <si>
-    <t>@viscous_cree @umbyrella i remember an argument i got into with my dad - a soft republican, one of the few genuine swing voters - the day after the election.
-he said to me, "the democrats used to be the party of working people, but what the fuck have they done lately?"
-and i had no answer. he was right</t>
-  </si>
-  <si>
-    <t>rt @ashtonekeys: i’m honored to announce that president case will be my running-mate in the upcoming election.</t>
-  </si>
-  <si>
-    <t>rt @patpenn2: 🚨then ,*poof*.corona virus is unleashed upon the earth!it has a very low mortality rate,not even killing kids.but,with the gl…</t>
-  </si>
-  <si>
-    <t>@peterhardwick17 @wolfie885 @ironfelix17 @georgegalloway @dawn_french @keir_starmer you n me know that all election campaigns (with imo the honourable exception of labs 2017 campaign) are always a blend of "half truths, ignorance &amp;amp; 5th rate rhetoric from both sides"? you're being choosy re which vote to respect and which not to. a symptom of 'foaming remainia'</t>
-  </si>
-  <si>
-    <t>@skynews not another election!</t>
-  </si>
-  <si>
-    <t>rt @ptabasinejad: "stop. you can't be president. this is disqualifying" 
-joe rogan showing more integrity and honest analysis about biden…</t>
-  </si>
-  <si>
-    <t>democrats can not win a grab to head election against conservatives based on facts and policy. they have to rely on fabricated russia collusion, a hoax epidemic and illegal voters.</t>
-  </si>
-  <si>
-    <t>harnessing the power of latino voters could reshape politics in texas-corpus christi caller times:https://t.co/ih0hprdgtn</t>
-  </si>
-  <si>
-    <t>the democratic party is buying the election for @joebiden because they know he doesn't stand a chance to beat @berniesanders  #bernieforpresident https://t.co/hpapyz3ksb</t>
-  </si>
-  <si>
-    <t>rt @bernie2020wa: wa bernie supporters! tomorrow's the primary, but there's still time to make an impact on this election! if you're in spo…</t>
-  </si>
-  <si>
-    <t>rt @jelani9: we also talked about a number of things, including trump’s election, the economy and the fellowship i was doing at harvard tha…</t>
-  </si>
-  <si>
-    <t>rt @lionsden45: fracking hurts russia, and vladimir putin knows it. american oil has changed the world over the last three years. https://t…</t>
-  </si>
-  <si>
-    <t>no. i’m not going to like this or say “wow”
-dumb prick would never say this before the election. look at that shit eating grin. fuck him. https://t.co/z5vdjsdg7x</t>
+    <t>rt @pjmedia_com: the morning briefing: my wuhan joe biden election conspiracy theory https://t.co/rhzwewnfjp</t>
+  </si>
+  <si>
+    <t>rt @ddddarby: listening to bernie defend socialism against redbaiting questions, defend socialized welfare programs, in a hostile environme…</t>
+  </si>
+  <si>
+    <t>“the russian government has stepped up efforts to inflame racial tensions in the united states as part of its bid to influence november’s presidential election”
+https://t.co/6slx4rvstx</t>
+  </si>
+  <si>
+    <t>over beer and herrings, cdu’s eastern faithful spurn merkel 2.0 https://t.co/slpk4tiwuk</t>
+  </si>
+  <si>
+    <t>@independent will congress go along with the tax breaks given the relationship between cic and democrats? will it aid election chances?</t>
+  </si>
+  <si>
+    <t>@esotericcd heaven help the country if a presidential election ever hinges on california’s mail in count.  the waiting would just feed conspiracy theories.</t>
+  </si>
+  <si>
+    <t>rt @abdulmahmud01: in 1987 or thereabout, the chief priest of benin kingdom announced on radio on election day that the palace had not pick…</t>
+  </si>
+  <si>
+    <t>russia trying to stoke u.s. racial tensions before election, officials say https://t.co/wxovhtdxcd</t>
+  </si>
+  <si>
+    <t>@ianmurraymp how's about winning an election or shutting up. nobody in scotland cares what labour have to say.</t>
+  </si>
+  <si>
+    <t>rt @mterryscrnwrtr: @tribelaw before the 'president' thinks of it...instead of cancelling/postponing the general election due to covid-19 -…</t>
+  </si>
+  <si>
+    <t>rt @tdmsresearch: in the 2020 massachusetts primary election results differed significantly from the results projected by the exit poll. as…</t>
+  </si>
+  <si>
+    <t>@hikinddov @rashidatlaib @berniesanders @lsarsour don't get surprised if a radical like sarsour got elected.  they want to destroy u.s from inside out and they way is electing radicals ... watch out for the election of low level public positions,  they are being fulfilled with radical. soros pumping money like crazy.</t>
+  </si>
+  <si>
+    <t>rt @grpress: michigan’s primary election day: polls open at 7, and 9 other things voters need to know https://t.co/y0iv96f4u8</t>
+  </si>
+  <si>
+    <t>@crzyfkinworld omfg yes!!!!  it would suuuuuuck.
+imagine the maga crowd with an infected trump...
+“the democrats purposely infected him, they still want to overturn the 2016 election!”
+we all know it would happen.</t>
+  </si>
+  <si>
+    <t>rt @but_rly_tho: @annarogers505 @benjaminpdixon @corybooker @joebiden @berniesanders bernie will beat trump because bernie didnt vote for n…</t>
+  </si>
+  <si>
+    <t>rt @nwpinpdx: with tuesday's democratic primaries hours away, former vice president joe biden has found an unexpected supporter in sterling…</t>
+  </si>
+  <si>
+    <t>“trump seemed totally oblivious to the danger of hardening his public image as the national-level equivalent of the mayor in jaws, blithely ignoring reports of a gigantic shark because he didn’t want to hurt the tourism season.” https://t.co/jsyshry9id</t>
   </si>
   <si>
     <t>rt @winkleberns: this is going to be unpopular to say.
 but the left needs to start figuring out now what the hell we are going to do exact…</t>
   </si>
   <si>
-    <t>rt @doitformama: dear hillary and rahm:        if you suffocate children with a biden trump fake election i will do everything possible to…</t>
+    <t>rt @yuhline: i also know that we can’t always win everything in one election and i also know that the fight continues on. i believe that @b…</t>
+  </si>
+  <si>
+    <t>rt @sjdemas: "this writer, who left our community in 1984, chose to write a story i like to entitle 'things were better in 1968.' there is…</t>
   </si>
   <si>
     <t>rt @albomp: nothing to see here. https://t.co/ad2gqt37jm</t>
   </si>
   <si>
-    <t>rt @iamthemetim: exactly a year today the great people of oyo state voted and defended their votes for gov.@seyiamakinde in the last govern…</t>
-  </si>
-  <si>
-    <t>rt @amymek: warning california
-terror-tied socialist, ammar campa-najjar, wins democrat primary election for ca’s 50th district 
-ammar is…</t>
-  </si>
-  <si>
-    <t>rt @jackies21431014: @sahilkapur i see the numbers but what about election safety of the votes ? don’t trust trump republicans and russians…</t>
-  </si>
-  <si>
-    <t>rt @gregolear: 9/ serious question: will the president stop lying when he realizes his lies are killing off his own supporters, whose votes…</t>
-  </si>
-  <si>
-    <t>rt @2012bnews: in 2004 we had sars; 
-2008, avian flu; 
-2010, swine flu; 
-2012; mers; 
-2014, ebola; 
-2016, it was zika.
-viruses seem to cro…</t>
-  </si>
-  <si>
-    <t>rt @currspecialties: @amoneyresists @nasty_woman2 #tuesdaymorning 
-reminder: 
-it’s amazing to see so many are still living some alternativ…</t>
-  </si>
-  <si>
-    <t>@zarahsultana silly girl . in case you didn't notice , labour were severely rejected at the general election . there is no fightback , you lot are clinging on for survival and no wonder ! no talent left , policies are ridiculous . labour is in tatters .</t>
-  </si>
-  <si>
-    <t>rt @niktaylorde: why you shouldn't support joe biden for the upcoming 2020 election: a thread https://t.co/0xyqfzvtxd</t>
-  </si>
-  <si>
-    <t>usa 2020 election special #qanon #wwg1wga https://t.co/apvvxhqcxt via @youtube</t>
-  </si>
-  <si>
-    <t>'levelling up' is the government's new catchphrase after the election, but what does it actually mean and how will it affect business? listen to the new cicero/amo podcast with @joeyfjones and team: https://t.co/rjo6oihrnz</t>
-  </si>
-  <si>
-    <t>rt @prettydamnswiss: what’s the endgame here? how is he supposed to be able to face off in a general election against trump and the gop? th…</t>
-  </si>
-  <si>
-    <t>rt @reuters: ‘joe biden is a friend of mine... what joe has said, he will support me if i win the nomination, i have said i will support hi…</t>
-  </si>
-  <si>
-    <t>rt @catturd2: nancy pelosi ... "civilization as we know it is at stake in the 2020 election."
-😂😂😂
-just like the tax cuts were going to be…</t>
-  </si>
-  <si>
-    <t>@internalcr @mpm886 @shereile well mike told me to check the polls, and now youre saying not to trust the polls 
-im getting confused
-primary voters are not the same as general election voters. bernie does better than biden among independents...</t>
-  </si>
-  <si>
-    <t>rt @mallorymcmorrow: tomorrow's election day! not sure if you're registered? no problem - michigan has same-day registration now. no excuse…</t>
-  </si>
-  <si>
-    <t>rt @ilhanmn: so this election, think about the issues you care about, and vote accordingly.
-who do you trust to fight for immigration just…</t>
-  </si>
-  <si>
-    <t>@charles_gaba @radicalgoats "better things aren't possible" vs "make america great again." haha no wonder you tools lose every fucking election.</t>
+    <t>rt @jonee61: @lindseygrahamsc @secpompeo @harrisonjaime will win in s.c.
+please donate to his election. i've run out of money for the next…</t>
+  </si>
+  <si>
+    <t>form 8-k: departure of directors or certain officers; election of directors; appointment of certain officers; compensatory arrangements of certain of.. $domo https://t.co/dccyxvth2k</t>
+  </si>
+  <si>
+    <t>@robreiner there's not one goddamn sane thing in this election.
+#worstelectionever</t>
+  </si>
+  <si>
+    <t>rt @polinaivanovva: putin also set to consider another proposal made by parliament today - moving parliamentary elections early
+as @aavst…</t>
+  </si>
+  <si>
+    <t>rt @patvpeters: move over putin: canadian bernie bros are interfering in our election https://t.co/tkikra9sso #election2020 via @pjmedia_com</t>
+  </si>
+  <si>
+    <t>“the russian government has stepped up efforts to inflame racial tensions in the united states as part of its bid to influence november’s presidential election, including trying to incite violence by white supremacist groups” https://t.co/9kiorfvxe8</t>
+  </si>
+  <si>
+    <t>@garrisonbuxton @jeffcha83129254 @bbfrompa @elizabethleavos @drjillstein i think you're being mislead a lot about who represents the true danger in this year's election. a vote for trump is the only way to stop a global corporate takeover of the american system. biden will go much further than trump to install a permanent austerity dictatorship. #maga</t>
+  </si>
+  <si>
+    <t>rt @nair_jitin: @nair_hena @ajitsinhjagirda @sinhapurna13 @prasunnagar @paperrose2k @tera_____baap @bharatwashi1 @nanibellary @swetamishraa…</t>
+  </si>
+  <si>
+    <t>rt @scottpresler: @realdonaldtrump bernie sanders supporters are finally seeing how the fake news 
+is rallying behind biden, 
+not giving…</t>
+  </si>
+  <si>
+    <t>rt @tvietor08: texas dems announce largest-ever voter drive in 2020 flip effort. https://t.co/yf80pshw0w</t>
+  </si>
+  <si>
+    <t>@badassday with trump’s anti-chinese trade war, the chinese government have a huge incentive to do this in an election year</t>
+  </si>
+  <si>
+    <t>@duanegodfrey @wickedwillis @dangchick1 @berniesanders @joebiden @kamalaharris i just looked this up. it varies by state how the senator will be chosen. some have to be of same party. some are done by special election. i think we would definitely be safe.</t>
+  </si>
+  <si>
+    <t>@charlieyyxy @realdonaldtrump add 10 points to his numbers , then you get a better picture of what the election will turn out to be ...</t>
+  </si>
+  <si>
+    <t>the one-choice election: https://t.co/ocusv7dzjp https://t.co/ihwmbvdgnq</t>
+  </si>
+  <si>
+    <t>rt @cjtruth: if you don’t understand anything right now on what the democrats &amp;amp; the “fake news media” is doing to our president this is one…</t>
+  </si>
+  <si>
+    <t>rt @safetypindaily: it's time to close the loopholes that are harming the 2020 election | by: wendy r. weiser &amp;amp; daniel i. weiner https://t.…</t>
   </si>
   <si>
     <t>rt @nehr_who: today 17 congress mlas flew to bangalore, probably defecting to bjp
@@ -847,65 +901,59 @@
 - b…</t>
   </si>
   <si>
-    <t>@vikramchandra finally, the truth from ndtv 
-yes, congis can write a book on how not to run a party 
-they still got 13 crore votes last ls election - that’s their legacy 
-but how long before they put it in dust?
-sos raihan vadra - pls become party president - your mamaji is refusing 😂😂</t>
-  </si>
-  <si>
-    <t>@trivialanalyst @jasonhillner @natesilver538 that swings like this only happen in years with a republican incumbent, and reflect a media narrative calling for unity ahead of an election rather than sustained support from an energized base.
-they all lost, they will always lose, and it’s hard to believe it’s not on purpose</t>
-  </si>
-  <si>
-    <t>rt @suvyboy: dude, this thing will be gone by the time the election comes around. it takes ~3-4 months of a virus like this to cause a popu…</t>
-  </si>
-  <si>
-    <t>ucu nec election results are out. 
-i have not been reelected. thanks to everyone who trusted me with a vote and the best of luck to the incoming members in what will be a tough year.
-https://t.co/kqnfqlagyj</t>
-  </si>
-  <si>
-    <t>emir of kano isn't true royalty, that throne is politically acquired, i think they even did an election for it. same can't be said about the throne of the oba of benin and it's the reason i understand why the edos are claiming theirs can't be dethroned. 1/2</t>
-  </si>
-  <si>
-    <t>@halcyon270 except that isn't true, either on whar sanders argues or on what the election turnout evidence shows.</t>
-  </si>
-  <si>
-    <t>@melodygoodlove @russbittles @jediofgallifrey ok but in all seriousness russia did in fact mess with the election so while it was overplayed as a poor excuse to hillary's loss because they can't see any other reason she'd lose it was still an actual thing that happened that we never did anything about.</t>
-  </si>
-  <si>
-    <t>rt @emykat03: what i witnessed yesterday as an election worker in the los angeles county was a crime. the election center was close between…</t>
+    <t>democrats vote: what the polls show for biden and sanders in michigan, other states
+https://t.co/h2oynn0yqz</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump this should be the swiftest election win. the #donothingdemocrats are nothing to you! crazy bernie or old joe, yeah right! the choice is clear we need a #trump2020</t>
+  </si>
+  <si>
+    <t>rt @afilan: #netanyahu 's likud party was spying on israeli voters via an app during last week's election - gee, all that trouble and all t…</t>
+  </si>
+  <si>
+    <t>"civilization as we know it is at stake" said whackjob @speakerpelosi of the november election. what a freaking whackjob. this is your crazy-ass democratic party. vomiting fear at every opportunity. shame on all of them.</t>
+  </si>
+  <si>
+    <t>@edrollins @realdonaldtrump @ericbeachgop the fbi &amp;amp;other government agencies have had it in for donald trump since the beginning, especially the democratic party. so i’m thinking this virus was planted by the deep state to try to hurt president trumps new economy. this all seems mighty convenient during a new election yr</t>
+  </si>
+  <si>
+    <t>rt @mdouganlpool: pm's spokesperson: "the uk’s position is the one which secured a significant majority... in the december general election…</t>
   </si>
   <si>
     <t>rt @sunrisemvmt: this 👏is 👏what 👏we 👏like 👏to 👏see 👏
 a day after @berniesanders rallied more than 10,000 on university of michigan's campu…</t>
   </si>
   <si>
-    <t>rt @amoneyresists: trump’s impeachable offenses:
-#58.) trump just admitted to george stephanopoulos that he would not call the fbi and wou…</t>
+    <t>@ivankatrump only problem is, half of americans don’t have any common sense - specifically those who voted for hillary during the last election.</t>
   </si>
   <si>
     <t>rt @libertariandesi: all the left liberals can do is to call people bigots, fasicts, genocide-enablers and sanghis. they can't even win a p…</t>
   </si>
   <si>
+    <t>rt @trophytruck_q: 👀"fraction magic" real time election fraud. 
+this will make you sick.
+#expose
+#electionfraud
+#thesepeoplearesick
+https…</t>
+  </si>
+  <si>
     <t>rt @revjjackson: please read, share widely, rt&amp;amp; like @suntimes “why i support @sensanders.” https://t.co/sj6r6u3sre @berniesanders #votingm…</t>
   </si>
   <si>
-    <t>@realdonaldtrump the wuhan virus( common cold) was a premeditated  biological terrorist act aimed @ hurting your economy during an election year. u should investigate all of the facts &amp;amp; prove this is the truth then take extreme action against china maybe this will shut the msm up</t>
-  </si>
-  <si>
-    <t>rt @aprepagop: pennsylvania voters: don’t forget to request your mail in ballots today! check out https://t.co/a76cotwgfp to sign up! every…</t>
-  </si>
-  <si>
-    <t>@malcolmnance so sick of these lying fake patriots. you all are so understanding. traitors are h ung. you just let a traitor to america be in our house. russia did hack our election gop are traitors. rupert murdoch i would include him and his family, the board of directors, anchors.</t>
-  </si>
-  <si>
-    <t>rt @amoneyresists: trump’s impeachable offenses:
-#69.) trump again accepted putin’s denials over the unanimous conclusions of our entire i…</t>
-  </si>
-  <si>
-    <t>rt @joebiden: this election is about the soul of our nation — and donald trump is poison to our soul. https://t.co/cwzycljv0d</t>
+    <t>whose party election campaign was questioned, why question cr17? https://t.co/17gbeetzcf</t>
+  </si>
+  <si>
+    <t>rt @danweiner329: one thing people are most worried about this election cycle is the threat of foreign govts trying to disrupt the 2020 vot…</t>
+  </si>
+  <si>
+    <t>rt @sagarikaghose: unless @rahulgandhi ( nice,amiable person but simply not a politician) bows out completely and leadership elections are…</t>
+  </si>
+  <si>
+    <t>@levi_bullen @lordmangrove well....
+yes.
+but, people born after 1980 are being badly fucked over in this election. a lot of people are losing hope now.
+you'd have better hope that there is enough boomer and gen x democrats in the right places to help biden win.</t>
   </si>
   <si>
     <t>rt @dhaval241086: ◆mp election fought on  j.scindia's name
@@ -913,16 +961,22 @@
 ◆rajasthan election fought on sachin pilot's name…</t>
   </si>
   <si>
+    <t>rt @peterstefanovi2: #marr “forgot” to ask chancellor rishi sunak when will we see the report into russian interference in uk politics supp…</t>
+  </si>
+  <si>
     <t>rt @grottyscotty: hey @scottmorrisonmp 
 you guys spent over $100 million on government advertising ahead of the election
 where is the ad…</t>
   </si>
   <si>
-    <t>rt @thegrayzonenews: the grayzone and @codepink demand emergency @oas_official election observers in 2020 democratic presidential primary…</t>
-  </si>
-  <si>
-    <t>rt @kenvogel: trump, inc: @parscale's firm has been paid $35m by the trump campaign, rnc, etc since 2017.
-he says most of it was passed al…</t>
+    <t>@charlottecgill gq think the delayed release date after the us election will see the end of trump as president? 
+they are political biased fools who are going to be proved wrong. i predict a similar landslide victory similar to the tory victory here for trump. oh and craig is the best bond!</t>
+  </si>
+  <si>
+    <t>it's primary election day in mo!
+give @kwosnewsradio a call and get 30 seconds to argue your case for which candidate to vote for!
+573-556-5967.
+let's hear it!</t>
   </si>
   <si>
     <t>rt @mujik48: bnk48 2nd general election
@@ -935,37 +989,38 @@
 https://t.co/lopcjdr0lq</t>
   </si>
   <si>
-    <t>rt @rafatweets_: joined politics in 2002
-from 2002 to 2019- member of parliament
-from 2004 to 2014- central minister
-since 6 years-not mi…</t>
-  </si>
-  <si>
-    <t>rt @cindyseestruth: #maga #conservatives #trumppatriots 
-report this fake tweet.  mr. wilson is clearly trying to affect the outcome of th…</t>
-  </si>
-  <si>
-    <t>@kartipc sir i remember your father once faced an election in coalition with bjp. is it not?</t>
-  </si>
-  <si>
-    <t>rt @ohiogunowners: in #ohleg #ohiosenate26, @melissaackison promises to fight hard for gun owners, but @billreineke is only pro-gun at elec…</t>
-  </si>
-  <si>
-    <t>i am now making lemonade scones in two different answers depending on if i wanted somewhere to argue against fuckwits, i'd still be uneven access to medical records is a very calm answer to the election when morgan becomes prime minister.</t>
-  </si>
-  <si>
-    <t>@aking4democracy "mueller’s report found no evidence that the trump campaign for the '16 us presidential election conspired with the russian government’s alleged effort to hurt hillary clinton’s campaign through the release of stolen democratic party emails"
-read up.
-https://t.co/y1jdxofrmj</t>
-  </si>
-  <si>
-    <t>rt @redhistorian: our latest polling from the @mileendinst: sadiq khan opens up 25-point lead in london mayoral election. https://t.co/79dv…</t>
-  </si>
-  <si>
-    <t>@economictimes how good it does to a state where an elected govt doesn't get chance to complete 5 years.... he should have left the party before the election or after the completion of the tenure of this govt.</t>
+    <t>@naomiaklein @intercepted desperation in the face of defeat.  kinda pathetic.  are you going to continue tearing down the democratic nominee all the way to the presidential election day?</t>
+  </si>
+  <si>
+    <t>the morning briefing: my #wuhan #joebiden #election #conspiracy theory | actually makes sense. i'm thinking the same thing.#draintheswamp #americafirst #jexodus #walkaway #maga #kag #trump2020 #jexit #blexit #trump2020landslide   https://t.co/csglpug7po #columns via @pjmedia_com</t>
+  </si>
+  <si>
+    <t>rt @stephenathome: i think the youth vote will be big in this election. kids love dinosaurs!</t>
+  </si>
+  <si>
+    <t>rt @dilanpcook: i can’t believe it’s 2020 and there are still people that believe jill stein is a russian asset, susan sarandon swung the 2…</t>
+  </si>
+  <si>
+    <t>@proudresister your thread used to be thoughtful. now it’s just an angry diatribe that is encouraging people to vote for trump by sitting this election out. you’re creating so much division because your preferred candidate isn’t winning, that you’re helping trump now. i can’t follow anymore.</t>
+  </si>
+  <si>
+    <t>rt @althepal55: @democracynow @democracynow, coates is right!
+see this?!
+https://t.co/frghhqrgtk</t>
+  </si>
+  <si>
+    <t>rt @greenvillenews: the polls are now open for the greenville county sheriff election and will close at 7 p.m. tonight.
+https://t.co/igstp…</t>
+  </si>
+  <si>
+    <t>rt @legendaryenergy: progressives, don’t worry about voter fraud or election fraud. your leader, bernie sanders, doesn’t care. didn’t in 20…</t>
   </si>
   <si>
     <t>rt @realdebfarmer: campaign finance reform needs to be at the top of the agenda so that grifters never abuse the us election process again!…</t>
+  </si>
+  <si>
+    <t>this is a list of monday’s general election polls, via @realclearnews.  
+all of them say @realdonaldtrump loses to both. https://t.co/oh29oq0sfr https://t.co/d1sljpgpar</t>
   </si>
   <si>
     <t>rt @krisssnicolee: 2004- sars 
@@ -977,140 +1032,130 @@
 all election years, that’s it that’s the tw…</t>
   </si>
   <si>
-    <t>this is 2016 all over again. the dnc has their finger on the primaries again. biden the senile uncle joe is their man, he can be controlled or replaced after the election. https://t.co/u96qd7acgm</t>
-  </si>
-  <si>
-    <t>@bmls797 @thehill you're entitled to your opinion.
-let's have an election.
-do you promise to accept the results?
-i'd spend 3 years making zero-evidence accusations and attempted coups?
-say something true.
-nothing you've said is true.</t>
-  </si>
-  <si>
-    <t>@fdr_huey @ericisaac @kylekulinski not in truth, but with the way the election is being run, so far yes.</t>
-  </si>
-  <si>
-    <t>@owasemzantsi anc actually want to use foreign nationals in the next election to win. they are trying hard to get them citizenship right now, because most sa citizens who pay income tax are fed up. duduzane becomes the face of the "new" anc, foreign nationals get to vote. coming near you.</t>
-  </si>
-  <si>
-    <t>@theeabpro @biggestjoel i disagree. did trump become president because people don’t like the feeling of change? i think change is exactly what many americans want, and possibly the only way to win an election nowadays. obama also campaigned on change.</t>
-  </si>
-  <si>
-    <t>there must be many small-business people who wish they hadn't blindly voted liberal at the last election.
-#auspol</t>
-  </si>
-  <si>
-    <t>rt @2019thenew1984: since trump's election the dow went from 18,259 to an all-time high of 29,551, a ~62% gain.
-democrats: #obamaseconomy…</t>
-  </si>
-  <si>
-    <t>@rparrish24 @realdonaldtrump are you still not over the election</t>
-  </si>
-  <si>
-    <t>rt @realjameswoods: this is absolutely the plan by these savages at the dnc: prop joe biden up while he struggles with dementia until the c…</t>
-  </si>
-  <si>
-    <t>it's election day here in @migov! #ivoted</t>
+    <t>rt @strongerstabler: russian tory donors are named in an official report suppressed by boris johnson. it raises serious concerns about the…</t>
+  </si>
+  <si>
+    <t>sri nara chandrababu naidu addressing the media about the election violations committed by ycp - live from ntr bhavan, amaravati. #localbodyelections #votefortdp #voteforcycle #apdeservesbetter #jaganfailedcm https://t.co/7jlsyebwq2</t>
+  </si>
+  <si>
+    <t>rt @gabbarsanghi: bjp leaders are routinely bashed, mocked in media and social media even by supporters and friendly journos. every time it…</t>
+  </si>
+  <si>
+    <t>rt @pithywidow: if only there were something—an estate of some kind, perhaps the fourth?—that could have told voters the true nature of his…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump please stop this, focus on corona and policy, not your election!</t>
+  </si>
+  <si>
+    <t>new: sadiq khan on track for decisive re-election as london mayor, new poll finds
+https://t.co/wi4ph2fs6t</t>
   </si>
   <si>
     <t>rt @dvatw: lisa seems to have forgotten her party was walloped in the general election and so she is no position to demand anything.
 https:…</t>
   </si>
   <si>
+    <t>rt @realjameswoods: this is absolutely the plan by these savages at the dnc: prop joe biden up while he struggles with dementia until the c…</t>
+  </si>
+  <si>
     <t>rt @polytikle: so it is clear that bjp can't win election on its own.
 it needs support of horse trading, evm n godi media.</t>
   </si>
   <si>
-    <t>vivian rath, member of the irish human rights and equality authority’s disability advisory forum, had an “avalanche” of responses after tweeting about his experience voting in kilmuckridge, co wexford. read more below. #disabledvotescount
-https://t.co/7ugqdu3hdc</t>
-  </si>
-  <si>
-    <t>1)patriot @collinsforga - or -  pay-triot @kloeffler 
-"political connections is why kelly loeffler was selected by governor kemp, and that same pay-to-play political network is exactly why nikki haley has endorsed her in the upcoming election.....</t>
-  </si>
-  <si>
-    <t>@willow64116 at least i won’t have to worry about the general election, since i’m going to die first and all.</t>
-  </si>
-  <si>
-    <t>democrats vote: what the polls show for biden and sanders in michigan, other states - https://t.co/9ynvhm657o
-democrats vote: what the polls show for biden and sanders in michigan, other states  nbcnews.combernie sanders, at fox …
-https://t.co/kjh8zcath9
-#googlenews
-#news https://t.co/ia38nnuvmm</t>
+    <t>rt @gabbmnl48: i’ll pick out the one with the best concept  and use it as my 3rd general election campaign poster!! 
+goodluck and do your…</t>
+  </si>
+  <si>
+    <t>rt @politicshome: new: sadiq khan on track for decisive re-election as london mayor, new poll finds
+https://t.co/wi4ph2fs6t</t>
+  </si>
+  <si>
+    <t>the ease with which many self-described 'socialists' have forgiven the bbc for the 2019 election coverage is enough to make me vomit.</t>
+  </si>
+  <si>
+    <t>so how the hell are you progressives going to fight against a computer system that is programmed to switch votes? 
+why is the dnc bothering to run an election where the people's choice is worth shit nothing? save money and just pick your presidential candidate. just pick him/her.</t>
+  </si>
+  <si>
+    <t>rt @thedailybeast: the russian government is trying to provoke racial violence in the u.s. to create a feeling of chaos ahead of the presid…</t>
+  </si>
+  <si>
+    <t>@timesnow @officeofknath unpopular opinion is madhya pradesh heading for snap election?</t>
+  </si>
+  <si>
+    <t>rt @cadena4congress: in case you're not aware early elections started in harris county, texas, on february 18th and continues through febru…</t>
+  </si>
+  <si>
+    <t>@unclestat 2nd strains .:: vaccines ... we’ll see all that in the months to come before election, just put on your seat belt</t>
+  </si>
+  <si>
+    <t>rt @josh_emerson: russia trying to stoke u.s. racial tensions before election, officials say https://t.co/mxrfvkszad</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump death fatality 22:37000, #covid19 vs election, which is more important? tell the facts to the world.</t>
   </si>
   <si>
     <t>rt @zephyrteachout: joe biden is not a safe candidate in a general election because of his history on trade, social security, iraq, and fli…</t>
   </si>
   <si>
-    <t>rt @jc_marcotte: we’re watching trump’s probable election demise in real time “trump has made his unfitness for office so blatant even his…</t>
+    <t>what the polls you're citing basically show is that nothing has changed since the election, which is hardly surprising.</t>
+  </si>
+  <si>
+    <t>@w7voa @kyledcheney @realdonaldtrump election year photos with putin not good.</t>
+  </si>
+  <si>
+    <t>rt @remiadekoya1: oh to be a white liberal! to be able complain (loudly) about how unjust the world is without having to endure injustice.…</t>
+  </si>
+  <si>
+    <t>rt @bandivan: did you know that in the presidential election of 2016, in amudat,  out of 36,203 registered voters, 25,262(97.3%) voted for…</t>
   </si>
   <si>
     <t>rt @peterstefanovi2: boris johnson is hoping we’ve forgotten the report into russian interference in uk politics which he suppressed before…</t>
   </si>
   <si>
-    <t>@bishesbrew @cnnpolitics in 2018 on election day trump personally authorized a cyber-strike that disabled kremlin hackers.
-we are currently multiple years into a massive cyber counter-terrorism initiative that is highly secretive.
-however, even wapo and cnn acknowledged it's happening.</t>
-  </si>
-  <si>
-    <t>from grayzone. more of the same.
-https://t.co/igj2t56l0g
-#riggedprimary 
-#riggeddnc 
-#electionfraud</t>
-  </si>
-  <si>
-    <t>@antheajayne4 @shaunbaileyuk god help london, if he gets in again.... no doubt voter fraud will be massive in this election, just to keep him in....</t>
-  </si>
-  <si>
-    <t>@nakli_chashmish lol
-even congress is part of maharashtra government despite losing election</t>
-  </si>
-  <si>
-    <t>rt @sahilkapur: michigan poll: monmouth university
-democratic primary
-biden 51%
-sanders 36%
-general election
-biden 48%
-trump 41%
-sande…</t>
+    <t>rt @templaine: more than one 'you what' moment reading this, it really makes you wonder just how much action they intend to take.
+johnson's…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump the only way you lose is if there is cheating on a mass scale. if this election is even close, there is mass cheating.</t>
+  </si>
+  <si>
+    <t>at a glance: tuesday's democratic presidential contests and state delegate counts - reuters https://t.co/uee56wmozv</t>
   </si>
   <si>
     <t>rt @dailycaller: house speaker nancy pelosi: ‘civilization as we know it is at stake’ in 2020 election. https://t.co/6gaqh8kjsy</t>
   </si>
   <si>
-    <t>photos from saturday's local election campaign launch in bristol https://t.co/1pwniyfaa1 @libdems @mpowerbristol @carolinevoaden @edwardjdavey @markpack https://t.co/1arirwuubm</t>
-  </si>
-  <si>
-    <t>@realdonaldtrump @us4afghanpeace  khalilzad support election fraud in afghanistan.
-@drabdullahce become president of afghanistan with people vote.
-people of afghanistan want from you to support @drabdullahce otherwise go out from our country.</t>
-  </si>
-  <si>
-    <t>there is such a thing called “election”!!!
-vote them o u t!!😡 https://t.co/gd8gxxw4ci</t>
-  </si>
-  <si>
-    <t>rt @lauramoates: mining giant fortescue metals, plus wesfarmers given millions in grants by coalition from fund for indigenous disadvantage…</t>
+    <t>@shafia2020 @rgghuman1 @mdaixo__ going in on his young girlfriend raw getting her up the duff is all hes actually done since the last election, oh and reminded everyone to wash hands!</t>
+  </si>
+  <si>
+    <t>legitimately can not stand the majority of elizabeth warren’s dumbass “feminist” supporters at this point because it’s obvious they don’t care about the election but i still would have voted for her if bernie had lost out because i’m not a colossal fucking idiot</t>
+  </si>
+  <si>
+    <t>@emwest22 crossover votes to try to sway the d election since the r primary is a "gimme."</t>
   </si>
   <si>
     <t>rt @chrismurphyct: 4/ and our negotiators' race to get a deal (against trump's desire to announce a unconditional withdrawal) took focus of…</t>
-  </si>
-  <si>
-    <t>rt @jackonory3: @william_ukpe a yoruba friend of mine hatedthat an ijaw man was president. he forgot that i am a south south minority. he w…</t>
   </si>
   <si>
     <t>rt @vetpatriot17: election meddling by the left has been right out in plain sight.
 the media did not all of a sudden create a full frontal…</t>
   </si>
   <si>
-    <t>rt @recusant_raja: here's @oldhamcouncil deputy leader @cllrabduljabbar launching his election campaign. next to him is ex chairman of oldh…</t>
-  </si>
-  <si>
-    <t>rt @ruffedge: every year, we hear this is the most important election ever.....this time it really is. everything's at stake.
-#votered2020…</t>
+    <t>rt @jasonscampbell: it is march 9, 2020. 
+the 2016 presidential election was 1,217 days ago. https://t.co/bnlbgop6am</t>
+  </si>
+  <si>
+    <t>rt @drchloevitry: 🤯 
+thank you to everyone who voted in this election. 
+i will become an nec member from 29 may (date of congress). https…</t>
+  </si>
+  <si>
+    <t>@breaking911 no donald will try to halt the election due to corona virus.</t>
+  </si>
+  <si>
+    <t>@tragicpenname @time_progress @moe_is_god @larrydarrell7 @raffine9 @natesilver538 manifestly unfit, holy shit dude you’re backing a guy with dementia. you’ve demonstrated that you are willing to lose the election to stop bernie, don’t blame us when you do.
+i mean you will of course, why take responsibility for your own failures</t>
   </si>
   <si>
     <t>rt @jimmy_dore: it’s almost like the only way the democrats could lose this election would be to run a guy with obvious dementia</t>
@@ -1121,65 +1166,46 @@
 20 questions you might have: https://t.co/zzcuqc7ktc https://t.co/…</t>
   </si>
   <si>
-    <t>rt @tomilahren: isn’t it funny that although california’s prop 13 failed on election night… they’re suddenly finding hundreds of thousands…</t>
-  </si>
-  <si>
-    <t>@cbngov_akin1 @hongabrielzock @ecowasparliamnt @apcukingdom @kagarko_01 @iam_ademuyiwa @theresatekenah @ayourb @johnfanimokun @ezeakachidozie @equityoyo @journalist_mind @scarfizal a typical example of young nigerians involvement in governance but the gullible one’s would always wanna be president without followership that can win a lg election.
-#nottooyoungtorun</t>
-  </si>
-  <si>
-    <t>@ivanontech @teamyoutube must be another election coming up lol full blown censorship. these politicians are scum. whens the last time a democrat told the truth or actually helped. instead they block and censor opinion. who would vote for such a party that hides the truth to cover up their fraud.</t>
-  </si>
-  <si>
-    <t>rt @nightlypolitics: sterling heights (michigan) republican mayor michael taylor supported trump in 2016 and is now voting for biden.  http…</t>
-  </si>
-  <si>
-    <t>rt @rishimishra_: vijayaraje scindia was founding member of bjp
-her daughter's vasundhra raje is ex-rajasthan cm &amp;amp; yashodhara raje ex-mini…</t>
-  </si>
-  <si>
-    <t>@legitngnews these are the real thieves. why sell your property to run for an elective office if the aim isn’t embezzlement and looting the people’s treasury? the likes of you will kill to turn table of events if perhaps the election didn’t favour you.nigerians should learn to avoid this set</t>
-  </si>
-  <si>
-    <t>@heathermoandco @joncoopertweets disagree. this election is about a return to normalcy. that also means continuing the obama trajectory of reasonable, inclusive access to healthcare for all americans.</t>
-  </si>
-  <si>
-    <t>rt @drpaulgosar: if you live in arizona and you want to sign your favorite candidate’s petition for the 2020 election ballot:
-click here➡️…</t>
-  </si>
-  <si>
-    <t>rt @marie_kate2: boris johnson faces first tory revolt since the election in parliament tonight https://t.co/as2cesgvmk</t>
-  </si>
-  <si>
-    <t>cierra putmen i respect the dedication of a journalist &amp;amp; the need to stay non bias, but having said that, isn't it possible the american people in such indecisiveness on the upcoming election need a verbal footnote behind the bethune's rebuttals in the white house. https://t.co/ylrbg9xqpo</t>
-  </si>
-  <si>
-    <t>@danpeacock12 @bonlives68 @iamlisakirk @qsimpleanswers @drwaheeduddin @graceannaaustin @five4life @gpanderino @lbox327 @criseeehamilton @italialibera6 @wanderinganimal @mollygalt @luvsshinyobjs @kindeandtrue @dazharmer @laurawanek @koko58131745 @daysofnoah2 @lulabelldesigns @allycl17 @seanjensen66 @jconnor19662 @gostalovemoney @loggerhead_ @sandrac80012392 @charismaalasta2 @surfhempster @bfrownfelternd @ashleymcbride3 @kirkwoodjones @louie16472283 @wallace_noll @jomc20 @kathyni93017255 @rapunzel_39 @edwardgheer @ourspraying @graydaygamer @jo_ozymandias @aurora_c__ @gcb910 @bendercock @cagsil @oculi_vindictae @anonsquad035 @jesusluvsu29 @beebeebeeleaves @rockermom53 yep, started up after 2016 election as retaliation against the voters who didn't go along with the status quote... i monitored the storms and plane dumps...this retaliation to this day is continuing on all the people of america far and wide'... they discriminate and don't care.</t>
-  </si>
-  <si>
-    <t>rt @fred_guttenberg: he is not a president.  the good news is the election is soon and @joebiden will restore decency in our democracy. 
-ht…</t>
-  </si>
-  <si>
-    <t>@caulmick @trumankelly @paschald isn't that why we , with intelligence, called for change last election</t>
-  </si>
-  <si>
-    <t>@minhazmerchant no need,next year after bengal election is over bjp should take over maharashtra by taking in 26 mlas from ncp,20 from congress and 10 from shiv sena,bypolls could be clubbed with bmc elections</t>
-  </si>
-  <si>
-    <t>rt @stormypatriot21: the only thing that disappoints me about the nov election is that @realdonaldtrump only gets to “debate” one of them.…</t>
-  </si>
-  <si>
-    <t>rt @lilandmats: as a health professional with 13 years working in psychiatric institutions, it is clear that joe biden has had a significan…</t>
-  </si>
-  <si>
-    <t>rt @reutersindia: seeking a decisive win in the michigan primary, joe biden was joined onstage in detroit by two former democratic presiden…</t>
+    <t>@johndrakecooper @danielandrewsmp obviously you did not listen to shorten's campaigning up in queensland........queenslanders picked it up straight away, dirty deals with the greens and they smashed him out of a job come election night.</t>
+  </si>
+  <si>
+    <t>what are we going to do when trump declares some sort of bullshit public health emergency the week before the election?</t>
+  </si>
+  <si>
+    <t>@ourhistoryisus @opindia_com bjp will not try it in maha cause ss has similar ideology like them and is temporarily seperated more importantly bjp has already announced will fight election alone and may win even election happens now.</t>
+  </si>
+  <si>
+    <t>sadiq khan on track for landslide mayoral election win, says new poll https://t.co/wkj9p82lxd https://t.co/cwawlyrchw</t>
+  </si>
+  <si>
+    <t>rt @cancel_sam: dallas county *accidentally* didn't count 10%––more than 20,000––of the votes cast on super tuesday.
+if texas was a south…</t>
+  </si>
+  <si>
+    <t>rt @johnmoenius: @tommcnaught1 @martadee12 @ps9714 @clarktx1 @hillaryclinton don’t forget the sanders voters who had their feelings hurt an…</t>
+  </si>
+  <si>
+    <t>@mconeone @thebradfordfile looks just like hillary clinton’s crowds before the election</t>
+  </si>
+  <si>
+    <t>interesting how the person who benefited most from russian assistance last election cycle is tweeting out hashtags helping their next beneficiary - bernie. like i said with @drjillstein - a russian asset gotta russian asset. https://t.co/qnml9lzykm</t>
+  </si>
+  <si>
+    <t>rt @nickchikago: noam chomsky: democratic party centrism risks handing election to trump https://t.co/qx3zypqdsd via @truthout</t>
   </si>
   <si>
     <t>rt @gregolear: "the actuarial chances that the vp will replace potus in the next four years are much higher than usual....in 2020, thanks t…</t>
   </si>
   <si>
-    <t>1st presidential primary election! status: voted!🗳️🇺🇸😀#vote #2020elections</t>
+    <t>rt @mtracey: "elizabeth warren’s departure from the democratic presidential race appears to have benefited joe biden more than bernie sande…</t>
+  </si>
+  <si>
+    <t>rt @majorgauravarya: want to become a celebrity without any hard work or talent? 
+here are 3 easy steps:
+step one: say “pakistan zindabad…</t>
+  </si>
+  <si>
+    <t>rt @siahisiahi1: today wsr can pull a smart one and lobby all his allies mcas, mps, senators and governors to resign en-masse and force an…</t>
   </si>
   <si>
     <t>rt @lanerodrigs1979: #jillsteinisarussianasset .
@@ -1189,52 +1215,74 @@
 any real possi…</t>
   </si>
   <si>
+    <t>i can’t believe it’s 2020 and there are still people that believe jill stein is a russian asset, susan sarandon swung the 2016 election, and the dnc is just some benevolent institution safeguarding democracy at home and abroad. turn the tv off and learn how to use google ffs.</t>
+  </si>
+  <si>
+    <t>rt @commandygipson: tuesday march 10th is primary election day.  please make it a priority to exercise your right vote in the republican pr…</t>
+  </si>
+  <si>
+    <t>@govwhitmer's and @elissaslotkin's endorsements of @joebiden is a vote against fixing flint.
+obama let flint down and joe will too. no matter the outcome of the #michiganprimary we must vote them out come election day.
+michigan is a place for progressives!
+#bernie2020</t>
+  </si>
+  <si>
+    <t>real easy to tell who has actual quality-of-life stakes in this election and who's just treating it as a diversion where the most civility wins their vote</t>
+  </si>
+  <si>
     <t>rt @councillorsuzie: @andrewdawes71 @skisidjames @brianambler2 thank you but @conservatives are  really lucky to have @shaunbaileyuk as our…</t>
   </si>
   <si>
-    <t>rt @mickitiki: what do you feel will be the greatest threat to our president in the 2020 election! please rt to get this poll out!  thank y…</t>
-  </si>
-  <si>
-    <t>@nasirkhuehami it’s better to not give advice when you don’t even know what madhyapradesh is and scindia politics, if people voted for him then why he lost his election why his close aid ramnivas rawat lost from vijaypur,he’s gaddar - even in history !! his political career is near end</t>
+    <t>@thorsson_john @natesilver538 @benshapiro not really.  ask bernie about it in 2016.  election fraud was 2016 when dnc rigged it for hrc.</t>
+  </si>
+  <si>
+    <t>rt @coreyrobin: really worth reading from @ericlevitz: "and yet, every day that the coronavirus spreads and markets tank, the (supposed) el…</t>
+  </si>
+  <si>
+    <t>rt @ltoddwood: kimberly gardner made history in 2016, roaring to an election victory as st. louis city’s first african-american chief prose…</t>
+  </si>
+  <si>
+    <t>rt @nandorvila: bernie's biggest hurdle was always the democratic primary, not the general election</t>
+  </si>
+  <si>
+    <t>if anyone needs illustrations for the election please dm me
+#weebnk48 #fondbnk48</t>
+  </si>
+  <si>
+    <t>@oddjam @mehdirhasan @organizingpower if you have to convince them to pay attention to the election, how do you hope to use them to pressure lawmakers and primary those who oppose his agenda? +</t>
+  </si>
+  <si>
+    <t>@msweliteddy @owentharaga @advbmkhwebane i think we are missing the issue here. the pp had no authority to investigate the private funding of the election.
+the court had to set the report aside. the court correctly applied the rules.</t>
+  </si>
+  <si>
+    <t>@plonyalmonyjr @garybkatz @abdallaha92 and then fatah would have to be either reformed or abolished and the plo would definitely have to be abolished. after that, the palestinians might have a chance to have a real election and have public servants that will actually help them.</t>
   </si>
   <si>
     <t>rt @capehartj: election forecaster @rachelbitecofer explains ‘the reason joe biden is the nominee’ https://t.co/halgqgel5m</t>
   </si>
   <si>
+    <t>c’mon michigan!  there is one candidate who can beat trump in the battleground states in the general election as shown by poll after poll. otherwise we’re playing with fire. https://t.co/qx5ecgtf5r</t>
+  </si>
+  <si>
     <t>rt @matthewjdowd: as another election day is starting in some states, some counsel i give nearly every election day, ignore the anecdotal s…</t>
   </si>
   <si>
-    <t>rt @bernetawrites: @emmavigeland elizabeth (@ewarren), 
-if you are primaried in the next election, i will be sure to donate to your oppone…</t>
-  </si>
-  <si>
-    <t>rt @random_neuro123: to those claiming a biden nomination would result in a republican vs. a republican election, i saw similar  claims of…</t>
-  </si>
-  <si>
-    <t>rt @santucci: election officials prepare for challenge of coronavirus ahead of tuesday's primaries  - https://t.co/fiszgwspox via @abc @luk…</t>
-  </si>
-  <si>
-    <t>rt @peterstefanovi2: in other news boris johnson continues to hide the report into russian interference in uk politics which he suppressed…</t>
+    <t>rt @senhorraposa: the president is urging oklahomans to vote in a nonexistent election. the statewide primary in oklahoma is on june 30. ht…</t>
+  </si>
+  <si>
+    <t>rt @mujik48: mnloves who want to make mnl48 gabb's campaign poster for this coming general election can post their works and use #pfg #post…</t>
+  </si>
+  <si>
+    <t>@shekhargupta shekhar you certainly remember that rajmata contested ls election 1980 from rae bareli against indira gandhi.
+you were a mere intern then in the field of journalism.</t>
   </si>
   <si>
     <t>rt @jvgraz: for those on the verge of giving up, take it from someone who did check out after the 2000 election: do not do it. 
 there is l…</t>
   </si>
   <si>
-    <t>trump will waive this, he's not going to blow up his beautiful trade deal, which is really just a cover story for his failure, right before the election. but farmers will feel it. they'll know. https://t.co/gkouz3vy94</t>
-  </si>
-  <si>
-    <t>rt @avery1776: soros backed la da lost night super tues @benktallmadge @1foreverseeking @babereflex_8 @almostjingo 
-soros-backed da candida…</t>
-  </si>
-  <si>
-    <t>@jimstruthbtold what two countries would benefit the most from a biden/clinton win? russia and china. what two countries are responsible for the oil war and virus? russia and china. election interference at its best. rise above it and vote republican! #kag2020landslide</t>
-  </si>
-  <si>
-    <t>rt @berniesanders: even a fox news audience agrees that our progressive ideas are not radical. these are the ideas we need to bring to the general election to defeat trump. https://t.co/igoeuaf3m6 https://t.co/th5d4ums5s</t>
-  </si>
-  <si>
-    <t>@mandoline_blue i hate johnson, but cannot say that the current approach has been bad. i think better communication would be great, but johnson learned from the last election that dumbing down everything works best for most of the british population. do not give them too many facts. sad but true</t>
+    <t>will you join me in supporting meara conway and the saskatchewan ndp in regina elphinstone-centre for the 2020 provincial election? https://t.co/mlorflzywo</t>
   </si>
   <si>
     <t>rt @jeffreyfrye: nobody is asking: what's the difference between #coronavirus &amp;amp; every other election yr epidemic we've ever had? #fakenews…</t>
@@ -1244,113 +1292,110 @@
 due to #tory #idox  #cambridgeanylitica election postal vote rigging ..as smears #media &amp;amp; #press vilificati…</t>
   </si>
   <si>
-    <t>rt @oldtype: potential korean general election storyline: ufp has quietly pulled nominations for key lawmakers involved in park impeachment…</t>
-  </si>
-  <si>
-    <t>rt @2ears2wheels: "you can't win the leadership election if you criticize corbyn, but you can't win a subsequent ge *unless* you criticize…</t>
-  </si>
-  <si>
-    <t>pj media: the morning briefing: my wuhan joe biden election conspiracy theory https://t.co/8g7fgpyanx</t>
+    <t>@realdonaldtrump i'm pretty sure we are going to have an election anyway fatboy.</t>
+  </si>
+  <si>
+    <t>@kweansmom toake sanders out to be a beloved jewish icon is dispicable with his anti semitic retoric ..zayde (grandpa) is a term of  endearment
+ like bubby..shameful..
+jews should not vote for self hating jews.
+jews should not vote for self hating jews ..vote trump in the general election https://t.co/amqykxodo4</t>
+  </si>
+  <si>
+    <t>@jannerlovesyou @ewarren it's the internet:  there are trolls all over it.  if warren can't even ignore a small % of internet trolls in the us, how would she govern 327 million people or face the middle east, putin, or debates in the general election against that huge orange troll in the white house?</t>
+  </si>
+  <si>
+    <t>twitter debuts 'manipulated media' label on clip of biden retweeted by trump https://t.co/baprhi0yft via @hybrid_ts https://t.co/29uq5pznht</t>
+  </si>
+  <si>
+    <t>organizers inspired by #sanders are changing the landscape in the rural south https://t.co/nlakq0fgg2</t>
   </si>
   <si>
     <t>rt @curtishouck: video: @mzhemingway and @bretbaier just wrecked the liberal media narrative about russia throwing '16 to trump. baier: "so…</t>
   </si>
   <si>
-    <t>@yth8r election year scare</t>
-  </si>
-  <si>
-    <t>rt @marklevinshow: 1. the israeli left is not only trying to steal the election with the help of the anti-israel arab parties, but is orche…</t>
-  </si>
-  <si>
-    <t>rt @angelabelcamino: in my voting lifetime, two out of three presidents lost the popular vote but still won the election and those same pre…</t>
+    <t>@kwintie @unluckywanderer @captainandy1981 when has appealing to moderates ever won an election? remind me, who won in 2008, the centrist, or the "left" option? who win in 2016, the centrist, or the crazy right wing option? americans like bomb throwers, we like change, because we hate the way things are. for good reason.</t>
+  </si>
+  <si>
+    <t>@donaldjtrumpjr the sick left isn’t listening.. they have an election to manipulate, don’t you get it?</t>
   </si>
   <si>
     <t>rt @cliffschecter: republican mayor of 4th largest city in michigan, lifetime republican who voted trump in 2016, endorses biden for genera…</t>
   </si>
   <si>
-    <t>"go to the polls," @jayashcroftmo told us as election officials deal with the coronavirus. more on what the other states told us: https://t.co/g1omnim4kf</t>
-  </si>
-  <si>
     <t>rt @karpmj: absolute masterclass by bernie sanders on fox news. there is just no one else in america—no one—who can talk across party lines…</t>
   </si>
   <si>
-    <t>rt @populational: @weidnerdianna @iiimagineiii @joycewhitevance yeah, don’t hand over your absentee ballot to a harvester, ever. take it to…</t>
-  </si>
-  <si>
-    <t>rt @ipm_hq: millennials' experience with the political system has been as follows:
-• blatantly stolen election
-• rapid descent into open f…</t>
-  </si>
-  <si>
-    <t>we're proud to endorse @coreywoodstempe for tempe mayor! make sure to vote today - election day - tuesday, march 10! #localelectionsmatter #vote2020 https://t.co/v1q7gjhbsy</t>
+    <t>rt @truthtemptress: https://t.co/r1hjb1l6qy
+a 2010 study shows voter fraud in usa was rampant
+but the same cheating tricks used in 2018 &amp;amp;…</t>
+  </si>
+  <si>
+    <t>rt @brianrhester: the @berniesanders campaign is doing a masterful job convincing any voter on the fence to get out and vote for @joebiden…</t>
+  </si>
+  <si>
+    <t>@tgradous @penn50w @chrissyclark_ @fdrlst democrats have to get the illegals across the border to vote in the 2020 election.
+🇺🇸 https://t.co/aswoizxeqs</t>
   </si>
   <si>
     <t>rt @judicialwatch: a judicial watch lawsuit forced the state of california to begin removing more than 1.5 million potentially invalid name…</t>
   </si>
   <si>
-    <t>rt @amoneyresists: trump’s impeachable offenses:
-#68.) trump met with putin at the g20 conference, and was asked if he will ask him not to…</t>
-  </si>
-  <si>
-    <t>rt @mspackyetti: fully publicly financed elections. everyone gets the same amount of $.
-a brief primary campaign.
-one national primary day.…</t>
-  </si>
-  <si>
-    <t>rt @brennancenter: paper ballots are one of the keys to fighting long lines on election day writes @larrynorden and @gramachandran03 for @l…</t>
-  </si>
-  <si>
-    <t>rt @jeffwagner13: @officialmcafee yeah. i have found an absolutely incredible that the media is so expert at predicting the future of the v…</t>
-  </si>
-  <si>
-    <t>@blythecreek @sarahkendzior @leonardcatten year trump will never, ever ever pull any quotes out of context in the run-up to the election. such a clean and classy fighter!</t>
-  </si>
-  <si>
-    <t>rt @dennispotvindem: holy real news, batman! 
-⁦@newsweek⁩ includes #tulsigabbard in its tuesday election analysis!!
-here's where biden, s…</t>
+    <t>rt @matthew_4_trump: to those accusing some of us on the right of dismissing covid-19 as a hoax, that's a lie.
+the virus is real.
+we just…</t>
+  </si>
+  <si>
+    <t>i'm not joe but civilization as we know it is at stake in this election. like i said i'm not like joe honest i'm not https://t.co/ftdbltn4h4</t>
+  </si>
+  <si>
+    <t>rt @spinepainbegone: the morning briefing: my wuhan joe biden election conspiracy theory https://t.co/gzjwz93esq #columns via @pjmedia_com</t>
+  </si>
+  <si>
+    <t>rt @idreamofreemy: how do we hold a fair election during a pandemic??</t>
+  </si>
+  <si>
+    <t>@officialmcafee #china and congress really, really wanted #hrc to win the 2016 election!! #americafirst @realdonaldtrump #qanon #voteredtosaveamerica 
+both are american culture, both do wonders for our mental, social, and physical health. elbow bump during flu season! #cdc #fda https://t.co/37czqdpds9</t>
+  </si>
+  <si>
+    <t>@peterwellings3 @scottories its all snp bad but most of us scots see right through it.
+nhs and tax scare stories you are seeing in press/bbc in england simply not true either that is why snp got over 80% of the seats last election. https://t.co/dl5jjaze2k</t>
+  </si>
+  <si>
+    <t>rt @santitaj: santita jackson show|@wcpt820 @talk927fm @newstalk1510am|m-f: 6-8ac/7-9ae|773.763.wcpt/9278|@youtube: santita jackson show|#f…</t>
   </si>
   <si>
     <t>rt @thedemcoalition: “our country is a great country. it can withstand one term of the current occupant of the white house. it cannot withs…</t>
   </si>
   <si>
-    <t>can't be more happy to say we made the right choice in the presidential election in 11 january 2020. if it wasn't you, i can hardly imagine how bad the wuhan virus will jeopardize taiwan. thank you so much for always 
-protecting your people    from danger. https://t.co/ubpoaoafcq https://t.co/prhegv2prv</t>
-  </si>
-  <si>
-    <t>u.s. heavy equipment makers, hurt by tariffs, vow to make them top election theme https://t.co/ndqr6kod49</t>
-  </si>
-  <si>
-    <t>rt @michsos: if you're not yet registered to vote and would like to participate in tuesday's presidential primary, it's not too late. michi…</t>
+    <t>serving as an election judge today. so far, we've had 4 votes. sure hope we see more, but this is trump country and i suspect many won't bother. #missouriprimary</t>
+  </si>
+  <si>
+    <t>rt @epochtimes: “voters denied filling out that form that would make that change.”
+a #florida woman is now facing charges after she allege…</t>
+  </si>
+  <si>
+    <t>rt @benjaminnorton: the oas falsely alleged irregularities in bolivia's october election and used this to justify a military coup against t…</t>
   </si>
   <si>
     <t>rt @adamgoldmannyt: russia trying to stoke u.s. racial tensions before election, officials say https://t.co/lerg5juw6h w/@julianbarnes</t>
   </si>
   <si>
-    <t>🇺🇸 u.s. heavy equipment makers, hurt by tariffs, vow to make them top election theme https://t.co/i1glnox5zg investingcom</t>
-  </si>
-  <si>
-    <t>hey bill de blasio.. hrc won with 3 million votes in the popular vote. she lost the electoral college vote by 77k in 3 states with probable but not proven election issues...</t>
-  </si>
-  <si>
-    <t>@joenbc you tell that stupid, stupid mayor, bill deblasio to keep his talking head to himself. he sure is angry that he did not do well in the debate. the guy won't make it the next election on new york.</t>
-  </si>
-  <si>
-    <t>rt @yourvokalnews: this is a testament to how badly @joebiden will perform in a general election against trump:
-i voted for @hillaryclinto…</t>
-  </si>
-  <si>
-    <t>.@wsyx6: ohio secretary of state frank larose addressing #coronavirus concerns ahead of election day https://t.co/vjxyhjrh8v</t>
+    <t>rt @jerseymes: no matter how this election ends, tulsi gabbard got the worst of it
+backing bernie in 2016 against the establishment earned…</t>
+  </si>
+  <si>
+    <t>rt @satex: @raynman123 none of that is funny. none of it.  trashing the bill of rights, trashing our election system....none of that, sir,…</t>
+  </si>
+  <si>
+    <t>the dems don’t have a candidate with a dynamic personality. two very old white guys... one with ❤️ issues and other with early onset dementia. i look to see @gavinnewsom to get a lot more national attention after @realdonaldtrump landslide election in 2020. https://t.co/gmjhozyapc</t>
+  </si>
+  <si>
+    <t>@akanesdeadgran the idea that russia is the reason why america hasn't taken action on climate change is nonsense. america acts as a much bigger oil dictatorship than russia ever will. election interference is an issue of class not cultish tribalism.</t>
   </si>
   <si>
     <t>rt @mojos55: election votes ? what votes ? total rigging !!!
 https://t.co/ah5yk9c4wh</t>
-  </si>
-  <si>
-    <t>@hagenilda @ucu makes a nice change for somebody to support to win an election!  congratulations.</t>
-  </si>
-  <si>
-    <t>rt @jbickertonuk: it seems corbyn's team refused to accept any interviews with robert peston, a jewish journalist, during the general elect…</t>
   </si>
   <si>
     <t>rt @nakli_chashmish: when bjp loses election, but amit shah still forms the government anyway.
@@ -1359,254 +1404,247 @@
 #scindi…</t>
   </si>
   <si>
+    <t>pelosi says civilization is at stake in this election? oh, right. she was looking in a mirror.</t>
+  </si>
+  <si>
+    <t>rt @briannawu: @rob_flaherty i’m not a supporter of your candidate. 
+but this is horrifying. it’s a train wreck, and it sure seems like he…</t>
+  </si>
+  <si>
     <t>rt @rachael_swindon: if only the voters had someone committed to ending privatisation to vote for at the last election.... 
 end privatisat…</t>
   </si>
   <si>
-    <t>rt @mtracey: bernie margin over biden in california has decreased to 7.0% -- was 7.3% yesterday, with still over 2 million votes yet to be…</t>
-  </si>
-  <si>
-    <t>rt @fordschool: the #michiganprimary is tomorrow! make sure your voice is heard. what's your plan to vote? #fordschoolvotes
-check out our…</t>
-  </si>
-  <si>
-    <t>@sbordelon48 @realdonaldtrump if you do, then you should know that the republicans will be wiped out in the next election</t>
-  </si>
-  <si>
-    <t>myanmar’s nld to pick general election candidates in late april  https://t.co/r1rsk4ydsh</t>
-  </si>
-  <si>
-    <t>“six taxpayer-funded grants were approved in the key marginal seat of longman through the department of social services in the month before the last federal election, including $177,000 for the bribie island and districts junior rugby league club.” https://t.co/iuosw4sja6</t>
-  </si>
-  <si>
-    <t>@donwill338 @snboyle @kdhcharley @ynb @malcolmnance if #coronavirus doesn't get him first, trump will suspend the election.</t>
-  </si>
-  <si>
-    <t>rt @donnajo30760751: @netteknows @realjameswoods @realdonaldtrump the dems will go beyond your imagination to cheat this election.  watch o…</t>
-  </si>
-  <si>
-    <t>rt @donnantwich: @johnnytyke @jonw101961 it's almost as if there wasn't an election recently that they lost on this very issue.</t>
-  </si>
-  <si>
-    <t>rt @bone_brake: guarantee somehow this weasel is going to sneak her way into the presidential election.  
-trump nation will kick her a$$ w…</t>
-  </si>
-  <si>
-    <t>@smarket less governance, after winning one (2019) election he plan for the next (2024).not for the people.</t>
-  </si>
-  <si>
-    <t>@brendan_noble love that republicans will run up the deficit to $2 trillion in an election year where their motto is "how will they pay for it?"</t>
-  </si>
-  <si>
-    <t>the migop election day hotline is live! if you see election fraud please call 866-677-5413.</t>
-  </si>
-  <si>
-    <t>hey louis chapman:
-you know as well as i do this is a primary election, not just a day where the country lets us know how they feel. 
-people don't have the facts about joe biden's cognitive condition at this time and you know it, yet you seem to not care. https://t.co/07kp7yxfvr</t>
-  </si>
-  <si>
-    <t>rt @somuchbullsh: “six taxpayer-funded grants were approved in the key marginal seat of longman through the department of social services i…</t>
-  </si>
-  <si>
-    <t>rt @ruffedge: just in time for election year.....
-.....how much you wanna bet that it will only be videos posted by the right that turn ou…</t>
-  </si>
-  <si>
-    <t>@anakasparian the hot take seems to be that it's sexist to prefer bernie's gr platform to warren's.
-the only sexism i see between them is warren's staff leaking a claim of sexism to win an election &amp;amp; warren playing along to it, like a banana peel he had the good sense not to step into.</t>
-  </si>
-  <si>
-    <t>starting to feel like voting for bernie is just a really good way to setup a bunch of brainwashed fools to throw the general election over so phony anti-dnc bs after sanders doesn’t get the nomination and i want no part of it</t>
-  </si>
-  <si>
-    <t>#cagop  requesting $ to keep fighting for election integrity. @tomfitton @judicialwatch @ingrahamangle @gopleader @devinnunes @marklevinshow @realdonaldtrump @seanhannity @judgejeanine 
-election integrity is a national issue, california is a model for dem cheating!</t>
-  </si>
-  <si>
-    <t>rt @fiorella_im: bernie dodged questions on two key issues he needs to address: 1) election integrity &amp;amp; joe biden’s mental health. i love b…</t>
-  </si>
-  <si>
-    <t>@organiccucumber @illmortaldeity @mtracey cdc week 9: p/i mortality is 6.9%
-true scope wont be known for decades after the 'noise' is dealt with international and local numbers.
-it may never be known. 
-be a best guess scenario, just like the spanish flu and  the other election time viruses that seems 2 happen.</t>
-  </si>
-  <si>
-    <t>how organizations, lawsuits are fighting voter suppression in texas-corpus christi caller times:https://t.co/atk51wjzpm</t>
-  </si>
-  <si>
-    <t>rt @marinagamba1909: @hannahyeoh don't worry, people aren't racist when in power  only racist when in opposition, kan hannah? you smacked u…</t>
-  </si>
-  <si>
-    <t>rt @christyforca25: reproductive choice is on the ballot in #ca25 in the 5/12 special election. my opponent is an extremist, opposing choic…</t>
-  </si>
-  <si>
-    <t>rt @fiorella_im: "our country is not a democracy at all. we have failed to provide fair elections and nobody is talking about this; not eve…</t>
+    <t>trump wants what is happening in italy to happen here.
+there is no doubt about it.
+trump made a statement saying he wants the numbers to go up.  (virus) to grow.  (people getting the virus)
+this will shut everything down  &amp;amp;  stop the election.</t>
+  </si>
+  <si>
+    <t>rt @legitngnews: i sold my house to run for governorship election.
+watch the full vid ---&amp;gt; https://t.co/ojln9xg3er https://t.co/4iq6hpccpi</t>
+  </si>
+  <si>
+    <t>@tulsigabbard https://t.co/qodhdyeyau calling out election fraud hoping you, @sensanders @ninaturner @cornelwest @fbi @thejusticedept are paying attention if we cannot get #equaljustice now trump will delegitimize joe in the general and win a landslide that will make mcgovern in 72 a victory</t>
+  </si>
+  <si>
+    <t>rt @majorformayor: honestly i should have raised well over $100k being the only republican running for mayor in a winnable election. there…</t>
+  </si>
+  <si>
+    <t>rt @iamfridayjones: michigan sits at the confluence of america's water crises. could it become a national election issue? https://t.co/4fib…</t>
+  </si>
+  <si>
+    <t>rt @patvpeters: bernie accuses trump of not 'believing in science' while ignoring scientific experts about coronavirus https://t.co/kv2h93i…</t>
+  </si>
+  <si>
+    <t>@tuckercarlson bird flu,sars,etc. every few years there is a new epidemic. now with the coronavirus the media has you think it is the start of the zombie apocalypse!  other than this is a election year,and trump is president,why the reason for the panic. oh, i think i answered my own question.</t>
+  </si>
+  <si>
+    <t>rt @gamerpres2020: gamers love to vote. we just need to focus that energy on the united states election and we can win. https://t.co/eacs5u…</t>
+  </si>
+  <si>
+    <t>sensible parties??!! 🤣🤣🤣 you're thinking that @uklabour who are taking 4 months to decide who will lead them to their next election defeat or @libdems who rarely make any decisions anyway are the sensible parties? 
+you're thinking they will help you re-join the eu? bless https://t.co/wy1yxttjnp</t>
+  </si>
+  <si>
+    <t>rt @thehill: sen. @corybooker: "this election is not about right or left -- it's about right or wrong." https://t.co/xagydk3hpi</t>
+  </si>
+  <si>
+    <t>rt @tombstone1954: finland's economy collapses trying to provide free healthcare to everyone. @berniesanders ?
+https://t.co/cupwwixjou</t>
+  </si>
+  <si>
+    <t>rt @dragonogon: each time an election comes along at least 1 person in the school votes for my fucking law/history teacher to be the fuckin…</t>
+  </si>
+  <si>
+    <t>rt @senhorraposa: people of oklahoma: go out and vote today in an election that does not exist.</t>
+  </si>
+  <si>
+    <t>@speakerpelosi have you been checked for dementia lately?  you lose your train of thought more than mr biden and comments like civilization is at stake in the election is beyond bizarre.</t>
+  </si>
+  <si>
+    <t>joe biden: bewitched, bothered, and befuddled https://t.co/0fosehobqo #election2020 via @pjmedia_com</t>
+  </si>
+  <si>
+    <t>@gomsubuttboy69 here’s a fun fact, every year is an election year</t>
+  </si>
+  <si>
+    <t>honest to god, he is so stupid. he got by on being willing to do anything corrupt to make his superiors big money, and on his looks which have withered. never had a brain. now it's mush. and he's supposed to beat trump without election fraud? https://t.co/sga4uh4v0y</t>
+  </si>
+  <si>
+    <t>“world’s best “at grifting. they even stole an election and got away with it! that’s some dedication to the art of crookedness, even i have to concede that. #auspolsocorrupt ‘if only they used their powers for good, instead of evil’..always an opportunity for a ‘get smart’ line! https://t.co/kntm8fptcl</t>
+  </si>
+  <si>
+    <t>rt @silveradie: trump’s incompetence
+will costs us lives
+stupidity is fatal
+moron is not wise
+a pandemic response team
+was fired by dumb…</t>
+  </si>
+  <si>
+    <t>first breadtuber to remake it's free real estate but about american politics wins this election cycle. gotta beat me to it though.</t>
   </si>
   <si>
     <t>rt @redsteeze: twitter is attempting to manipulate the election. my latest at @spectatorusa 
 https://t.co/cs6n4uc3ty</t>
   </si>
   <si>
-    <t>rt @carwilbj: if you're even considering #warrentobiden, here are five reasons to vote for bernie today:
-more lives are on the line in the…</t>
+    <t>@cturbanzz do you think this virus would have gone viral if drumph wasn't president?
+why do you think this started right now, instead of after the election? or years ago!?
+the chrono-virus is anti-trump.
+even worse it's a socialist! it wants everyone to have access to it! https://t.co/iawy4q6zk2</t>
   </si>
   <si>
     <t>rt @dudeofpoland: here is @krajewskasylwia polish local authorities/politician, supporting @platforma_org and @kidawa2020 in presidential e…</t>
   </si>
   <si>
-    <t>excited and impressed to see @rblumenstein's byline on the front page of my (print) copy of @nytimes today. she's one of the most powerful people in journalism today, yet remains a compassionate writer and an inspiration to all editors.  https://t.co/zgzjftmuot</t>
-  </si>
-  <si>
-    <t>rt @anasalhajji: a friend said: this tweet might cost him texas on election day.</t>
-  </si>
-  <si>
-    <t>rt @sameenaerana: i can vouch for the credibility of afghan election commission but our election commission is biased and ik is selected -…</t>
-  </si>
-  <si>
-    <t>@danielspadafore it would come off as presumptuous but if either one of them announced a desirable vp pick it could sway the election. because as old as they both are i feel like i’m choosing one candidate for three years &amp;amp; their vp for the final year.</t>
-  </si>
-  <si>
-    <t>rt @mortensoen: south korea had a nice plan: we'll lobby china for a xi state visit before april, put the whole thaad thing behind us, get…</t>
-  </si>
-  <si>
-    <t>@hawk954 it's an odd feeling to have people agree with me. also, i think i may run for president next election</t>
-  </si>
-  <si>
-    <t>it great to see that fine gael are fucking up the response to covid-19 so badly that if there’s another election they’ll do even worse next time.</t>
-  </si>
-  <si>
-    <t>rt @catpurry9: the lnp would have seen a gfc coming. maybe they thought the alp would be back in power at the last election &amp;amp; that's why th…</t>
-  </si>
-  <si>
-    <t>@claudiamcmo please convey to us that our goal is always universal suffrage, we sincerely hope us could endorse #2020hkuniversalsuffrage as per #hkhrda and sanction hk hard if there was still functional constituency in 2020 legislative council election.
-#abolishfunctionalconstituency https://t.co/gjze3tn9ex</t>
-  </si>
-  <si>
-    <t>rt @itz_ripley: since the presidential election always happens on a leap year nowadays anyway why don't we just make february 29th national…</t>
-  </si>
-  <si>
-    <t>@timesnow @vishalvsharma01 pappu is the culprit behind this exit. he conveniently milked scindia during mp assembly election campaign. but after the win, he sidelined scindia in favour of parivarvad darbaris bhrastanath &amp;amp; diggy baba. even mpcc chief wasn't offered to once his buddy scindia.</t>
-  </si>
-  <si>
-    <t>@seagullrm @ellymelly @unenergy @skynewsaust ask palmer he preferenced liberals remember lol
-https://t.co/7uybtv0vwf</t>
-  </si>
-  <si>
-    <t>@amanda_bril does she get to become an american citizen when the divorce is final? another saga during an election year. i wonder what will be next.</t>
-  </si>
-  <si>
-    <t>russia trying to stoke u.s. racial tensions before election, officials say https://t.co/trdi9jetxl</t>
-  </si>
-  <si>
-    <t>and @berniesanders as though either want us to be worse off under them than trump. 
-and now @gavinnewsom praised trump for #covid2019 ? why? it’s an election year.</t>
+    <t>with a pandemic barreling down toward nyc during a chaotic election year, i obviously opted to write about my dog. you’re welcome? https://t.co/m2nxdt5ket</t>
+  </si>
+  <si>
+    <t>it’s election day in michigan. polls are open until 8 pm.  remember your rights going to the polls, and do your civic duty! https://t.co/h7v2opsohr</t>
+  </si>
+  <si>
+    <t>@theangiestanton if only all felons could turn their lives around the way you have!! hope you the best in the election!  time for a change</t>
+  </si>
+  <si>
+    <t>rt @anzu_is_online: it is a very real possibility that the 2020 presidential election will be between two billionaires who've raped the exa…</t>
+  </si>
+  <si>
+    <t>@j9largo @carriejorg @cmclymer again, standard operating procedure in any election, when it becomes clear a candidate doesn’t have a reasonable chance. that’s especially true if the race is close. you can pretend that isn’t what people do, but that’s not true. 🤷🏼‍♀️</t>
+  </si>
+  <si>
+    <t>@kneerecon deblasio also said biden would veto m4a.
+not the complete statement.
+“i would veto anything that delays providing the security and the certainty of health care being available now,” biden said.
+https://t.co/a3yb17mgpk via @mediaite</t>
+  </si>
+  <si>
+    <t>rt @ritaadubablog: this is deep and true:
+ibikunle amosun was the first to start this 2023 scheming. he started even before the 2019 gener…</t>
+  </si>
+  <si>
+    <t>@milesnored @jmilescoleman correct. thus far, the "post election day vote" has been 76-24% democratic, but figured it wouldn't hurt to give a "first quarter" score on primary turnout that we know of so far.</t>
+  </si>
+  <si>
+    <t>@drjillstein i see you are back again to destroy another election. get back to your patients and leave the politicians alone. no one will listen you  this time.</t>
+  </si>
+  <si>
+    <t>rt @_waynelaw: today is michigan's primary election! polls are open until 8 p.m. find your polling place and view a sample ballot ➡️ https:…</t>
+  </si>
+  <si>
+    <t>@adambandt @james94639147 can we find somewhere to isolate adam the fuckwit until 2022 and only let him out just before the election? so the people of melbourne can show him the door.</t>
   </si>
   <si>
     <t>rt @seanhannity: @realdonaldtrump to bloomberg: "one thing this whole thing has shown is that you can't buy an election... sometimes you ju…</t>
   </si>
   <si>
-    <t>@drjillstein @realdonaldtrump jill, if you're not a russian asset, please stfu and let us get rid of trump before your help foul up another election. take a long break!</t>
-  </si>
-  <si>
-    <t>rt @detroitnews: polls are now open! 
-🗳️ here's what you need to know about voting in the #michiganprimary. https://t.co/olvmjifmhv</t>
-  </si>
-  <si>
-    <t>running for president in the next election: https://t.co/miv89qiofb</t>
-  </si>
-  <si>
-    <t>@ravigsingh81 @sharadsharma1 kya election firr karna possible haii?</t>
-  </si>
-  <si>
-    <t>rt @clivegeorgehil1: @randombigbird despite his total lack of democratic election success, he’s still pontificating as if he is the ‘master…</t>
-  </si>
-  <si>
-    <t>premier @fordnation the fix for #tarion is very simple. just listen to the people affected who know first hand what the root causes are. you just have to want it!                  
-election june 2,2022 - 814 days or 20,000 hours! https://t.co/g5octum0uo</t>
-  </si>
-  <si>
-    <t>rt @jscott1145: @emmavigeland 2016 silence 2020 silence standing rock silence believed the prior election was rigged silence.</t>
-  </si>
-  <si>
-    <t>looks professional @@
-https://t.co/ptvgl2cfhm
-#uselections2020 #trump #chinajoe</t>
-  </si>
-  <si>
-    <t>rt @ionsancho1: she was illegally changing dems and  indies to republicans. this happened in the 2004 florida election, affecting over 4000…</t>
-  </si>
-  <si>
-    <t>@coolman_kurt @villanicedric yes, from china 🇨🇳 , i wish everyone in france 🇫🇷 🇪🇺 good luck for the upcoming election which the government has refused to postpone despite the fact it can only worsen the current ongoing #covidー19 outbreak
-i wish villani, who i support, would stand out and do the right thing https://t.co/mmxc17lnhs</t>
-  </si>
-  <si>
-    <t>rt @rudravs: abhi dekte raho. dusht chandeachud as cji orders  in 2024. it is not democracy that party with 403 seats should be invited. a…</t>
-  </si>
-  <si>
-    <t>@gauravpandhi @atiyaz what about ashok gehlot in rajasthan??? he won election for congress and that's why the cm?? if that is the case why rahul gandhi posted picture with a caption "patience". why ur kind words for him when he left party...</t>
+    <t>rt @daddyhope: what we have seen at zacc with elites packing the organisation with their relatives &amp;amp; friends happens in all key institution…</t>
+  </si>
+  <si>
+    <t>rt @blkperspectives: also today on @blkperspectives, moses bhagwan and eusi kwayana offer, “ whoever wins this election, all of guyana lose…</t>
+  </si>
+  <si>
+    <t>@gill_godwin he was that creepy,shrill presence from the last election, does he just come out at night? #rebelyell</t>
+  </si>
+  <si>
+    <t>the russian government is trying to provoke racial violence in the u.s. to create a feeling of chaos ahead of the presidential election, according to a report
+https://t.co/ubf4bx2sbn</t>
+  </si>
+  <si>
+    <t>@sweetjustice y'all fall for all kinda divisive shit. this is how the russians managed to get #45 in office. here you go falling for it again. last election, a lot of bernie voters voted for #45. the party needs to remain united until the end if we want to save this country.</t>
+  </si>
+  <si>
+    <t>”so at the exact time when administration officials, state-level officials and the public needed the president to sound the alarm, trump: nothing to worry about. americans didn't need to protect themselves because he had it all under control.” https://t.co/gedxpyszjt</t>
+  </si>
+  <si>
+    <t>rt @standupamerica: .@ewarren is right.
+this sunday, @jaketapper @danabashcnn &amp;amp; @jorgeramosnews need to ask joe biden and bernie sanders h…</t>
+  </si>
+  <si>
+    <t>rt @mikekalinowski: this corona virus outbreak, has shown firsthand how terrible the trump administration is at handling a national crisis.…</t>
+  </si>
+  <si>
+    <t>@realjameswoods imagine her reaction if bernie gets cheated out of the nomination (again), or if trump beats him in the election...😭😭😭</t>
+  </si>
+  <si>
+    <t>rt @equan_malik: @vinaydokania 18 yrs in politics
+mp for 17 year
+union minister for 10 years
+no mp for last 1 year cz  lost the election
+no…</t>
+  </si>
+  <si>
+    <t>@jenmaines @therightmelissa @alx @realdonaldtrump @trish_regan sigh. it's about people hyping the scare of naturally occurring events to destabilise, not a group furiously engineering viruses and releasing them every election cycle.</t>
+  </si>
+  <si>
+    <t>rt @united__uk: california: grandson of islamic terrorist wins democratic primary election?</t>
+  </si>
+  <si>
+    <t>@shaggydemiurge @pinkfluffydrag2 @zeezeemoomoo here in the philippines the government has decided to take the "voter registration ends a year before the actual election" route of suppressing the youth vote</t>
+  </si>
+  <si>
+    <t>rt @avischarf: we tracked the location of everyone in our data down to 50 feet. did they go near the polling place or remain home? if they…</t>
   </si>
   <si>
     <t>rt @cioccolanti: today coronavirus was blamed for stock market drop. 
 the poor thing doesn’t even know what shares are &amp;amp; what it’s got to…</t>
   </si>
   <si>
-    <t>@ave_phil @darealveggieman this is the easiest election campaign ever yet i think they’re going to screw it up</t>
-  </si>
-  <si>
     <t>rt @brianstelter: "president donald trump seems to be experiencing a different coronavirus crisis than the rest of the country. and his per…</t>
   </si>
   <si>
-    <t>@realjameswoods @bkaysac agree, then why have an election in the first place? either it’s fair or no election at all.</t>
+    <t>rt @redstate: first came huge super tuesday turnout for trump, now his fox town hall is most watched election town hall in cable news histo…</t>
   </si>
   <si>
     <t>rt @thehorrorguru: important message for michigan voters:
 if you already voted for a candidate who dropped out you can retrieve and replac…</t>
   </si>
   <si>
-    <t>@jillmartin0 i'm currently a bernie supporter. i have no time for this demexit nonsense. do they really think that there is a chance in hell that any progressive policy will be passed if trump is re-elected? this election is bigger than a single candidate. it's about the future of our country</t>
-  </si>
-  <si>
     <t>rt @armandondk: biden is well positioned right now. he’s accepted, trusted and liked and can make the election a referendum on trump. i hav…</t>
   </si>
   <si>
-    <t>@realjameswoods when the democrats ask a republican, “will you accept the results of the election?”, you know they are cheating.</t>
-  </si>
-  <si>
-    <t>rt @peterstefanovi2: it’s a simple fact that we, the taxpayers, paid for the report into russian interference in uk politics suppressed by…</t>
-  </si>
-  <si>
-    <t>@richardburgon by the time of the next election bozo &amp;amp; brexit will be exposed as utter disasters for britain. and there's yet another capitalist depression on its way. meantime, labour must keep a full record of ensuing horrors and ensure they are repeatedly listed at the next election.</t>
-  </si>
-  <si>
-    <t>news on iran pursuing nuclear weapons, china’s espionage against the u.s., germany’s increased demand for weapons, israel’s latest election, europe’s changing view of migrants, putin’s plans for russia’s constitution and federal reserve rate cuts.
-https://t.co/8myh60ekc6</t>
-  </si>
-  <si>
-    <t>@idontmind64 @gary_d_carter @dpjhodges i don't think any serious analysts has described his time as mayor as a disaster of even a time that went badly. in fact many found it curious he wasn''t making a greater play on it in the election campaign. if his time as mayor had been quote "a disaster" he wouldn't have won a</t>
-  </si>
-  <si>
-    <t>rt @ricci_sergienko: if joe wins the general election then he’s going to be facing years of civil disobedience in response to his climate p…</t>
+    <t>rt @akilahobviously: when i said months ago it was a risk having elderly heads of government everyone said "boo you're being ageist" and no…</t>
+  </si>
+  <si>
+    <t>the premise any president would have an opportunity to veto medicare4all is pure fantasy land. in even the rosiest election scenario it lacks the votes in the house, much less the senate.
+medicare4all is an overton window idea currently unprepared to overcome lawmaking hurdles. https://t.co/lgl1rawf6j</t>
+  </si>
+  <si>
+    <t>rt @jacquiforbiden: @keenanls @brent_kellogg @actdontreact @morning_joe @petebuttigieg @bspence5 @sensanders i will dance like no one is wa…</t>
+  </si>
+  <si>
+    <t>rt @lakotawicasa: why i support sen. bernie sanders | jesse jackson - chicago sun-times https://t.co/yrqtjg0evw</t>
+  </si>
+  <si>
+    <t>aka st helens local plan delayed until after the election in the hope that labour won't take a battering https://t.co/jpz3bgqih3</t>
+  </si>
+  <si>
+    <t>if trump loses the us election in november all present geopolitical relations, alliances since 2017 will have to be reevaluated. there will be an end to us isolationism, unilateralism, exceptionalism and supremacist trump doctrine. https://t.co/zb1mb1rcuv</t>
+  </si>
+  <si>
+    <t>rt @mikefarb1: they have pretty much shut me down. terrible timing going into the election. freedom of speech? not so much. my followers dm…</t>
+  </si>
+  <si>
+    <t>looking at the stats, sure looks like another made for election crisis https://t.co/ggsf5z3wqy</t>
+  </si>
+  <si>
+    <t>@fihenderson2012 fiona, waverley's election team can look into this for you. call them on 01483 523116.</t>
+  </si>
+  <si>
+    <t>the day @officeofknath increased reservation limit, i wanted him to go. he came with the support of general category and killed their aspirations for politics. i wish you never win any election in future.</t>
+  </si>
+  <si>
+    <t>rt @centerofright: chidambaram cross-examined, refutes allegations of cash distribution in 2009 ls election - the case going on even after…</t>
+  </si>
+  <si>
+    <t>michigan sits at the confluence of america's water crises. could it become a national election issue? https://t.co/tiiib3qfph</t>
   </si>
   <si>
     <t>rt @rob13567: time to report jill stein for attempts to influence an election.</t>
   </si>
   <si>
-    <t>he managed to hack into an imitation florida state voting website and change the results of the “election” in fewer than 10 minutes.
-https://t.co/jpksc1ckeo</t>
-  </si>
-  <si>
-    <t>it’s interesting how @bbc5live &amp;amp; @emmabarnett don’t believe #china on #hongkong ..treatment of chinese muslims,huawei,election engineering,treatment of own people etc etc,but they do believe them when it comes to the story that this is not a bio weapon that escaped from wuhan lab</t>
-  </si>
-  <si>
-    <t>rt @trey_vondinkis: . 
-✅ election watch - 
- -- cnn poll / trump voters top dems by 15 pts in enthusiasm
-trump voters top democrats by 15 p…</t>
-  </si>
-  <si>
-    <t>rt @realerincruz: if you don’t know much about radical ruiz, read up. he votes 95% with pelosi, schiff, and waters... i am up against him i…</t>
+    <t>russia stoking black extremist violence ahead of u.s. election, says report https://t.co/lmolpzkqaj via @thedailybeast</t>
   </si>
   <si>
     <t>rt @amymcgrathky: mitch mcconnell is banking on help from special interests to get elected in november. i’m counting on you.
@@ -1616,7 +1654,16 @@
     <t>rt @realjameswoods: hillary will attach to biden like the face-hugger in alien. she’ll be president in a month after the election. the best…</t>
   </si>
   <si>
-    <t>@johnrentoul @portraitinflesh so did numerous others who had failed to take into account the changed leadership election rules and thought he'd never win. khan's by no means perfect but you can't realistically describe him as a corbynite.</t>
+    <t>election commissiin announced, foreign dignatories and even @imrankhanpti congratulated @ashrafghani and @pashtuntm_offi attented the ceremony. when you will question pakistan support to terrorist organizations? we respect @drabdullahce but not as a president. https://t.co/s7g1yvwkk0</t>
+  </si>
+  <si>
+    <t>watchdog warns of election security issues this year, chides federal agency https://t.co/q3ovkobvkq</t>
+  </si>
+  <si>
+    <t>it rains every election day. every. election. day. it's ominous, i tell ya...</t>
+  </si>
+  <si>
+    <t>rt @moaflcio: you have the right to vote. if anyone tries to stop you, call the election protection hotline at 1-866-687-8683. polls are op…</t>
   </si>
   <si>
     <t>rt @buntyshelke_inc: he joined politics in 2002
@@ -1625,186 +1672,180 @@
 since 6 years…</t>
   </si>
   <si>
-    <t>does anyone know if i'll be able to nominate a proxy vote for the mayoral election given i'm a) travelling and b) have no fixed address in london anymore?
-i'm still in essence a londoner, but i'm not sure how far essence goes.</t>
-  </si>
-  <si>
-    <t>how joe biden is cutting down on gaffes on the campaign trail https://t.co/cyqcwl7pkk</t>
-  </si>
-  <si>
-    <t>rt @jocelynbenson: attention michigan voters!
-if you’ve already returned your absentee ballot in the upcoming primary election scheduled f…</t>
-  </si>
-  <si>
     <t>rt @guycecil: .@prioritiesusa won’t let trump &amp;amp; his allies define the general election or spread lies without a response. as the primary co…</t>
   </si>
   <si>
-    <t>rt @willmenaker: the staff writers and editors of vox dot com have worked hard this election, and made some tough compromises along the way…</t>
-  </si>
-  <si>
-    <t>@drdanmo michigan moved to no-excuse-needed absentee ballots. they mail them automatically for every election if you want. uptake has been huge. highly recommend!</t>
+    <t>goodluck sa election tomorrow! woaah!</t>
+  </si>
+  <si>
+    <t>hysterical nancy pelosi now ranting that “‘civilization as we know it is at stake’ in 2020 election” https://t.co/rxu43nqbb5</t>
   </si>
   <si>
     <t>rt @larrysabato: welcome to not-quite-so-super-as-supertuesday-tuesday. also known as 3m election day (mi, mo, ms) plus  id, nd, wa. #prima…</t>
   </si>
   <si>
-    <t>just a reminder that during every election year, the world seems to have some sort of “outbreak” virus that turns into a pandemic disease. 
-it’s literally a viral stage 1 pneumonia that’s being hyped as the black plague before an election.</t>
-  </si>
-  <si>
-    <t>@pinkfluffydrag2 @zeezeemoomoo even here in russia voting is like ten minutes tops. we use more direct methods of election fraud instead of wasting voter time with suppression ._.</t>
-  </si>
-  <si>
-    <t>rt @meghanh53303999: @brooklynnygirl @joebiden no please don’t,
-democrats must be completely united in this election,
-otherwise we face the…</t>
-  </si>
-  <si>
-    <t>rt @ryanstruyk: if your candidate is not the nominee, who would you support in the general election via quinnipiac poll:
-biden supporters:…</t>
-  </si>
-  <si>
-    <t>rt @pallavict: @vikramchandra finally, the truth from ndtv 
-yes, congis can write a book on how not to run a party 
-they still got 13 cro…</t>
-  </si>
-  <si>
-    <t>@cmagnificent90 @free2b_rbg @musclebestbrook @mr_wright_05 @jengranholm @joebiden you think trump won’t unleash bernies 40 years of unwise comments into a red scare? biden is already vetted in a general election. bernie has never faced the full fury of the republicans.</t>
-  </si>
-  <si>
-    <t>@rzrwiresunrise @chrismurphyct in all honesty though, this is one of the few things he said before the election that he’d do. however stupid it is, he was elected to do it.</t>
-  </si>
-  <si>
-    <t>rt @trey_vondinkis: . 
-✅ election watch - 
- -- dnc club props up biden w/ promises of admin positions
-why did everyone drop &amp;amp; side w/ pedo…</t>
-  </si>
-  <si>
-    <t>vote before work! today is michigan's primary. 🗳️ polls are open until 8 p.m.
-20 questions you might have: https://t.co/2wa0wojwob @ boston logan international airport https://t.co/u0cm0he93s</t>
-  </si>
-  <si>
-    <t>@realdonaldtrump we all know your main concern is having a healthy economy during an election year.</t>
+    <t>rt @john_kissmybot: hello to a trump re election!!! cnn hates to report that trumps voter enthusiasm in re electing trump is 15 points over…</t>
+  </si>
+  <si>
+    <t>the morning briefing: my wuhan joe biden election conspiracy theory https://t.co/bjvco0ecy0 #columns via @pjmedia_com</t>
+  </si>
+  <si>
+    <t>rt @mandarsawant184: this was destined to happen day kamal nath was made cm, despite scindia playing a big role in the win.
+contrast with…</t>
+  </si>
+  <si>
+    <t>rt @eclecticbrotha: if you would've paid attention in math class you would've already known it was political malpractice to spend 5 years c…</t>
   </si>
   <si>
     <t>rt @michaelharriot: before this election, there probably hasn’t been this many white people telling black people what’s best for black peop…</t>
   </si>
   <si>
-    <t>2020 michigan presidential primary election: 125 delegates are up for grabs, making michigan the biggest prize for presidential candidates today.  polls opened at 7 a.m.  if you didn’t register yet, you’re in luck! michigan offers same-day voter registration. https://t.co/ceyfryggei</t>
-  </si>
-  <si>
-    <t>@boobyjargon @izamoranol_ @natesilver538 if you can't get enough people to vote for your guy in the primary, how in the world would you get enough to win a general election?</t>
-  </si>
-  <si>
-    <t>@samseder @lodgepolepines on rising... warren’s team says she won’t endorse because bernie campaigned in ma... in a primary election where the goal is to accumulate as many delegates as possible and superdelegates have publicly threatened revolt if bernie wins.</t>
-  </si>
-  <si>
-    <t>@jethawk5 no one should trust us election results. our elections are ranked lowest in the developed world, and the electronic voting we use is banned in many countries due to the ease of hacking.
-https://t.co/cj9yw7eof8</t>
-  </si>
-  <si>
-    <t>@nytimes no it's just the msm using this virus as a political tool against pres trump during an election yr</t>
-  </si>
-  <si>
-    <t>rt @sturdyalex: my self-imposed purdah having come to an end, now that most people have voted, i explain how i voted in the #labourleader e…</t>
-  </si>
-  <si>
-    <t>rt @ktforbiden: our revolution appears to be skirting campaign finance law, which forbids groups founded by federal candidates and officeho…</t>
-  </si>
-  <si>
-    <t>@ambassadekaboul it is so sad that even france also supports #voterfraud. we were still thinking that france stayed impartial.
-ghani is not our president. the world cannot deny widespread fraud.
-does people also vote in france after the election day? and is that valid?
-u killed democracy😥</t>
-  </si>
-  <si>
-    <t>rt @nicholsuprising: strategic voting is well understood in other countries. not so well here. the premise is that you vote for a candidate…</t>
-  </si>
-  <si>
-    <t>noam chomsky: democratic party centrism risks handing election to trump https://t.co/qx3zypqdsd via @truthout</t>
-  </si>
-  <si>
-    <t>rt @nytnational: “we’re telling all of the people who handle incoming ballots to use gloves." washington state, a center of the virus outbr…</t>
-  </si>
-  <si>
-    <t>@kmutisi this is zanu pf property though , wait until election period commuters will be stranded while zanu use buses to campaign.</t>
-  </si>
-  <si>
-    <t>kudos to lee camp for staying with the subject of election rigging. it is clearly happening, fueled by utterly unacceptable &amp;amp; criminal establishment corruption that large numbers of citizens don't want to see for what it reveals about their own oppression. https://t.co/ya0f4oihji</t>
-  </si>
-  <si>
-    <t>@princeofpants election year?</t>
-  </si>
-  <si>
-    <t>would be truly impressive is the libdems went from coming 1st across the last london wide election and then getting 4% and coming 5th a year later. https://t.co/jfttn6psws</t>
-  </si>
-  <si>
-    <t>rt @lukelbarr: "go to the polls," @jayashcroftmo told us as election officials deal with the coronavirus. more on what the other states tol…</t>
-  </si>
-  <si>
-    <t>rt @comradestars: liberals somehow have forgotten the key lesson of 2016, which was that the gop does not abide by the rules set by the civ…</t>
-  </si>
-  <si>
-    <t>#icymi: “this is the worst kind of misinformation — it can impact a presidential election, and it’s being shared by the president with millions of followers,” said @jmgrygiel, a @newhousesu communications professor who studies disinformation and #socialmedia. #elections2020 https://t.co/dkjyasgodn</t>
+    <t>rt @prosperous1776: @ryanafournier 
+remember, 2018 election ca “flipped” several seats post- election with “recounts”.
+in other words, “f…</t>
+  </si>
+  <si>
+    <t>rt @greg_palast: #biden supporter california secretary of state, #alexpadilla, wins “vote suppressor of the year.”  by sheer numbers of bal…</t>
+  </si>
+  <si>
+    <t>everyone should read this before the election. trumputin, as usual, did the exact opposite of what scientists recommended. he destroyed the very structure that was in place to fight this type of outbreak. and for what? tax cuts for the wealthy? or just plain spite? https://t.co/645juqgxru</t>
+  </si>
+  <si>
+    <t>rt @justplainanon: @pattyangel64 @koigi3 disagree whole heartedly. hillary is toxic. that is the narrative to distract from the reality...…</t>
+  </si>
+  <si>
+    <t>rt @reedgalen: .@corygardner is unavailable for comment. he’s self-quarantined until the election is over. #cosen</t>
+  </si>
+  <si>
+    <t>@leftistbitch666 @houndsofearth @thomasisonline great! and i'll stick to what i said. i will gladly vote for biden over trump this november. meanwhile you woke "leftists" will sit out another election and then come online everyday all angry at the system thinking tweeting and attacking democrats is some form of activism 😭</t>
+  </si>
+  <si>
+    <t>rt @rept_democracy: in slovakia’s recent election, igor matovic pulled off a populist, anti-establishment victory.
+but how will he define…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump well, if we learned anything from the 2016 election it's that polls aren't to be trusted ;)</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>rt @brennancenter: after super tuesday in california and texas, we need more and smarter election preparation, says @myrna_perez_ . electio…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump trump win election</t>
+  </si>
+  <si>
+    <t>@ewarren the only crisis is you with your promises to save the country yet the people have shown they do not want you and now we in massachusetts will build a campaign to out you in the next senatorial election</t>
+  </si>
+  <si>
+    <t>he joined politics in 2002
+from 2002 to 2019- member of parliament
+from 2004 to 2014- central minister
+since 6 years-not minister
+since 1 year- not mp, bcz lost election.
+and supporter say 
+@incindia
+ haven't given anything to 
+@jm_scindia
+#सिंधिया_आ_थू
+#madhyapradeshcrisis</t>
+  </si>
+  <si>
+    <t>rt @gss_views: remember post 2014 resignation?
+aap only had 28 , bjp 32 ??
+still could not break aap mlas ?
+fresh election in 2015 after…</t>
+  </si>
+  <si>
+    <t>@anime_exp @relaxitisok @berniphile @ppollingnumbers @swayable thanks! i hope you’re this involved in your own country’s election</t>
+  </si>
+  <si>
+    <t>@drjillstein ah, here she is! reemerging right on schedule. your bs in 2016 helped trump win. mission accomplished, you scuttled back in your spider hole and waited until the next election to start the same shit all over again. 
+wherever you go in between elections, stay there.</t>
+  </si>
+  <si>
+    <t>[3/10, 17:02] sekarreporter 1: dmk election case won by senior advt p willson sir judge v barathidasan
+[3/10, 17:02] sekarreporter 1: 🌱🎍 https://t.co/kbnoxmhmqr</t>
+  </si>
+  <si>
+    <t>everything you need to know to vote in michigan's 2020 primary https://t.co/sk9fdxvdsw</t>
+  </si>
+  <si>
+    <t>@_alexhorn @maristpoll dude we are talking about this election right now do you honestly think bernie sanders is going to be the best person to represent the party? he’s just going to divide us even more. he’s already dividing the dems. not what we need rn</t>
+  </si>
+  <si>
+    <t>it's election day! 🗳 polls are open in michigan until 8pm. 
+i'm repping flrt in support of the parks &amp;amp; trails millage renewal and looking forward to voting yes on @ridecata, @potterparkzoo, and the ingham county health services millage. please join me! 
+🌿🚌🦏💉 https://t.co/ky2fa0knkv</t>
   </si>
   <si>
     <t>rt @pnjaban: i joined @tuckercarlson tonight on @foxnews to discuss @facebook censorship of @realdonaldtrump's ads, and @twitter's selectiv…</t>
   </si>
   <si>
-    <t>rt @ravithinkz: ok. will give a treat for anyone who digs out a tweet from him of similar tone on ss-inc/ncp coming together within days of…</t>
-  </si>
-  <si>
-    <t>rt @politidope: this election would be a complete landslide if men could pull their heads out of their asses.</t>
-  </si>
-  <si>
-    <t>rt @neeratanden: supporters who are gaming our leverage or sitting out the general election if their nominee doesn’t win. thankfully they a…</t>
-  </si>
-  <si>
-    <t>rt @libanahmad1: ethiopia elections: first shot at real democracy could be derailed - the washington post https://t.co/p8igzr6gce</t>
-  </si>
-  <si>
-    <t>rt @conservalidity: desperate to remain in power. fascist crackpot @nancypelosi attacks trump, while inadvertently mumbling the danger amer…</t>
-  </si>
-  <si>
-    <t>rt @lisapease: please be smart, america.
-please vote for bernie sanders.
-every poll shows him beating trump. he's defeated republicans in…</t>
+    <t>rt @mvhaydencenter: acting intelligence chief will not brief lawmakers on election security despite expectation he was coming
+https://t.co/…</t>
+  </si>
+  <si>
+    <t>rt @nair_hena: @nair_jitin @ajitsinhjagirda @sinhapurna13 @prasunnagar @paperrose2k @tera_____baap @bharatwashi1 @nanibellary @swetamishraa…</t>
+  </si>
+  <si>
+    <t>rt @heathmayo: members of congress should say no to this giveaway. hotels, cruises, and airlines should have to price in this type of risk…</t>
+  </si>
+  <si>
+    <t>@fordprefect747 @firefoxx66 @blufoperations i think it’s still on in chicago. chicago. no one celebrates st patrick’s day like chicago. and it’s election day in illinois, god help us.</t>
+  </si>
+  <si>
+    <t>rt @nikocsfb: “tulsi gabbard has enemies in high places”
+still one of the best pieces of this election. @robletofire spilled aalllllllll t…</t>
+  </si>
+  <si>
+    <t>at a glance: tuesday's democratic presidential contests and state delegate counts https://t.co/2h5azmqm57 https://t.co/dunkrtitod</t>
+  </si>
+  <si>
+    <t>rt @nahlahiman: this howard election season is really going stupid, folk have free minks, popeyes and celeb endorsements?? no one is lettin…</t>
+  </si>
+  <si>
+    <t>muturi proposes scrapping of popular presidential vote, roots for party-based polls https://t.co/3k3oegvpyd</t>
   </si>
   <si>
     <t>rt @henrykraemer: in the us political system, the way for intraparty factions to assert power is by competing in and winning primaries.
 st…</t>
   </si>
   <si>
-    <t>@bremaininspain @scramnews they had that no-mark michael heaver on sky a few days ago, telling us what "we" are doing. 
-when will these people understand they won no seats at all in the last election and that, thanks to them, british meps no longer exist.</t>
+    <t>@realsammelton @ky4mm @kywhitney the problem is that @kywhitney doesn’t really care what the people of this state or even in his own area want. he doesn’t care that it will help. he cares who’s going to donate to him next election.</t>
   </si>
   <si>
     <t>rt @realdonaldtrump: we have now learned for sure that the democrats don’t want anything to do with crazy bernie. rigged? first @amyklobuch…</t>
   </si>
   <si>
-    <t>@dgodfathermoody forgive me but this is an election year and wouldn’t be the first time a sitting mayor outright lied to keep from upsetting any certain group of people that could potentially vote for him/her. i don’t think it’s fact, just saying.</t>
-  </si>
-  <si>
-    <t>rt @matthewjdowd: do republicans really want to make the november presidential election a referendum on mental acuity?</t>
-  </si>
-  <si>
-    <t>rt @ladymissazira: a vote of confidence in favour of pm muhyiddin yassin is still necessary for 18th may sitting to prove power legitimacy,…</t>
+    <t>rt @redsteeze: twitter also ignored several members of media &amp;amp; politicians saying trump called the corinavurus a hoax. he didn’t. no action…</t>
+  </si>
+  <si>
+    <t>south african court clears president of graft allegations https://t.co/wbcvz0c0q7</t>
+  </si>
+  <si>
+    <t>@corketss election 2020 leaders debate. they did a better job than most i’ve seen in real life. https://t.co/lhyx9wujyd</t>
+  </si>
+  <si>
+    <t>rt @simonubsdell: @weneedeu everything they are doing suggests they simply don't care about voters at the next election which does require…</t>
+  </si>
+  <si>
+    <t>@bspence5 …any election is about making the best choice out of those available. and given what we are up against…biden is the best option.</t>
+  </si>
+  <si>
+    <t>@ewarren fans: it was sexist for you not to vote &amp;amp; support her!
+also @ewarren fans: its sexist to expect her to support anyone!
+give me a break. she screwed this entire election up and now she's mocking the whole country and cashing checks. progessive? she was never. she's evil.</t>
+  </si>
+  <si>
+    <t>election day today in several states . if you have questions problems or need help finding your polling place call @866ourvote https://t.co/3mxfe6s6f8</t>
   </si>
   <si>
     <t>rt @richardburgon: with a socialist leader and a socialist manifesto we came close to winning in 2017. in 2019, with a socialist leader and…</t>
   </si>
   <si>
-    <t>@kylegriffin1 the biggest difference bet u and trump, is trump was elected president. and i no with 100% certainty that u stephen lynch, cant win mass in a presidential election. all u democrats and democrat supporters are destroying this nation. keep it up, your days a re numbered</t>
-  </si>
-  <si>
-    <t>rt @srajeshranjan: in view of the #covidー19 detected in india n guidelines issued by the govt. govt must look into the issue of collecting…</t>
-  </si>
-  <si>
-    <t>rt @saracarterdc: breaking news:
-@joebiden endorses donald j. trump for re-election. 
-#2020election is over!! 
-https://t.co/k6yysatdc9</t>
+    <t>@2lanterns @yossigestetner @thedemocrats they’ve done it in many election years.. 👇🏻 https://t.co/ek8jdkbv4k</t>
   </si>
   <si>
     <t>rt @teebiggs: listening to kamala harris makes me realize how destructive berners and hoteps have been to this election cycle. senator harr…</t>
@@ -1814,45 +1855,54 @@
 if you don’t think his obvious cogn…</t>
   </si>
   <si>
+    <t>people realize that there isn’t a mr. election man that runs elections right? in massachusetts there are 352 town clerks many unaffiliated with the dem party you think they all decided “hey let’s give biden a bit of extra vote” and went along with it? https://t.co/akc3wcd2ni</t>
+  </si>
+  <si>
     <t>rt @julianbarnes: new: intelligence agencies believe russia is again trying to stoke anger and this time maybe violence over racial divide…</t>
   </si>
   <si>
-    <t>benjamin fulford full report: us presidential election – era of light https://t.co/imbgkrpxwu</t>
-  </si>
-  <si>
-    <t>rt @sunandavashisht: rajmata of gwalior, vijay raje scindia was a key member of bjp when it was formed in 1980. before that she was part of…</t>
-  </si>
-  <si>
-    <t>rt @aalivesmatter: #retweet to @judicialwatch clearly our @dojph doesn’t give a damn! ukrainian lawmaker admits in recording that governmen…</t>
-  </si>
-  <si>
-    <t>rt @tbpinvictus: the $spx is now up &amp;lt;29% since election day (the more favorable day to trump), and we've given up some 2+ years of gains, b…</t>
-  </si>
-  <si>
-    <t>@preetbharara this is exactly what i said when he won the election: “the greatest con ever perpetratedon the american people.”</t>
-  </si>
-  <si>
-    <t>2. because i do not take this decision lightly, thus, i have decided to endorse @joebiden as our presidential nominee for our general election.</t>
-  </si>
-  <si>
-    <t>rt @mehmetefe_caman: mayor of diyarbakir province, mr. mizrakli, removed arbitrarily from his post after winning the communal election &amp;amp; wa…</t>
-  </si>
-  <si>
-    <t>rt @jennycohn1: this piece misleadingly implies that la’s system is “secure” bc the voting machines  (bmds) don’t connect to the internet,…</t>
-  </si>
-  <si>
-    <t>@itcorbyn @tristan2021 @jeremycorbyn @mikecoulson48 @antonineone1 @hepworthclare @gletherby @celtjules66 @cooljayne @damelozza ....election defeat. they come back into the party over my dead body!!!"</t>
-  </si>
-  <si>
-    <t>boris johnson faces first tory revolt since the election in parliament tonight https://t.co/as2cesgvmk</t>
-  </si>
-  <si>
-    <t>@maxkennerly the russian election observers in georgia last year were there to see how it's really done.</t>
-  </si>
-  <si>
-    <t>vote. today! polls are open 7 am to 7 pm. 
-greenville online: the polls are open for the greenville county sheriff election
-https://t.co/oskh4wn5pk</t>
+    <t>belinda brown at speakers’ corner, international women’s day
+https://t.co/stiveoi8cj
+belinda brown’s speech at speakers’ corner has made a big impact on social media, an example (on twitter) here. it’s already had 22,400+ views. our last general election manifesto is here. our yo</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump my plan wins, it’s pinned to my twitter, write me in on general election day</t>
+  </si>
+  <si>
+    <t>🗳happy election day, &amp;amp; national pack your lunch day!🥪 be sure to vote today, anytime between 7 a.m. — 8 p.m.! if you experience any trouble at the polls, you know who to contact. https://t.co/weongzdxai</t>
+  </si>
+  <si>
+    <t>rt @seanhannity: nervous nancy: pelosi says ‘civilization as we know it at stake’ during 2020 election https://t.co/m24lpkaoom</t>
+  </si>
+  <si>
+    <t>nominations and election of local 2323 delegates to attend iamaw grand lodge convention -september 2020 
+https://t.co/2a0i8x8v9v
+#iamaw</t>
+  </si>
+  <si>
+    <t>rt @hucklebee_sarah: joe biden is already choosing cabinet picks?!
+hey, remember when hillary clinton was ready with fireworks for electio…</t>
+  </si>
+  <si>
+    <t>not another one! is there anything this excuse fir a government does not distort and abort into their own grubby interests? did anyone tell them they are paid to govern, not just to enrich themselves? https://t.co/r8aelwvu4p</t>
+  </si>
+  <si>
+    <t>she also reminds port huron voters that polling places have changed as of the 2018 election. https://t.co/qi9q5hen1j https://t.co/tzpfmp0u6b</t>
+  </si>
+  <si>
+    <t>rt @reppress: @cancel_sam this is awesome. i am going to put it into the video i'm making right now before the election. my focus is on how…</t>
+  </si>
+  <si>
+    <t>@rbreich @berniesanders @ewarren she’s the obvi sanders pick if he wants to win this election.🗳 for once after a bazillion times he’s ran for potus he can actually win.🤯 only thing stopping him from sweeping is not choosing #elizabethwarren bcz of ego. smart money is waiting for the #sanderswarren2020 ticket🙄</t>
+  </si>
+  <si>
+    <t>@repdancrenshaw how interesting every election year there has been an "outbreak" of some kind. clean your shared touch screens and wash your hands people. you have more cause to be worried about the flu, and other bugs. stop spreading panic it plays into their hands. https://t.co/o6nq6eiknd</t>
+  </si>
+  <si>
+    <t>rt @leftistadvocate: it's funny because every time i try to make my peace with maybe having to vote biden in the general election some fres…</t>
+  </si>
+  <si>
+    <t>rt @jaitdp: sri nara chandrababu naidu addressing the media about the election violations committed by ycp - live from ntr bhavan, amaravat…</t>
   </si>
   <si>
     <t>rt @drmartyfox: pelosi: this is a very important election, in my view, civilization is at stake
@@ -1860,88 +1910,90 @@
 people who support killing #b…</t>
   </si>
   <si>
-    <t>@can_do_people @vanessatsehaye what would be the terms? could eritreans agree on few principles - 
-1. implementation of constitution
-2. release / bring to court prisoners
-3. end to indefinite ns
-4. border demarcation
-5. re-surrection of nat. assembly
-6. conduct election
-7. multi - party system.....etc.</t>
-  </si>
-  <si>
-    <t>rt @bradleedean1: california totalitarianism: muslim socialist attorney to face off with communist nancy pelosi in general election https:/…</t>
-  </si>
-  <si>
-    <t>rt @gopredattack: ever wondered if the coronavirus is just the flu but with a different name just to cause panic? this is a political motiv…</t>
-  </si>
-  <si>
-    <t>rt @drkwarlord: in light of clear irregularities in voting results in the 2020 democratic presidential primaries.... the grayzone &amp;amp; codepin…</t>
-  </si>
-  <si>
-    <t>@billycoady @philipoconnor this is the war footing @emmetkirwan was talking about on election night.  it's happening again</t>
-  </si>
-  <si>
-    <t>#colombiareports uribe’s personal assistant resigns over colombia’s 2018 election fraud scandal https://t.co/spzfsvctuq #colombia</t>
-  </si>
-  <si>
-    <t>rt @simonmaginn: @we_ownit @labourlewis defending the indefensible. bbc is a dangerous juggernaut with tories at the wheel. bbc gave the el…</t>
-  </si>
-  <si>
-    <t>rt @proustmalone: rt if you are not voting for joe biden in a general election.</t>
+    <t>@piersmorgan @goldielocks1960 the comrades leadership contest - for both leader and deputy - demonstrates what a weak, woke and marxist organisation labour has become - thank goodness we did not vote them into power at the election.</t>
+  </si>
+  <si>
+    <t>rt @washtimes: 'odd' quirk raises delegate stakes in tuesday's elections https://t.co/dqp87oiu2g</t>
   </si>
   <si>
     <t>rt @jimmy_dore: it’s almost like the only way the democrats could lose this election would be to run a guy with obvious dementia https://t.…</t>
   </si>
   <si>
-    <t>rt @monica4congress: thank you for your vote this election season!  
-your voice was heard and we led the popular vote on march 3rd. we are…</t>
-  </si>
-  <si>
-    <t>hope says johnson is just 15 votes away from his first parliamentary defeat 
-of course christopher, to be accurate , and in an echo of churchill , before the general election johnson knew only defeat https://t.co/txe8gd7oke</t>
-  </si>
-  <si>
-    <t>corona virus. the us government ie trump is covering it up because he fear the news will mean trouble with the share tumbling massively and that mean he will lose the coming election. trump only care for himsel not other. and it shows by trump refusing to allow cruise ship to</t>
-  </si>
-  <si>
-    <t>@billdeblasio you are the worst mayor of new york there has ever been. the way you talk about joe biden is tasteless, unprofessional, and bias. you would never win another election in new york. that bill you can take  bank.</t>
-  </si>
-  <si>
-    <t>@daddyluka2 @blessingekpo12 it’s really sad, and the north hold most of the major political positions in nigeria yet they have 12 million kids on the street, and this number are the ones that could be counted. they keep them hungry and uneducated to easily use them for boko haram and false election numbers</t>
+    <t>rt @brianhtweed: very disappointed to hear this having just voted for her in the leadership election. she should serve her 5 years exclusio…</t>
+  </si>
+  <si>
+    <t>rt @dothinkin: why is it we seem to have a new possible pandemic every major election year here lately?</t>
+  </si>
+  <si>
+    <t>rt @mrtnyhands1: #putinspuppet russia trying to stoke u.s. racial tensions before election, officials say https://t.co/uibyy4htol #trumprus…</t>
+  </si>
+  <si>
+    <t>@garyelam11 @cspanwj yep.  this #independentvoter will certainly consider that...
+... in this fall’s election.
+deceit &amp;amp; lies, or healthcare.
+by the way, where’s #donnieboi’s health plan?  he’s been in power for #three #years</t>
+  </si>
+  <si>
+    <t>@dapmalaysia @kuasasiswa hang on a minute, your faction tried pulling backdoor manuevre in 2008. your faction did pull backdoor kajang manuevre. and you as an org gerrymandered your own exco election. and you are calling treachery when you have been quite treacherous yourself!
+#hypocrisy prevails in dap</t>
+  </si>
+  <si>
+    <t>@lebanesejokeryt i’m reporting your tweet for trying to be misleading in a political election.</t>
+  </si>
+  <si>
+    <t>“the officials said russia’s main goal is to create a sense of chaos ahead of the election, but some said that russia believes acts of racial violence could boost president donald trump’s re-election bid.” https://t.co/pt1mfuy3vq</t>
   </si>
   <si>
     <t>rt @muslims_4bernie: did you know that the #muslimvote can make or break this election? (we’re looking at you, michigan!) let’s win this fo…</t>
   </si>
   <si>
-    <t>rt @zainebhussein01: all hands on deck!!!  @jocelynbenson leading the sos team into the big 10 election day tournament ☑#vote #teambenson #…</t>
-  </si>
-  <si>
-    <t>the democratic establishment is going to make the same mistakes as the 2016 election. i’m calling it now.</t>
+    <t>congratulations to everyone! for doing such a great job, from the filling of coc up to the election proper. 
+to the newly elected officers we wish you all a goodluck for the s.y. 2020-2021 
+we hope to see you all in action in building bridges to the students! 🥰 https://t.co/pbrmvhh2hz</t>
+  </si>
+  <si>
+    <t>@mehkavelli is there anyway you can help me locate the interview i did with @cashcolorcanna a while back? i think it was the night stacey a lost the election.</t>
+  </si>
+  <si>
+    <t>rt @kungfuman316: well hoping him the best because when that betty and veronica scandal hits wide open there goes his chances at election.</t>
   </si>
   <si>
     <t>rt @cmclymer: yes, you're missing one very big point: winning the election, which takes a coalition, which means allying with folks with wh…</t>
   </si>
   <si>
-    <t>@abhishbanerj kamalnaath made sure scindia loses loksabha election. did not even allowed him as mp congress president</t>
-  </si>
-  <si>
-    <t>rt @patribotics: @geecheeinjersey @princekellylynn @blackwomenviews @whitehouse exactly. abrams has never even won any statewide election.…</t>
-  </si>
-  <si>
-    <t>1. good morning twitter family! after careful, thoughtful consideration, i have decided that this election is a monumental election and we have to bring on independent and republican moderates to vote in the general election and i believe one after last night and prayer,</t>
-  </si>
-  <si>
-    <t>rt @palmerreport: there’s like a seventy percent chance joe biden calls trump a “dickhead” before this election is over, and an eighty perc…</t>
-  </si>
-  <si>
-    <t>rt @thehill: joe biden is picking up support from union groups, with labor leaders eyeing the former vice president as key to winning back…</t>
-  </si>
-  <si>
-    <t>rt @markniesse: the state election board is challenging athens-clarke county’s decision to reject georgia’s new statewide voting system. th…</t>
-  </si>
-  <si>
-    <t>@hailstonehoward @offguardian0 like what though? we already have neoliberal economic, fake news media, election interference, obliteration of healthcare, big pharma and electronic spying on everyone. what more do you think they're prepping for?</t>
+    <t>senior campaign official says netanyahu's party tracked voters' phones on election day - https://t.co/cxgsmzqbc0 https://t.co/vaiowpvouc</t>
+  </si>
+  <si>
+    <t>youth vote: u.s. media polarization and the 2020 election: a nation divided https://t.co/sqci9rfn3p</t>
+  </si>
+  <si>
+    <t>@jillfilipovic have been saying this for weeks now. all voters need to know who it is we're *really* voting for in this election. kamala? i'm all in. tulsi or nina? fuck right off. we simply *cannot make an informed decision* without this information. #election2020</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump polls have both biden and sanders with comfortable leads in popular vote and enough to carry electoral college over trump in hypothetical general election, but it is early.</t>
+  </si>
+  <si>
+    <t>#posterforgabo #pfg #mnl48gabb with 7th single senbatsu general election title~ https://t.co/9zg9bcbbqx</t>
+  </si>
+  <si>
+    <t>the @berniesanders campaign is doing a masterful job convincing any voter on the fence to get out and vote for @joebiden to end this primary as it becomes more toxic and harmful for the party to win the general election.</t>
+  </si>
+  <si>
+    <t>rt @nerdjpg: anyway vote bernie or don’t vote and organize with socialists in your community regardless of election outcomes  :) have a goo…</t>
+  </si>
+  <si>
+    <t>rt @onlythruthose: hope yall are right. can we make lightning strike twice in michigan? bernie was 20 points down from hillary in polls pri…</t>
+  </si>
+  <si>
+    <t>@speakerpelosi claims civilization is at stake in the next election? wow! what is @dnc planning to do if they win that would destroy civilization?
+#trump2020nowmorethanever</t>
+  </si>
+  <si>
+    <t>russia stoking black extremist violence ahead of u.s. election, says report https://t.co/qs5ojanpyg via @thedailybeast</t>
+  </si>
+  <si>
+    <t>rt @thenationalswa: new leadership team for nationals wa
+the parliamentary national party has elected @shanelove_moore as its new deputy l…</t>
   </si>
   <si>
     <t>rt @freddiebailey96: november 2019:
@@ -1950,83 +2002,105 @@
 the tories won the electi…</t>
   </si>
   <si>
-    <t>rt @bernforbernie20: joe biden stated tonight, he never believed there were wmd which contradicts his original testimony.
-"these weapons m…</t>
+    <t>what business does a senator have with student election 😂😂 https://t.co/cfvttkhxcl</t>
   </si>
   <si>
     <t>rt @reshmidg: which of the 3 qualities does @prashantkishor possess that he says @jm_scindia does not? mass following? nope. political orga…</t>
   </si>
   <si>
-    <t>@mrmichaelbartz (because 2016), you pledge to support to whomever wins the dnc potato sack race - even if your vote today is not that dem - in nov election</t>
-  </si>
-  <si>
-    <t>#breakingnews
-#virus
-#coronavirus
-americans should take same precautions with #covid19
-as you do with ebola.
-especially since allegedly trump wanted to wait until after 2020 election to shut things down,he can't millions will be dead.
-3/10/20
-https://t.co/trnx6gisxo</t>
-  </si>
-  <si>
-    <t>rt @thedemcoalition: "trump may have finally made his unfitness for office so blatant that even his own supporters will notice."
-cc: #maga…</t>
-  </si>
-  <si>
-    <t>@zarahsultana @lktranslator the tories don't have the answer to the current crisis and labour do...that's brilliant news just a pity you lost the general election by a majority not seen in 84 years otherwise this would music to peoples ears https://t.co/2cmfnnipzz</t>
-  </si>
-  <si>
-    <t>@iskrensekogas @wallaceritchie @kellylaverne @vetthebern @hillaryclinton @time sanders did not outnumber her, and russia was proven to have interfered with the 2016 election to defeat her for trump. where do you get your news?</t>
+    <t>i find it interesting that this virus is being overhyped (when the medical community says the flu is worse) right before an election. is this overreaction a distraction? hmm.</t>
+  </si>
+  <si>
+    <t>rt @creepingsharia: california: grandson of islamic terrorist wins democratic primary election
+#democrat ammar campa-najjar referred to hi…</t>
+  </si>
+  <si>
+    <t>rt @revrrlewis: ainsley earhardt thinks jesse jackson ran for president in 1998, which was not even a presidential election year. https://t…</t>
+  </si>
+  <si>
+    <t>rt @davechensky: what’s hard for me to wrap my head around: in 2016, democrats were about 100,000 human decisions/votes away from a clinton…</t>
+  </si>
+  <si>
+    <t>russia trying to stoke u.s. racial tensions before election, officials say https://t.co/3hflfdlywo putin seeks to sow chaos</t>
+  </si>
+  <si>
+    <t>@theyangdynasty @ppollingnumbers @atlas_intel here is a copied link for the exit polls since my address is not working. 
+https://t.co/yp3img12yv</t>
   </si>
   <si>
     <t>rt @education4libs: president trump is going to win the election in a dominant fashion.
 and you can tell me not to get ahead of myself, bu…</t>
   </si>
   <si>
-    <t>rt @danieleharper: all of these people lost the general election, of course, except bill clinton, who was aided immensely by the presence o…</t>
+    <t>it's #michiganprimary day and the polls are open! 🗳️
+a few reminders:
+⬛️ the polls will be open until 8pm tonight!
+⬛️ if you have an absentee ballot, you need to get it to your clerk before close of polls! 
+⬛️ you can register while you're there! #govote
+https://t.co/onjafamwx1</t>
+  </si>
+  <si>
+    <t>@harpermitchell bernie should drop out when he's good and ready but i hope (if the polls for today's election are correct) it's sooner rather than later</t>
+  </si>
+  <si>
+    <t>rt @brianlian: oh please. i am fed up with the excuse of “giving this new government a chance” because in the first place, they quite liter…</t>
+  </si>
+  <si>
+    <t>imagine an overarching subversive power rigging the coming election to put up the only candidate worse than trump to award trump 4 more years bc he’s obediently implemented their agenda https://t.co/647tn7vjox</t>
   </si>
   <si>
     <t>rt @rl9631: i agree with james and this election will be the last nail to democrats coffin! we will prevail! 
 kag 2020🇺🇸 @realdonaldtrump h…</t>
   </si>
   <si>
-    <t>rt @belindajones68: @christel_ley morrison also took a swipe at labor, saying that we're better off with lnp being in govt at this time tha…</t>
-  </si>
-  <si>
-    <t>rt @cindysiegeltx7: tomorrow is the day we've been preparing for: the republican primary election! i hope to earn your support in our campa…</t>
-  </si>
-  <si>
-    <t>rt @kneerecon: it’s sad we’re hearing terms such as we have to “attack” our president re upcoming election. horrible and hopefully non last…</t>
+    <t>rt @reuters: at a glance: tuesday's democratic presidential contests and state delegate counts https://t.co/2h5azmqm57 https://t.co/dunkrti…</t>
+  </si>
+  <si>
+    <t>rt @erasestate: this election season, you'll constantly hear politicians saying they will "fight" for healthcare or housing or free college…</t>
+  </si>
+  <si>
+    <t>rt @katrina_wiser: coincidence?  
+soros warned davos guests that us economy was headed for a calamity ahead of the election 
+the #coronav…</t>
+  </si>
+  <si>
+    <t>rt @nilesgapol: there's no election in oklahoma today. trump supports in oklahoma are gonna be awfully confused when they show up to their…</t>
+  </si>
+  <si>
+    <t>what do 50-60+ year olds do, especially in #america? they vote! 2020 is an election year!</t>
   </si>
   <si>
     <t>rt @john_sipher: as we approach the 2020 election, we need to see russian activity as a national security threat - a danger to us all. view…</t>
   </si>
   <si>
+    <t>@humanistreport @kylekulinski 🍻here’s to a viable 3rd party for the 2024 election, &amp;amp; i don’t just mean candidate. i’m talking a fully funded &amp;amp; organized 3rd party to fight for future of this country.🍻
+the #dnc just doesn’t care like they used to.</t>
+  </si>
+  <si>
     <t>rt @clairecmc: up early to vote in the morning. then off to nyc to join my colleagues @msnbc  to do all the election coverage, beginning at…</t>
   </si>
   <si>
-    <t>this could recover quicker than expected, but then there's the business cycle to think about as well as the election. if unemployment stays low, wage growth steady, and inflation is muted, we could grind higher (with more vol. than prior to the coronavirus.)</t>
-  </si>
-  <si>
-    <t>rt @drboycewatkins1: shout out to charlamagne tha god for going on msnbc and making it clear that neither #joebiden nor #berniesanders has…</t>
-  </si>
-  <si>
-    <t>rt @thelastrefuge2: washington post outlines joe biden new strategy to win 2020 election: “hide”… https://t.co/uta7uhvpsv https://t.co/vkcf…</t>
-  </si>
-  <si>
-    <t>ashraf ghani could not win a free and fair election for chief street sweeper of kabul-he is a western pupput https://t.co/orxqkgtn0t</t>
-  </si>
-  <si>
-    <t>rt @luke4tech: @skyrider4538 @trumperseaney @foxnews @seanhannity @realdonaldtrump @bbusa617 
-don’t worry sky..
-just like global warming/y2…</t>
-  </si>
-  <si>
-    <t>rt @mormorlady: six grants worth a total of $260k approved in marginal seat of longman before election https://t.co/hx062zyh2n</t>
-  </si>
-  <si>
-    <t>@ericasatifka how things are shaping up now with covid &amp;amp; gov’t response (lack of) guy in wh is toast.  local media coverage has impact &amp;amp; this is dominating.  my 9 mth old baby would win if we keep going down the pandemic road.  like in 2008 election, outside events can 100% sink/rise campaigns</t>
+    <t>🍩4: our charter states the primary election will be impartial.
+also🍩4: forcing the candidates to consolidate behind biden isn't partiality.</t>
+  </si>
+  <si>
+    <t>election officials prepare for challenge of coronavirus ahead of tuesday's primaries https://t.co/qgspbnu689</t>
+  </si>
+  <si>
+    <t>@drjillstein shut the hell up didn’t you do enough damage in the last election</t>
+  </si>
+  <si>
+    <t>@oneofeachbrown @cenkuygur @realdonaldtrump i don’t believe i’ve seen cenk so unhinged. well, except for election night 2016.</t>
+  </si>
+  <si>
+    <t>rt @bigbadnickwolf: at this point, 'not voting' is about on par with voting for trump imo.
+i mean, i am a canadian, and i want to vote. be…</t>
+  </si>
+  <si>
+    <t>@ianmolony @lizliz_di @bucksexton except the 2020 election will not be cancelled.</t>
+  </si>
+  <si>
+    <t>lol. @speakerpelosi says civilization is at stake at the next election. the hyperbole is hysterical but i think she believes it. maybe the swamp civilization nance... in which case i can’t wait to see @realdonaldtrump finish destroying it. bye madame speaker.</t>
   </si>
   <si>
     <t>rt @medialens: she's right, of course:
@@ -2038,53 +2112,65 @@
 se…</t>
   </si>
   <si>
+    <t>rt @jimstruthbtold: hillary might be biden’s vp running mate.  
+coronavirus and the economic/market downturn might lead to biden/clinton w…</t>
+  </si>
+  <si>
     <t>rt @shekhargupta: my dec 1984 story from gwalior on madhavrao scindia vs vajpayee..
 see what rajmata told me then: “i am so disappointed w…</t>
   </si>
   <si>
-    <t>rt @realjameswoods: the progression of biden’s onset dementia is more evident by the week. it is clear whoever the vice-presidential pick i…</t>
-  </si>
-  <si>
-    <t>@suehow007 @plasticghost2 @clayful2233 @pauletteparis1 @drjillstein lol i see libs accusing “bernie bros” of being conspiracy theorists when they bring up the poor security and exit polls in primaries, then the same libs cry “russian hacked the election” in their very next breath.</t>
+    <t>@asemota @ghanaecg we'll know post-election</t>
+  </si>
+  <si>
+    <t>the only way #democrats lose this election is if we don't join together and #votebluenomatterwho sanders was one of many reasons hillary did not make it into the white house. he is creating another hateful resentful faction in the dem party and he is not even a democrat! #sad</t>
+  </si>
+  <si>
+    <t>rt @peterbo04372810: she gets to vote this election, &amp;amp; she's voting republican!! https://t.co/lea255r8ru</t>
+  </si>
+  <si>
+    <t>rt @toadovision: @deneils @brexit_sham i don’t know what the point of #liarjohnson is.  his governments election propaganda as published on…</t>
+  </si>
+  <si>
+    <t>@esaagar am i the only one looking at this as totally staged? election timing is perfect. china involved. all the other assholes adding to hysteria schools/teachers, media, left corporate america, left govt (cuomo, deblasio, newsom, et al). is america that stupid? #coronavirus</t>
   </si>
   <si>
     <t>rt @cnnpolitics: acting intelligence chief will not brief lawmakers on election security despite expectation he was coming https://t.co/s6m…</t>
   </si>
   <si>
+    <t>"i see this as really a once-in-a-lifetime opportunity, not just in american politics, but for left-wing politics around the world,"  
+“rowe-codner . . . discovered that foreigners are actually allowed to volunteer for any u.s. campaign.” .@mattmargolis
+https://t.co/pcoy12jbeb</t>
+  </si>
+  <si>
     <t>rt @harpreetchima: in the general election, the youth vote is the only demographic that democrats win. without the support of under 45s, de…</t>
   </si>
   <si>
-    <t>rt @mrutyunjaynj: 13 mla of congress from gujarat may soon reign.
-remember 4 rs seats election from gujarat to be conducted soon.</t>
-  </si>
-  <si>
-    <t>@golayiwole @omasoroo we go all die. observe that he was still active to have contested election years after.</t>
-  </si>
-  <si>
-    <t>rt @politicurm: is trump so affraid of losing the election nov 2020 or is it losing the election and going to jail? https://t.co/he5pwmdxaj</t>
-  </si>
-  <si>
-    <t>rt @jiggaboostew3: they should probably cancel the election and just give trump another four years in lieu of this flu bullshit</t>
-  </si>
-  <si>
-    <t>rt @gretchenwhitmer: hi, i’m gretchen whitmer. you may know me from my hits, “smart women will decide this election,” “if you’re on the clo…</t>
-  </si>
-  <si>
-    <t>@borini_lover well the crash was coming for a while, trump admin was doing all it could to delay it until after the election. they should’ve been preparing for the crash and mitigating its impact (they weren’t) but obviously no one can predict a pandemic</t>
-  </si>
-  <si>
-    <t>rt @votekamala: “michigan, i do believe you are going to make the difference in terms of the outcome of this election.”
-– kamala harris at…</t>
-  </si>
-  <si>
-    <t>Teste</t>
+    <t>rt @gul_marjan: election commissiin announced, foreign dignatories and even @imrankhanpti congratulated @ashrafghani and @pashtuntm_offi at…</t>
+  </si>
+  <si>
+    <t>rt @theoneactionpat: @bill_maxwell_ if it's such a hoax, and it's an election year. i vote he should shake as many hands in the crowd, he c…</t>
+  </si>
+  <si>
+    <t>hope yall are right. can we make lightning strike twice in michigan? bernie was 20 points down from hillary in polls prior to election day
+#berniesurge</t>
+  </si>
+  <si>
+    <t>analaysis: why the midwest may be bernie sanders' last stand https://t.co/mxuv58hbvm</t>
+  </si>
+  <si>
+    <t>done! i’m behind on this years season of doctor who, i’ll need to sit out election day if it’s giant douche vs. turd sandwich.  https://t.co/l6tmjagl9q https://t.co/2cn3t0hkbo</t>
+  </si>
+  <si>
+    <t>rt @komodoplatform: only 6 days left until the notary node elections 2020. 
+those who would like to run in the 2020 notary node election m…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2100,6 +2186,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2109,7 +2202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2132,61 +2225,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2233,7 +2292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2265,27 +2324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2317,24 +2358,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2510,2958 +2533,3159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B584"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1">
-      <c r="A507" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1">
-      <c r="A509" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1">
-      <c r="A510" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1">
-      <c r="A512" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1">
-      <c r="A518" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1">
-      <c r="A519" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1">
-      <c r="A522" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1">
-      <c r="A524" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1">
-      <c r="A525" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1">
-      <c r="A526" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1">
-      <c r="A528" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1">
-      <c r="A529" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1">
-      <c r="A531" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1">
-      <c r="A532" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1">
-      <c r="A533" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1">
-      <c r="A534" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1">
-      <c r="A536" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1">
-      <c r="A537" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1">
-      <c r="A538" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1">
-      <c r="A539" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1">
-      <c r="A543" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1">
-      <c r="A544" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1">
-      <c r="A549" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1">
-      <c r="A550" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1">
-      <c r="A554" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1">
-      <c r="A557" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1">
-      <c r="A570" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1">
-      <c r="A574" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1">
-      <c r="A576" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" t="s">
-        <v>584</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1"/>
+    <hyperlink ref="A95" r:id="rId2"/>
+    <hyperlink ref="A191" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/Election.xlsx
+++ b/Election.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel ribeiro\Desktop\insper\Semestre 2\CDados\Projeto 1\CDADOS-P1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF31DA-2C52-4112-A533-C5F924A047A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2169,8 +2185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2246,6 +2262,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2292,7 +2316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2324,9 +2348,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2358,6 +2400,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2533,3157 +2593,3908 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A33" r:id="rId1"/>
-    <hyperlink ref="A95" r:id="rId2"/>
-    <hyperlink ref="A191" r:id="rId3"/>
+    <hyperlink ref="A33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A95" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A191" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>625</v>
       </c>

--- a/Election.xlsx
+++ b/Election.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel ribeiro\Desktop\insper\Semestre 2\CDados\Projeto 1\CDADOS-P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Insper - Institudo de Ensino e Pesquisa\S2\CDADOS\CDADOS-P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF31DA-2C52-4112-A533-C5F924A047A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8D793816-D3CD-4423-846A-A6D3C41F748E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84ED21BB-F634-4D9B-B4F0-311F49B4B191}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="627">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Relevancia</t>
   </si>
   <si>
     <t>biden aims for big michigan win, while sanders looks to keep white house hopes alive https://t.co/mrsdttmwvb</t>
@@ -2249,15 +2252,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2274,7 +2278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2594,3264 +2598,4022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5866,637 +6628,1014 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Election.xlsx
+++ b/Election.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - Insper - Institudo de Ensino e Pesquisa\S2\CDADOS\CDADOS-P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/diegoss3_al_insper_edu_br/Documents/S2/CDADOS/CDADOS-P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8D793816-D3CD-4423-846A-A6D3C41F748E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84ED21BB-F634-4D9B-B4F0-311F49B4B191}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{8D793816-D3CD-4423-846A-A6D3C41F748E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B07EF1A-A656-4C00-B4BD-1A1C60E4B297}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="14670" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2600,11 +2600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="120" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -6630,7 +6633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
